--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE56FC4F-AC16-42C1-A674-84F2D950953F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919A0814-504F-4F8E-8955-03F5E1F6CAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -124,6 +124,16 @@
     <t>例外発生</t>
     <rPh sb="0" eb="4">
       <t>レイガイハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期化の失敗</t>
+    <rPh sb="0" eb="3">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2278,18 +2288,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>353787</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4082143" cy="7783287"/>
+    <xdr:ext cx="4082143" cy="8832850"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D1BA29-6C10-4336-9E03-5A7CC9C1BEF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{561B9557-DFC4-4ADF-8A1F-EFC952930DF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,8 +2307,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9307287" y="484413"/>
-          <a:ext cx="4082143" cy="7783287"/>
+          <a:off x="9315450" y="476250"/>
+          <a:ext cx="4082143" cy="8832850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2376,8 +2386,21 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOLMSG</a:t>
-          </a:r>
+            <a:t>KMGTOOL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MSG</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -3953,6 +3976,318 @@
             </a:rPr>
             <a:t>…logic</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…presentation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…ui.cli</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…ui.gui</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
@@ -4233,7 +4568,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -4279,17 +4614,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4">
         <v>41000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3</f>
-        <v>KMGTOOLLOGW41000=失敗</v>
+        <v>KMGTOOLLOGE41000=初期化の失敗</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4298,17 +4633,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>41001</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4</f>
-        <v>KMGTOOLLOGI41001=成功</v>
+        <v>KMGTOOLLOGE41001=初期化の失敗</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4316,18 +4651,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>41002</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="5" t="str">
         <f t="shared" ref="E5:E7" si="1">$E$1&amp;IF(B5="情報","I",IF(B5="警告","W","E"))&amp;TEXT(C5,"00000")&amp;"="&amp;D5</f>
-        <v>KMGTOOLLOGE41002=例外発生</v>
+        <v>KMGTOOLLOGE00000=</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4716,12 +5045,18 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>41000</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="8" t="str">
         <f>IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
-        <v/>
+        <v>KMGTOOLMSGW41000=失敗</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4729,12 +5064,18 @@
         <f t="shared" ref="A4:A35" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>41001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="8" t="str">
         <f t="shared" ref="E4:E35" si="1">IF(D4="","",$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4)</f>
-        <v/>
+        <v>KMGTOOLMSGI41001=成功</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4742,12 +5083,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41002</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>KMGTOOLMSGE41002=例外発生</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4755,9 +5102,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="8" t="str">
         <f t="shared" ref="E6" si="2">IF(D6="","",$E$1&amp;IF(B6="情報","I",IF(B6="警告","W","E"))&amp;TEXT(C6,"00000")&amp;"="&amp;D6)</f>
         <v/>
@@ -4768,9 +5115,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919A0814-504F-4F8E-8955-03F5E1F6CAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E37B8E-2D4D-479A-BC67-B538C762FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -133,6 +133,16 @@
       <t>ショキカ</t>
     </rPh>
     <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル処理に失敗しました。</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -4623,7 +4633,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f>$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3</f>
+        <f>IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
         <v>KMGTOOLLOGE41000=初期化の失敗</v>
       </c>
     </row>
@@ -4642,7 +4652,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f>$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4</f>
+        <f t="shared" ref="E4:E36" si="1">IF(D4="","",$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4)</f>
         <v>KMGTOOLLOGE41001=初期化の失敗</v>
       </c>
     </row>
@@ -4655,8 +4665,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="1"/>
       <c r="E5" s="5" t="str">
-        <f t="shared" ref="E5:E7" si="1">$E$1&amp;IF(B5="情報","I",IF(B5="警告","W","E"))&amp;TEXT(C5,"00000")&amp;"="&amp;D5</f>
-        <v>KMGTOOLLOGE00000=</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4669,7 +4679,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>KMGTOOLLOGE00000=</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4682,7 +4692,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>KMGTOOLLOGE00000=</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4693,7 +4703,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
@@ -4703,7 +4716,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
@@ -4713,7 +4729,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
@@ -4723,7 +4742,10 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
@@ -4733,7 +4755,10 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
@@ -4743,7 +4768,10 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
@@ -4753,7 +4781,10 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
@@ -4763,7 +4794,10 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
@@ -4773,7 +4807,10 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
@@ -4783,7 +4820,10 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
@@ -4793,7 +4833,10 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
@@ -4803,7 +4846,10 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
@@ -4813,7 +4859,10 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
@@ -4823,7 +4872,10 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
@@ -4833,7 +4885,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
@@ -4843,7 +4898,10 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
@@ -4853,7 +4911,10 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
@@ -4863,7 +4924,10 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
@@ -4873,7 +4937,10 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
@@ -4883,7 +4950,10 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
@@ -4893,7 +4963,10 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
@@ -4903,7 +4976,10 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
@@ -4913,7 +4989,10 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
@@ -4923,7 +5002,10 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
@@ -4933,7 +5015,10 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
@@ -4943,7 +5028,10 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
@@ -4953,7 +5041,10 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
@@ -4963,7 +5054,10 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
@@ -4973,7 +5067,10 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5102,12 +5199,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>41003</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="8" t="str">
         <f t="shared" ref="E6" si="2">IF(D6="","",$E$1&amp;IF(B6="情報","I",IF(B6="警告","W","E"))&amp;TEXT(C6,"00000")&amp;"="&amp;D6)</f>
-        <v/>
+        <v>KMGTOOLMSGE41003=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5115,12 +5218,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>41004</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>KMGTOOLMSGE41004=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E37B8E-2D4D-479A-BC67-B538C762FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0478A823-FB09-4D93-BB67-61111FF5907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="6440" windowWidth="28800" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -99,10 +99,6 @@
     <t>エラー</t>
   </si>
   <si>
-    <t>KMGTOOLMSG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>KMGTOOLLOG</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -145,6 +141,10 @@
     <rPh sb="7" eb="9">
       <t>シッパイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KMGTOOLGEN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2367,7 +2367,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOLMSGI</a:t>
+            <a:t>KMGTOOLGENI</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -2408,7 +2408,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>MSG</a:t>
+            <a:t>GEN</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -4598,7 +4598,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4630,7 +4630,7 @@
         <v>41000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
@@ -4649,7 +4649,7 @@
         <v>41001</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" ref="E4:E36" si="1">IF(D4="","",$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4)</f>
@@ -5117,7 +5117,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5149,11 +5149,11 @@
         <v>41000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="8" t="str">
         <f>IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
-        <v>KMGTOOLMSGW41000=失敗</v>
+        <v>KMGTOOLGENW41000=失敗</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5168,11 +5168,11 @@
         <v>41001</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" ref="E4:E35" si="1">IF(D4="","",$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4)</f>
-        <v>KMGTOOLMSGI41001=成功</v>
+        <v>KMGTOOLGENI41001=成功</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5187,11 +5187,11 @@
         <v>41002</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>KMGTOOLMSGE41002=例外発生</v>
+        <v>KMGTOOLGENE41002=例外発生</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5206,11 +5206,11 @@
         <v>41003</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" ref="E6" si="2">IF(D6="","",$E$1&amp;IF(B6="情報","I",IF(B6="警告","W","E"))&amp;TEXT(C6,"00000")&amp;"="&amp;D6)</f>
-        <v>KMGTOOLMSGE41003=ファイル処理に失敗しました。</v>
+        <v>KMGTOOLGENE41003=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5225,11 +5225,11 @@
         <v>41004</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>KMGTOOLMSGE41004=ファイル処理に失敗しました。</v>
+        <v>KMGTOOLGENE41004=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0478A823-FB09-4D93-BB67-61111FF5907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFE24A1-A8AD-40D1-AC32-535252184EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="6440" windowWidth="28800" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -2303,7 +2303,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4082143" cy="8832850"/>
+    <xdr:ext cx="4832350" cy="9271000"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
@@ -2318,7 +2318,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9315450" y="476250"/>
-          <a:ext cx="4082143" cy="8832850"/>
+          <a:ext cx="4832350" cy="9271000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2488,6 +2488,16 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>処理が停止するログメッセージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メッセージは一般的なメッセージのため、基本は「情報」とする。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5143,176 +5153,176 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4">
-        <v>41000</v>
+        <v>31000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="str">
-        <f>IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
-        <v>KMGTOOLGENW41000=失敗</v>
+        <f t="shared" ref="E3:E4" si="0">IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
+        <v>KMGTOOLGENI31000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10">
-        <f t="shared" ref="A4:A35" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A35" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>41001</v>
+        <v>31001</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="8" t="str">
-        <f t="shared" ref="E4:E35" si="1">IF(D4="","",$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4)</f>
-        <v>KMGTOOLGENI41001=成功</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOLGENI31001=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>41002</v>
+        <v>41000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGTOOLGENE41002=例外発生</v>
+        <f>IF(D5="","",$E$1&amp;IF(B5="情報","I",IF(B5="警告","W","E"))&amp;TEXT(C5,"00000")&amp;"="&amp;D5)</f>
+        <v>KMGTOOLGENI41000=失敗</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>41003</v>
+        <v>41001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="8" t="str">
-        <f t="shared" ref="E6" si="2">IF(D6="","",$E$1&amp;IF(B6="情報","I",IF(B6="警告","W","E"))&amp;TEXT(C6,"00000")&amp;"="&amp;D6)</f>
-        <v>KMGTOOLGENE41003=ファイル処理に失敗しました。</v>
+        <f t="shared" ref="E6:E13" si="2">IF(D6="","",$E$1&amp;IF(B6="情報","I",IF(B6="警告","W","E"))&amp;TEXT(C6,"00000")&amp;"="&amp;D6)</f>
+        <v>KMGTOOLGENI41001=成功</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4">
-        <v>41004</v>
+        <v>41002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGTOOLGENE41004=ファイル処理に失敗しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOLGENI41002=例外発生</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
       <c r="E8" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10"/>
       <c r="E9" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
       <c r="E10" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="10"/>
       <c r="E11" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="10"/>
       <c r="E13" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="10"/>
@@ -5325,274 +5335,274 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E4:E35" si="4">IF(D15="","",$E$1&amp;IF(B15="情報","I",IF(B15="警告","W","E"))&amp;TEXT(C15,"00000")&amp;"="&amp;D15)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
       <c r="E16" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
       <c r="E17" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
       <c r="E18" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
       <c r="E19" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
       <c r="E20" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
       <c r="E21" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
       <c r="E22" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
       <c r="E23" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
       <c r="E24" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
       <c r="E25" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
       <c r="E26" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
       <c r="E27" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="10"/>
       <c r="E28" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="10"/>
       <c r="E29" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFE24A1-A8AD-40D1-AC32-535252184EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC03646D-C9A8-4EFB-97F4-AE2C8012C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -147,6 +147,26 @@
     <t>KMGTOOLGEN</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>初期化に失敗しました</t>
+    <rPh sb="0" eb="3">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -244,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -274,6 +294,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4637,448 +4663,454 @@
         <v>9</v>
       </c>
       <c r="C3" s="4">
-        <v>41000</v>
+        <v>31000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f>IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
-        <v>KMGTOOLLOGE41000=初期化の失敗</v>
+        <f t="shared" ref="E3:E36" si="0">IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
+        <v>KMGTOOLLOGE31000=初期化に失敗しました</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A36" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>41001</v>
+        <v>41000</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f t="shared" ref="E4:E36" si="1">IF(D4="","",$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4)</f>
-        <v>KMGTOOLLOGE41001=初期化の失敗</v>
+        <f t="shared" ref="E4:E8" si="2">IF(D4="","",$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4)</f>
+        <v>KMGTOOLLOGE41000=初期化の失敗</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41001</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>KMGTOOLLOGE41001=初期化の失敗</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
       <c r="D6" s="1"/>
       <c r="E6" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1"/>
       <c r="E11" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1"/>
       <c r="E12" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1"/>
       <c r="E13" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5152,13 +5184,13 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="15">
         <v>31000</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="8" t="str">
@@ -5171,13 +5203,13 @@
         <f t="shared" ref="A4:A35" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="15">
         <v>31001</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="8" t="str">
@@ -5190,18 +5222,18 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
-        <v>41000</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
+      <c r="C5" s="15">
+        <v>31002</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="8" t="str">
         <f>IF(D5="","",$E$1&amp;IF(B5="情報","I",IF(B5="警告","W","E"))&amp;TEXT(C5,"00000")&amp;"="&amp;D5)</f>
-        <v>KMGTOOLGENI41000=失敗</v>
+        <v>KMGTOOLGENI31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5209,18 +5241,18 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
-        <v>41001</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
+      <c r="C6" s="15">
+        <v>41000</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" ref="E6:E13" si="2">IF(D6="","",$E$1&amp;IF(B6="情報","I",IF(B6="警告","W","E"))&amp;TEXT(C6,"00000")&amp;"="&amp;D6)</f>
-        <v>KMGTOOLGENI41001=成功</v>
+        <v>KMGTOOLGENI41000=失敗</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5228,31 +5260,37 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4">
-        <v>41002</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
+      <c r="C7" s="15">
+        <v>41001</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOLGENI41002=例外発生</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>KMGTOOLGENI41001=成功</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="36">
       <c r="A8" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15">
+        <v>41002</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>KMGTOOLGENI41002=例外発生</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5299,9 +5337,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5342,7 +5380,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8" t="str">
-        <f t="shared" ref="E4:E35" si="4">IF(D15="","",$E$1&amp;IF(B15="情報","I",IF(B15="警告","W","E"))&amp;TEXT(C15,"00000")&amp;"="&amp;D15)</f>
+        <f t="shared" ref="E15:E35" si="4">IF(D15="","",$E$1&amp;IF(B15="情報","I",IF(B15="警告","W","E"))&amp;TEXT(C15,"00000")&amp;"="&amp;D15)</f>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC03646D-C9A8-4EFB-97F4-AE2C8012C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB29ACD-AF0D-4276-B371-FCAB55DB8B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15460" yWindow="6610" windowWidth="28800" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -148,22 +148,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初期化に失敗しました</t>
-    <rPh sb="0" eb="3">
-      <t>ショキカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</t>
     <rPh sb="11" eb="13">
       <t>シュトク</t>
     </rPh>
     <rPh sb="14" eb="16">
       <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期化で例外が発生しました。</t>
+    <rPh sb="0" eb="3">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -289,17 +292,17 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4627,12 +4630,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
@@ -4663,14 +4666,14 @@
         <v>9</v>
       </c>
       <c r="C3" s="4">
-        <v>31000</v>
+        <v>41000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E36" si="0">IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
-        <v>KMGTOOLLOGE31000=初期化に失敗しました</v>
+        <f t="shared" ref="E3:E13" si="0">IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
+        <v>KMGTOOLLOGE41000=初期化の失敗</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4682,14 +4685,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>41000</v>
+        <v>41001</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f t="shared" ref="E4:E8" si="2">IF(D4="","",$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4)</f>
-        <v>KMGTOOLLOGE41000=初期化の失敗</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOLLOGE41001=初期化の失敗</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4701,14 +4704,14 @@
         <v>9</v>
       </c>
       <c r="C5" s="4">
-        <v>41001</v>
+        <v>41002</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOLLOGE41001=初期化の失敗</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOLLOGE41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4717,10 +4720,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4733,7 +4736,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4746,7 +4749,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4769,7 +4772,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="1"/>
       <c r="E10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4808,7 +4811,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4824,7 +4827,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E36" si="2">IF(D14="","",$E$1&amp;IF(B14="情報","I",IF(B14="警告","W","E"))&amp;TEXT(C14,"00000")&amp;"="&amp;D14)</f>
         <v/>
       </c>
     </row>
@@ -4837,7 +4840,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4850,7 +4853,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4863,7 +4866,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4876,7 +4879,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4889,7 +4892,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4902,7 +4905,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4915,7 +4918,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4928,7 +4931,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4941,7 +4944,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4954,7 +4957,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4967,7 +4970,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4980,7 +4983,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4993,7 +4996,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5006,7 +5009,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5019,7 +5022,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5032,7 +5035,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5045,7 +5048,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5058,7 +5061,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5071,7 +5074,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5084,7 +5087,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5097,7 +5100,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5110,7 +5113,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5152,12 +5155,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
@@ -5184,13 +5187,13 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>31000</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="8" t="str">
@@ -5203,13 +5206,13 @@
         <f t="shared" ref="A4:A35" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>31001</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="8" t="str">
@@ -5217,19 +5220,19 @@
         <v>KMGTOOLGENI31001=ファイル処理に失敗しました。</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="36">
       <c r="A5" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>31002</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>18</v>
+      <c r="D5" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="8" t="str">
         <f>IF(D5="","",$E$1&amp;IF(B5="情報","I",IF(B5="警告","W","E"))&amp;TEXT(C5,"00000")&amp;"="&amp;D5)</f>
@@ -5241,13 +5244,13 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>41000</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="8" t="str">
@@ -5260,13 +5263,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>41001</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="8" t="str">
@@ -5274,18 +5277,18 @@
         <v>KMGTOOLGENI41001=成功</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36">
+    <row r="8" spans="1:5">
       <c r="A8" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>41002</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="8" t="str">
@@ -5337,9 +5340,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB29ACD-AF0D-4276-B371-FCAB55DB8B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4938EDAB-00F5-44B7-9BE5-B2C13CF95876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15460" yWindow="6610" windowWidth="28800" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="メッセージ一覧" sheetId="3" r:id="rId2"/>
+    <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
+    <sheet name="ログ一覧" sheetId="1" r:id="rId2"/>
     <sheet name="リスト" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -96,13 +96,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラー</t>
-  </si>
-  <si>
-    <t>KMGTOOLLOG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>失敗</t>
     <rPh sb="0" eb="2">
       <t>シッパイ</t>
@@ -144,10 +137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KMGTOOLGEN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</t>
     <rPh sb="11" eb="13">
       <t>シュトク</t>
@@ -168,6 +157,14 @@
     <rPh sb="7" eb="9">
       <t>ハッセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KMGTOOL_LOG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KMGTOOL_GEN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -326,17 +323,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4082143" cy="8832850"/>
+    <xdr:ext cx="2660650" cy="7766050"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB76BFE-7C37-4709-8979-7FE847E70D6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{561B9557-DFC4-4ADF-8A1F-EFC952930DF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -344,8 +341,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7207250" y="469900"/>
-          <a:ext cx="4082143" cy="8832850"/>
+          <a:off x="8807450" y="476250"/>
+          <a:ext cx="2660650" cy="7766050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -394,7 +391,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOLLOGI</a:t>
+            <a:t>KMGTOOL_GEN</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -423,85 +420,19 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOLLOG</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■分類の種類</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>情報（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>I</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>情報を伝えるメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>警告（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>W</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>処理を継続するか、確認が必要なメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>エラー（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>E</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>処理が停止するログメッセージ</a:t>
+            <a:t>KMGTOOL_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GEN</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2327,18 +2258,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336551</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4832350" cy="9271000"/>
+    <xdr:ext cx="2641600" cy="7594600"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{561B9557-DFC4-4ADF-8A1F-EFC952930DF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB76BFE-7C37-4709-8979-7FE847E70D6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,8 +2277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9315450" y="476250"/>
-          <a:ext cx="4832350" cy="9271000"/>
+          <a:off x="7207251" y="469900"/>
+          <a:ext cx="2641600" cy="7594600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2396,7 +2327,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOLGENI</a:t>
+            <a:t>KMGTOOL_LOG</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -2425,110 +2356,8 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>GEN</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■分類の種類</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>情報（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>I</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>情報を伝えるメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>警告（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>W</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>処理を継続するか、確認が必要なメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>エラー（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>E</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>処理が停止するログメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メッセージは一般的なメッセージのため、基本は「情報」とする。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>KMGTOOL_LOG</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -4610,8 +4439,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -4622,511 +4451,462 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.9140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.58203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="4.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4">
+      <c r="A3" s="10">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="13">
+        <v>31000</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="10">
+        <f t="shared" ref="A4:A35" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="13">
+        <v>31001</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f>IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
+        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="13">
+        <v>31002</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f>IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
+        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>41000</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
-        <v>41000</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D6" s="5" t="str">
+        <f>IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
+        <v>KMGTOOL_GEN41000=失敗</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="13">
+        <v>41001</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f>IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
+        <v>KMGTOOL_GEN41001=成功</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="13">
+        <v>41002</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f>IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
+        <v>KMGTOOL_GEN41002=例外発生</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8" t="str">
+        <f>IF(C9="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B9,"00000")&amp;"="&amp;C9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8" t="str">
+        <f>IF(C10="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B10,"00000")&amp;"="&amp;C10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8" t="str">
+        <f>IF(C11="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="8" t="str">
+        <f>IF(C12="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8" t="str">
+        <f>IF(C13="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="8" t="str">
+        <f>IF(C14="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8" t="str">
+        <f>IF(C15="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E13" si="0">IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
-        <v>KMGTOOLLOGE41000=初期化の失敗</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A36" si="1">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>41001</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOLLOGE41001=初期化の失敗</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>41002</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8" t="str">
+        <f>IF(C16="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8" t="str">
+        <f>IF(C17="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8" t="str">
+        <f>IF(C18="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8" t="str">
+        <f>IF(C19="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOLLOGE41002=初期化で例外が発生しました。</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="5" t="str">
-        <f t="shared" ref="E3:E36" si="2">IF(D14="","",$E$1&amp;IF(B14="情報","I",IF(B14="警告","W","E"))&amp;TEXT(C14,"00000")&amp;"="&amp;D14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <f t="shared" si="1"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="8" t="str">
+        <f>IF(C20="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="10">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <f t="shared" si="1"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8" t="str">
+        <f>IF(C21="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="10">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <f t="shared" si="1"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="8" t="str">
+        <f>IF(C22="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="10">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <f t="shared" si="1"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="8" t="str">
+        <f>IF(C23="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="10">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <f t="shared" si="1"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="8" t="str">
+        <f>IF(C24="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="10">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <f t="shared" si="1"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="8" t="str">
+        <f>IF(C25="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <f t="shared" si="1"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="8" t="str">
+        <f>IF(C26="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="10">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <f t="shared" si="1"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="8" t="str">
+        <f>IF(C27="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <f t="shared" si="1"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="8" t="str">
+        <f>IF(C28="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <f t="shared" si="1"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="8" t="str">
+        <f>IF(C29="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="10">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <f t="shared" si="1"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="8" t="str">
+        <f>IF(C30="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <f t="shared" si="1"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="8" t="str">
+        <f>IF(C31="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="10">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <f t="shared" si="1"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="8" t="str">
+        <f>IF(C32="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="10">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <f t="shared" si="1"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="8" t="str">
+        <f>IF(C33="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="10">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <f t="shared" si="1"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="8" t="str">
+        <f>IF(C34="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="8" t="str">
+        <f>IF(C35="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B36" xr:uid="{45CCEC75-5A17-464D-BBC8-7B39F46B2C4E}">
-      <formula1>種類</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5134,8 +4914,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -5146,517 +4926,461 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.9140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.75" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="4.75" style="9"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="4">
+        <v>41000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>41001</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" ref="D4:D5" si="1">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>41002</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C3" s="13">
-        <v>31000</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5" t="str">
+        <f>IF(C6="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5" t="str">
+        <f>IF(C7="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5" t="str">
+        <f>IF(C8="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5" t="str">
+        <f>IF(C9="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B9,"00000")&amp;"="&amp;C9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5" t="str">
+        <f>IF(C10="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B10,"00000")&amp;"="&amp;C10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5" t="str">
+        <f>IF(C11="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5" t="str">
+        <f>IF(C12="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5" t="str">
+        <f>IF(C13="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5" t="str">
+        <f>IF(C14="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5" t="str">
+        <f>IF(C15="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5" t="str">
+        <f>IF(C16="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="str">
-        <f t="shared" ref="E3:E4" si="0">IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
-        <v>KMGTOOLGENI31000=ファイル処理に失敗しました。</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10">
-        <f t="shared" ref="A4:A35" si="1">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13">
-        <v>31001</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOLGENI31001=ファイル処理に失敗しました。</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="36">
-      <c r="A5" s="10">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="13">
-        <v>31002</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5" t="str">
+        <f>IF(C17="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5" t="str">
+        <f>IF(C18="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="str">
-        <f>IF(D5="","",$E$1&amp;IF(B5="情報","I",IF(B5="警告","W","E"))&amp;TEXT(C5,"00000")&amp;"="&amp;D5)</f>
-        <v>KMGTOOLGENI31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13">
-        <v>41000</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="str">
-        <f t="shared" ref="E6:E13" si="2">IF(D6="","",$E$1&amp;IF(B6="情報","I",IF(B6="警告","W","E"))&amp;TEXT(C6,"00000")&amp;"="&amp;D6)</f>
-        <v>KMGTOOLGENI41000=失敗</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13">
-        <v>41001</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOLGENI41001=成功</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13">
-        <v>41002</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOLGENI41002=例外発生</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8" t="str">
-        <f t="shared" ref="E14" si="3">IF(D14="","",$E$1&amp;IF(B14="情報","I",IF(B14="警告","W","E"))&amp;TEXT(C14,"00000")&amp;"="&amp;D14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8" t="str">
-        <f t="shared" ref="E15:E35" si="4">IF(D15="","",$E$1&amp;IF(B15="情報","I",IF(B15="警告","W","E"))&amp;TEXT(C15,"00000")&amp;"="&amp;D15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="10">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="10">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="10">
-        <f t="shared" si="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5" t="str">
+        <f>IF(C19="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="10">
-        <f t="shared" si="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5" t="str">
+        <f>IF(C20="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="10">
-        <f t="shared" si="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5" t="str">
+        <f>IF(C21="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="10">
-        <f t="shared" si="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5" t="str">
+        <f>IF(C22="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="10">
-        <f t="shared" si="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5" t="str">
+        <f>IF(C23="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="10">
-        <f t="shared" si="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5" t="str">
+        <f>IF(C24="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="10">
-        <f t="shared" si="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5" t="str">
+        <f>IF(C25="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="10">
-        <f t="shared" si="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5" t="str">
+        <f>IF(C26="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="10">
-        <f t="shared" si="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="5" t="str">
+        <f>IF(C27="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="10">
-        <f t="shared" si="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="5" t="str">
+        <f>IF(C28="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="10">
-        <f t="shared" si="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="5" t="str">
+        <f>IF(C29="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="10">
-        <f t="shared" si="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="5" t="str">
+        <f>IF(C30="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="10">
-        <f t="shared" si="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5" t="str">
+        <f>IF(C31="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="10">
-        <f t="shared" si="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="5" t="str">
+        <f>IF(C32="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="10">
-        <f t="shared" si="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="5" t="str">
+        <f>IF(C33="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="10">
-        <f t="shared" si="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="5" t="str">
+        <f>IF(C34="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="8" t="str">
-        <f t="shared" si="4"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="5" t="str">
+        <f>IF(C35="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="5" t="str">
+        <f>IF(C36="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B36,"00000")&amp;"="&amp;C36)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B35" xr:uid="{5FE1378C-FB89-4E09-85A9-56F87EEB9AF1}">
-      <formula1>種類</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4938EDAB-00F5-44B7-9BE5-B2C13CF95876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834DADEC-84B0-4F7D-B208-2C1736C51581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="0" windowWidth="19400" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -167,6 +167,51 @@
     <t>KMGTOOL_GEN</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>先頭大文字項目がnullです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名がnullです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javadocコメントがnullです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型情報がnullです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -264,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -296,10 +341,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4440,7 +4488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -4459,11 +4507,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
@@ -4493,14 +4541,14 @@
       <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="str">
-        <f>IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+      <c r="D3" s="16" t="str">
+        <f t="shared" ref="D3:D17" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="10">
-        <f t="shared" ref="A4:A35" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A36" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="13">
@@ -4509,14 +4557,14 @@
       <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="str">
-        <f>IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
+      <c r="D4" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="13">
@@ -4525,170 +4573,194 @@
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="str">
-        <f>IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
+      <c r="D5" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>32000</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
-        <v>41000</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="str">
-        <f>IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
-        <v>KMGTOOL_GEN41000=失敗</v>
+        <v>KMGTOOL_GEN32000=先頭大文字項目がnullです。</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>32001</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="13">
-        <v>41001</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="str">
-        <f>IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>32002</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="13">
-        <v>41002</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5" t="str">
-        <f>IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="11">
+        <v>32003</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="8" t="str">
-        <f>IF(C9="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B9,"00000")&amp;"="&amp;C9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36">
       <c r="A10" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>32004</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="8" t="str">
-        <f>IF(C10="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B10,"00000")&amp;"="&amp;C10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36">
       <c r="A11" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <v>32005</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="8" t="str">
-        <f>IF(C11="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
-        <v/>
+        <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="13">
+        <v>41000</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="8" t="str">
-        <f>IF(C12="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
-        <v/>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="13">
+        <v>41001</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8" t="str">
-        <f>IF(C13="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
-        <v/>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="13">
+        <v>41002</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="8" t="str">
-        <f>IF(C14="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
-        <v/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="8" t="str">
-        <f>IF(C15="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
+      <c r="D15" s="16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="8" t="str">
-        <f>IF(C16="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+      <c r="D16" s="16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8" t="str">
-        <f>IF(C17="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="11"/>
@@ -4700,7 +4772,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="11"/>
@@ -4712,7 +4784,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="11"/>
@@ -4724,7 +4796,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="11"/>
@@ -4736,7 +4808,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="11"/>
@@ -4748,7 +4820,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="11"/>
@@ -4760,7 +4832,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="11"/>
@@ -4772,7 +4844,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="11"/>
@@ -4784,7 +4856,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="11"/>
@@ -4796,7 +4868,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="11"/>
@@ -4808,7 +4880,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="11"/>
@@ -4820,7 +4892,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="11"/>
@@ -4832,10 +4904,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="10"/>
       <c r="D30" s="8" t="str">
         <f>IF(C30="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
@@ -4844,7 +4916,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="10"/>
@@ -4856,7 +4928,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="10"/>
@@ -4868,7 +4940,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="10"/>
@@ -4880,7 +4952,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="10"/>
@@ -4892,13 +4964,25 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="8" t="str">
         <f>IF(C35="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="10">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="8" t="str">
+        <f>IF(C36="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B36,"00000")&amp;"="&amp;C36)</f>
         <v/>
       </c>
     </row>
@@ -4933,11 +5017,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834DADEC-84B0-4F7D-B208-2C1736C51581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24916ACA-1532-4100-85BF-4A57E775A1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="0" windowWidth="19400" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -212,6 +212,21 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1行読み込みに失敗しました。</t>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -340,13 +355,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4507,11 +4522,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
@@ -4541,7 +4556,7 @@
       <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="16" t="str">
+      <c r="D3" s="14" t="str">
         <f t="shared" ref="D3:D17" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
@@ -4557,7 +4572,7 @@
       <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16" t="str">
+      <c r="D4" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
       </c>
@@ -4573,7 +4588,7 @@
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="16" t="str">
+      <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
@@ -4589,7 +4604,7 @@
       <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="16" t="str">
+      <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN32000=先頭大文字項目がnullです。</v>
       </c>
@@ -4605,7 +4620,7 @@
       <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16" t="str">
+      <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
@@ -4621,7 +4636,7 @@
       <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="16" t="str">
+      <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
@@ -4637,7 +4652,7 @@
       <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="16" t="str">
+      <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
@@ -4653,7 +4668,7 @@
       <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
@@ -4669,7 +4684,7 @@
       <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
@@ -4679,47 +4694,47 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="13">
-        <v>41000</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="11">
+        <v>32006</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f t="shared" ref="D12:D19" si="2">IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
+        <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36">
       <c r="A13" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="13">
-        <v>41001</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN41001=成功</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="11">
+        <v>32007</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36">
       <c r="A14" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="13">
-        <v>41002</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+      <c r="B14" s="11">
+        <v>32008</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32008=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4727,11 +4742,15 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B15" s="13">
+        <v>41000</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4739,11 +4758,15 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B16" s="13">
+        <v>41001</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4751,11 +4774,15 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B17" s="13">
+        <v>41002</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4765,8 +4792,8 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="8" t="str">
-        <f>IF(C18="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
+      <c r="D18" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4777,8 +4804,8 @@
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="8" t="str">
-        <f>IF(C19="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
+      <c r="D19" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5017,11 +5044,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24916ACA-1532-4100-85BF-4A57E775A1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD972BB-D94D-47E9-A228-B7998660F561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -225,6 +225,23 @@
   </si>
   <si>
     <t>ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力ファイルのクローズに失敗しました。入力ファイルパス=[{0}]</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力ファイルのクローズに失敗しました。出力ファイルパス=[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4557,7 +4574,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="14" t="str">
-        <f t="shared" ref="D3:D17" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D11" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
     </row>
@@ -4742,15 +4759,15 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="13">
-        <v>41000</v>
+      <c r="B15" s="11">
+        <v>32009</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D15" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
+        <v>KMGTOOL_GEN32009=入力ファイルのクローズに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4758,15 +4775,15 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="13">
-        <v>41001</v>
+      <c r="B16" s="11">
+        <v>32010</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D16" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <v>KMGTOOL_GEN32010=出力ファイルのクローズに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4775,14 +4792,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="13">
-        <v>41002</v>
+        <v>41000</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+        <f t="shared" ref="D17:D21" si="3">IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4790,11 +4807,15 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="13">
+        <v>41001</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="D18" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4802,11 +4823,15 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="13">
+        <v>41002</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4816,8 +4841,8 @@
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="8" t="str">
-        <f>IF(C20="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
+      <c r="D20" s="14" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4828,8 +4853,8 @@
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="8" t="str">
-        <f>IF(C21="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
+      <c r="D21" s="14" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD972BB-D94D-47E9-A228-B7998660F561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E250ED-5395-4D94-B522-E4B0B89320BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="7270" windowWidth="28800" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -227,23 +227,6 @@
     <t>ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>入力ファイルのクローズに失敗しました。入力ファイルパス=[{0}]</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出力ファイルのクローズに失敗しました。出力ファイルパス=[{0}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
@@ -341,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -352,9 +335,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4531,19 +4511,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.9140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.58203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="4.75" style="9"/>
+    <col min="1" max="1" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.9140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.58203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="4.75" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
@@ -4563,478 +4543,470 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>31000</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="14" t="str">
+      <c r="D3" s="13" t="str">
         <f t="shared" ref="D3:D11" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <f t="shared" ref="A4:A36" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>31001</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14" t="str">
+      <c r="D4" s="13" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>31002</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14" t="str">
+      <c r="D5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>32000</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN32000=先頭大文字項目がnullです。</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>32001</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>32002</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="14" t="str">
+      <c r="D8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>32003</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="14" t="str">
+      <c r="D9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="36">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>32004</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="14" t="str">
+      <c r="D10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>32005</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="14" t="str">
+      <c r="D11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>32006</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="14" t="str">
-        <f t="shared" ref="D12:D19" si="2">IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
+      <c r="D12" s="13" t="str">
+        <f t="shared" ref="D12:D36" si="2">IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
         <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>32007</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="14" t="str">
+      <c r="D13" s="13" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="36">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>32008</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="14" t="str">
+      <c r="D14" s="13" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32008=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="11">
-        <v>32009</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="14" t="str">
+      <c r="B15" s="12">
+        <v>41000</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32009=入力ファイルのクローズに失敗しました。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="11">
-        <v>32010</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="14" t="str">
+      <c r="B16" s="12">
+        <v>41001</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32010=出力ファイルのクローズに失敗しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="13">
-        <v>41000</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="14" t="str">
-        <f t="shared" ref="D17:D21" si="3">IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
-        <v>KMGTOOL_GEN41000=失敗</v>
+      <c r="B17" s="12">
+        <v>41002</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="13">
-        <v>41001</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="13">
-        <v>41002</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="8" t="str">
-        <f>IF(C22="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="8" t="str">
-        <f>IF(C23="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="8" t="str">
-        <f>IF(C24="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="8" t="str">
-        <f>IF(C25="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="8" t="str">
-        <f>IF(C26="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="8" t="str">
-        <f>IF(C27="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="8" t="str">
-        <f>IF(C28="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="8" t="str">
-        <f>IF(C29="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="8" t="str">
-        <f>IF(C30="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="8" t="str">
-        <f>IF(C31="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="8" t="str">
-        <f>IF(C32="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="8" t="str">
-        <f>IF(C33="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="8" t="str">
-        <f>IF(C34="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="8" t="str">
-        <f>IF(C35="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="8" t="str">
-        <f>IF(C36="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B36,"00000")&amp;"="&amp;C36)</f>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="13" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5069,11 +5041,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E250ED-5395-4D94-B522-E4B0B89320BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B5584C-7FA5-4623-A0D3-BB599B29380F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="7270" windowWidth="28800" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -225,6 +225,46 @@
   </si>
   <si>
     <t>ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVファイルに書き込む処理を開始します。</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVファイルに書き込み中にエラーが発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースのクローズ処理中にエラーが発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア処理中にエラーが発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラムの追加中にエラーが発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1行データの読み込み中にエラーが発生しました。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5070,417 +5110,445 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>41000</v>
+        <v>32000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f>IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <f t="shared" ref="D3:D16" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <v>KMGTOOL_LOG32000=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A36" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>41001</v>
+        <v>32001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="str">
-        <f t="shared" ref="D4:D5" si="1">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG32001=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>32002</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>41002</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+        <v>KMGTOOL_LOG32002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>32003</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5" t="str">
-        <f>IF(C6="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
-        <v/>
+        <v>KMGTOOL_LOG32003=リソースのクローズ処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>32004</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5" t="str">
-        <f>IF(C7="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
-        <v/>
+        <v>KMGTOOL_LOG32004=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>32005</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5" t="str">
-        <f>IF(C8="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
-        <v/>
+        <v>KMGTOOL_LOG32005=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>32006</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5" t="str">
-        <f>IF(C9="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B9,"00000")&amp;"="&amp;C9)</f>
-        <v/>
+        <v>KMGTOOL_LOG32006=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="4">
+        <v>41000</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="5" t="str">
-        <f>IF(C10="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B10,"00000")&amp;"="&amp;C10)</f>
-        <v/>
+        <f>IF(C10="","",$D$1&amp;TEXT(B10,"00000")&amp;"="&amp;C10)</f>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="4">
+        <v>41001</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D11" s="5" t="str">
-        <f>IF(C11="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
-        <v/>
+        <f t="shared" ref="D11:D16" si="2">IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="4">
+        <v>41002</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D12" s="5" t="str">
-        <f>IF(C12="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5" t="str">
-        <f>IF(C13="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="5" t="str">
-        <f>IF(C14="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="5" t="str">
-        <f>IF(C15="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="5" t="str">
-        <f>IF(C16="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5" t="str">
-        <f>IF(C17="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
+        <f t="shared" ref="D17:D31" si="3">IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5" t="str">
-        <f>IF(C18="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5" t="str">
-        <f>IF(C19="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5" t="str">
-        <f>IF(C20="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5" t="str">
-        <f>IF(C21="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5" t="str">
-        <f>IF(C22="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5" t="str">
-        <f>IF(C23="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5" t="str">
-        <f>IF(C24="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5" t="str">
-        <f>IF(C25="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="5" t="str">
-        <f>IF(C26="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="5" t="str">
-        <f>IF(C27="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="5" t="str">
-        <f>IF(C28="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="5" t="str">
-        <f>IF(C29="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5" t="str">
-        <f>IF(C30="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5" t="str">
-        <f>IF(C31="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5" t="str">
-        <f>IF(C32="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <f t="shared" ref="D4:D36" si="4">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5" t="str">
-        <f>IF(C33="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5" t="str">
-        <f>IF(C34="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5" t="str">
-        <f>IF(C35="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5" t="str">
-        <f>IF(C36="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B36,"00000")&amp;"="&amp;C36)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B5584C-7FA5-4623-A0D3-BB599B29380F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47044CE-52B4-46A4-BCE9-E43A80C3E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -265,6 +265,22 @@
   </si>
   <si>
     <t>1行データの読み込み中にエラーが発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVファイルに書き込む処理を終了します。</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4635,15 +4651,15 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="10">
-        <v>32000</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
+      <c r="B6" s="12">
+        <v>31003</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN32000=先頭大文字項目がnullです。</v>
+        <v>KMGTOOL_GEN31003=リソースのクローズ処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4652,14 +4668,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="10">
-        <v>32001</v>
+        <v>32000</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+        <f t="shared" ref="D7:D18" si="2">IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
+        <v>KMGTOOL_GEN32000=先頭大文字項目がnullです。</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4668,14 +4684,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="10">
-        <v>32002</v>
+        <v>32001</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4684,30 +4700,30 @@
         <v>7</v>
       </c>
       <c r="B9" s="10">
+        <v>32002</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
         <v>32003</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="D10" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32003=型情報がnullです。</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="36">
-      <c r="A10" s="9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="10">
-        <v>32004</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36">
@@ -4716,46 +4732,46 @@
         <v>9</v>
       </c>
       <c r="B11" s="10">
+        <v>32004</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36">
+      <c r="A12" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
         <v>32005</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="D12" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="10">
+    <row r="13" spans="1:4">
+      <c r="A13" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
         <v>32006</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="13" t="str">
-        <f t="shared" ref="D12:D36" si="2">IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
-        <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36">
-      <c r="A13" s="9">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="10">
-        <v>32007</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D13" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="36">
@@ -4764,30 +4780,30 @@
         <v>12</v>
       </c>
       <c r="B14" s="10">
-        <v>32008</v>
+        <v>32007</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32008=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36">
       <c r="A15" s="9">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="12">
-        <v>41000</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>9</v>
+      <c r="B15" s="10">
+        <v>32008</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
+        <v>KMGTOOL_GEN32008=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4796,14 +4812,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="12">
-        <v>41001</v>
+        <v>41000</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4812,14 +4828,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="12">
-        <v>41002</v>
+        <v>41001</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4827,11 +4843,15 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="12">
+        <v>41002</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D18" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4842,7 +4862,7 @@
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
       <c r="D19" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D12:D36" si="3">IF(C19="","",$D$1&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
         <v/>
       </c>
     </row>
@@ -4854,7 +4874,7 @@
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
       <c r="D20" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4866,7 +4886,7 @@
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
       <c r="D21" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4878,7 +4898,7 @@
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
       <c r="D22" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4890,7 +4910,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
       <c r="D23" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4902,7 +4922,7 @@
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="D24" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4914,7 +4934,7 @@
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
       <c r="D25" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4926,7 +4946,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
       <c r="D26" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4938,7 +4958,7 @@
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
       <c r="D27" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4950,7 +4970,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="9"/>
       <c r="D28" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4962,7 +4982,7 @@
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
       <c r="D29" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4974,7 +4994,7 @@
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
       <c r="D30" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4986,7 +5006,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4998,7 +5018,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5010,7 +5030,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5022,7 +5042,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5034,7 +5054,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5046,7 +5066,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5069,7 +5089,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -5116,7 +5136,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D16" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D9" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_LOG32000=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
@@ -5222,14 +5242,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>41000</v>
+        <v>32007</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="str">
-        <f>IF(C10="","",$D$1&amp;TEXT(B10,"00000")&amp;"="&amp;C10)</f>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <f t="shared" ref="D10" si="2">IF(C10="","",$D$1&amp;TEXT(B10,"00000")&amp;"="&amp;C10)</f>
+        <v>KMGTOOL_LOG32007=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5238,14 +5258,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>41001</v>
+        <v>41000</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="5" t="str">
-        <f t="shared" ref="D11:D16" si="2">IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <f>IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5254,14 +5274,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>41002</v>
+        <v>41001</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+        <f t="shared" ref="D12:D20" si="3">IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5269,11 +5289,15 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="4">
+        <v>41002</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5284,7 +5308,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5296,7 +5320,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5308,7 +5332,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5320,7 +5344,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5" t="str">
-        <f t="shared" ref="D17:D31" si="3">IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5368,7 +5392,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D17:D31" si="4">IF(C21="","",$D$1&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
         <v/>
       </c>
     </row>
@@ -5380,7 +5404,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5392,7 +5416,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5404,7 +5428,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5416,7 +5440,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5428,7 +5452,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5440,7 +5464,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5452,7 +5476,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5464,7 +5488,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5476,7 +5500,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5488,7 +5512,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5500,7 +5524,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5" t="str">
-        <f t="shared" ref="D4:D36" si="4">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <f t="shared" ref="D32:D36" si="5">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
         <v/>
       </c>
     </row>
@@ -5512,7 +5536,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5524,7 +5548,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5536,7 +5560,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5548,7 +5572,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47044CE-52B4-46A4-BCE9-E43A80C3E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB36A5C-9DB6-40BA-9EA7-4F3C837BB9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -280,6 +280,22 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</t>
+    <rPh sb="0" eb="3">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4604,14 +4620,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="12">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D3" s="13" t="str">
-        <f t="shared" ref="D3:D11" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
+        <f t="shared" ref="D3:D6" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <v>KMGTOOL_GEN12000=一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4620,14 +4636,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="12">
-        <v>31001</v>
+        <v>31000</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
+        <f t="shared" ref="D4:D36" si="2">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
+        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4636,14 +4652,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="12">
-        <v>31002</v>
+        <v>31001</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4652,14 +4668,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="12">
-        <v>31003</v>
+        <v>31002</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN31003=リソースのクローズ処理中にエラーが発生しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4667,15 +4683,15 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="10">
-        <v>32000</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
+      <c r="B7" s="12">
+        <v>31003</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="13" t="str">
-        <f t="shared" ref="D7:D18" si="2">IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
-        <v>KMGTOOL_GEN32000=先頭大文字項目がnullです。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN31003=リソースのクローズ処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4684,14 +4700,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="10">
-        <v>32001</v>
+        <v>32000</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+        <v>KMGTOOL_GEN32000=先頭大文字項目がnullです。</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4700,14 +4716,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="10">
-        <v>32002</v>
+        <v>32001</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4716,30 +4732,30 @@
         <v>8</v>
       </c>
       <c r="B10" s="10">
-        <v>32003</v>
+        <v>32002</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="10">
-        <v>32004</v>
+        <v>32003</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="36">
@@ -4748,46 +4764,46 @@
         <v>10</v>
       </c>
       <c r="B12" s="10">
-        <v>32005</v>
+        <v>32004</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36">
       <c r="A13" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="10">
-        <v>32006</v>
+        <v>32005</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="10">
-        <v>32007</v>
+        <v>32006</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="36">
@@ -4796,30 +4812,30 @@
         <v>13</v>
       </c>
       <c r="B15" s="10">
-        <v>32008</v>
+        <v>32007</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32008=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="36">
       <c r="A16" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="12">
-        <v>41000</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>9</v>
+      <c r="B16" s="10">
+        <v>32008</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
+        <v>KMGTOOL_GEN32008=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4828,14 +4844,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="12">
-        <v>41001</v>
+        <v>41000</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4844,14 +4860,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="12">
-        <v>41002</v>
+        <v>41001</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4859,11 +4875,15 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="12">
+        <v>41002</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" s="13" t="str">
-        <f t="shared" ref="D12:D36" si="3">IF(C19="","",$D$1&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4874,7 +4894,7 @@
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
       <c r="D20" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4886,7 +4906,7 @@
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
       <c r="D21" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4898,7 +4918,7 @@
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
       <c r="D22" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4910,7 +4930,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
       <c r="D23" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4922,7 +4942,7 @@
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="D24" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4934,7 +4954,7 @@
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
       <c r="D25" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4946,7 +4966,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
       <c r="D26" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4958,7 +4978,7 @@
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
       <c r="D27" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4970,7 +4990,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="9"/>
       <c r="D28" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4982,7 +5002,7 @@
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
       <c r="D29" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4994,7 +5014,7 @@
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
       <c r="D30" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5006,7 +5026,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5018,7 +5038,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5030,7 +5050,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5042,7 +5062,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5054,7 +5074,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5066,7 +5086,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5089,7 +5109,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -5392,7 +5412,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5" t="str">
-        <f t="shared" ref="D17:D31" si="4">IF(C21="","",$D$1&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
+        <f t="shared" ref="D21:D31" si="4">IF(C21="","",$D$1&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB36A5C-9DB6-40BA-9EA7-4F3C837BB9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EBF78E-4A12-4EC5-A6BE-E0BE11F4EEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -296,6 +296,22 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0]}</t>
+    <rPh sb="15" eb="17">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4626,7 +4642,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="13" t="str">
-        <f t="shared" ref="D3:D6" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN12000=一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
     </row>
@@ -4636,14 +4652,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="12">
-        <v>31000</v>
+        <v>12001</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13" t="str">
         <f t="shared" ref="D4:D36" si="2">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
-        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
+        <v>KMGTOOL_GEN12001=テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0]}</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4652,14 +4668,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="12">
-        <v>31001</v>
+        <v>31000</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
+        <f t="shared" ref="D5:D21" si="3">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
+        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4668,14 +4684,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="12">
-        <v>31002</v>
+        <v>31001</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4684,14 +4700,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="12">
-        <v>31003</v>
+        <v>31002</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D7" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN31003=リソースのクローズ処理中にエラーが発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4699,15 +4715,15 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="10">
-        <v>32000</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
+      <c r="B8" s="12">
+        <v>31003</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32000=先頭大文字項目がnullです。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN31003=リソースのクローズ処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4716,14 +4732,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="10">
-        <v>32001</v>
+        <v>32000</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32000=先頭大文字項目がnullです。</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4732,14 +4748,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="10">
-        <v>32002</v>
+        <v>32001</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4748,30 +4764,30 @@
         <v>9</v>
       </c>
       <c r="B11" s="10">
+        <v>32002</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
         <v>32003</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="13" t="str">
-        <f t="shared" si="2"/>
+      <c r="D12" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32003=型情報がnullです。</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="36">
-      <c r="A12" s="9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="10">
-        <v>32004</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36">
@@ -4780,46 +4796,46 @@
         <v>11</v>
       </c>
       <c r="B13" s="10">
+        <v>32004</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36">
+      <c r="A14" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
         <v>32005</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="13" t="str">
-        <f t="shared" si="2"/>
+      <c r="D14" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="9">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="10">
+    <row r="15" spans="1:4">
+      <c r="A15" s="9">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
         <v>32006</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="13" t="str">
-        <f t="shared" si="2"/>
+      <c r="D15" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="36">
-      <c r="A15" s="9">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="10">
-        <v>32007</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="36">
@@ -4828,30 +4844,30 @@
         <v>14</v>
       </c>
       <c r="B16" s="10">
+        <v>32007</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="36">
+      <c r="A17" s="9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
         <v>32008</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="13" t="str">
-        <f t="shared" si="2"/>
+      <c r="D17" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32008=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="9">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="12">
-        <v>41000</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4860,14 +4876,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="12">
-        <v>41001</v>
+        <v>41000</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4876,14 +4892,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="12">
-        <v>41002</v>
+        <v>41001</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4891,11 +4907,15 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="12">
+        <v>41002</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D20" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4906,7 +4926,7 @@
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
       <c r="D21" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EBF78E-4A12-4EC5-A6BE-E0BE11F4EEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2317AAE8-9E50-43BC-B294-5984F9393BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -165,10 +165,6 @@
   </si>
   <si>
     <t>KMGTOOL_GEN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>先頭大文字項目がnullです。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4639,7 +4635,7 @@
         <v>12000</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="13" t="str">
         <f t="shared" ref="D3" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -4655,7 +4651,7 @@
         <v>12001</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="13" t="str">
         <f t="shared" ref="D4:D36" si="2">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
@@ -4719,7 +4715,7 @@
         <v>31003</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13" t="str">
         <f t="shared" si="3"/>
@@ -4732,14 +4728,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="10">
-        <v>32000</v>
+        <v>32001</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32000=先頭大文字項目がnullです。</v>
+        <f t="shared" ref="D9:D23" si="4">IF(C9="","",$D$1&amp;TEXT(B9,"00000")&amp;"="&amp;C9)</f>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4748,14 +4744,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="10">
-        <v>32001</v>
+        <v>32002</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4764,30 +4760,30 @@
         <v>9</v>
       </c>
       <c r="B11" s="10">
-        <v>32002</v>
+        <v>32003</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36">
       <c r="A12" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="10">
-        <v>32003</v>
+        <v>32004</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36">
@@ -4796,46 +4792,46 @@
         <v>11</v>
       </c>
       <c r="B13" s="10">
-        <v>32004</v>
+        <v>32005</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="36">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="10">
-        <v>32005</v>
+        <v>32006</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36">
       <c r="A15" s="9">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="10">
-        <v>32006</v>
+        <v>32007</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="36">
@@ -4844,30 +4840,30 @@
         <v>14</v>
       </c>
       <c r="B16" s="10">
-        <v>32007</v>
+        <v>32008</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="36">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32008=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="10">
-        <v>32008</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>26</v>
+      <c r="B17" s="12">
+        <v>41000</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="D17" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32008=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4876,14 +4872,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="12">
-        <v>41000</v>
+        <v>41001</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4892,14 +4888,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="12">
-        <v>41001</v>
+        <v>41002</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4907,15 +4903,11 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="12">
-        <v>41002</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4926,7 +4918,7 @@
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
       <c r="D21" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4938,7 +4930,7 @@
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
       <c r="D22" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4950,7 +4942,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
       <c r="D23" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5173,7 +5165,7 @@
         <v>32000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="str">
         <f t="shared" ref="D3:D9" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -5189,7 +5181,7 @@
         <v>32001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5205,7 +5197,7 @@
         <v>32002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5221,7 +5213,7 @@
         <v>32003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5237,7 +5229,7 @@
         <v>32004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5253,7 +5245,7 @@
         <v>32005</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5269,7 +5261,7 @@
         <v>32006</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5285,7 +5277,7 @@
         <v>32007</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5" t="str">
         <f t="shared" ref="D10" si="2">IF(C10="","",$D$1&amp;TEXT(B10,"00000")&amp;"="&amp;C10)</f>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2317AAE8-9E50-43BC-B294-5984F9393BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6257D11D-563D-488E-BB33-A3441661AA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -4586,11 +4586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -4670,7 +4670,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="13" t="str">
-        <f t="shared" ref="D5:D21" si="3">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
+        <f t="shared" ref="D5:D8" si="3">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
         <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
     </row>
@@ -5117,11 +5117,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B14" activeCellId="1" sqref="B16 B14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -5162,14 +5162,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="5" t="str">
         <f t="shared" ref="D3:D9" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGTOOL_LOG32000=CSVファイルに書き込む処理を開始します。</v>
+        <v>KMGTOOL_LOG31000=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5178,14 +5178,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>32001</v>
+        <v>31001</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG32001=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5194,14 +5194,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>32002</v>
+        <v>31002</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG32002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5210,14 +5210,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>32003</v>
+        <v>31003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG32003=リソースのクローズ処理中にエラーが発生しました。</v>
+        <f t="shared" ref="D6:D12" si="2">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
+        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5226,14 +5226,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>32004</v>
+        <v>31004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG32004=クリア処理中にエラーが発生しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5242,14 +5242,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>32005</v>
+        <v>31005</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG32005=カラムの追加中にエラーが発生しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5258,14 +5258,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>32006</v>
+        <v>31006</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG32006=1行データの読み込み中にエラーが発生しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG31006=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5274,14 +5274,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>32007</v>
+        <v>32000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="str">
-        <f t="shared" ref="D10" si="2">IF(C10="","",$D$1&amp;TEXT(B10,"00000")&amp;"="&amp;C10)</f>
-        <v>KMGTOOL_LOG32007=CSVファイルに書き込む処理を終了します。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG32000=リソースのクローズ処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5312,7 +5312,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="5" t="str">
-        <f t="shared" ref="D12:D20" si="3">IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
+        <f t="shared" ref="D12:D21" si="3">IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
         <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="1"/>
       <c r="D14" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5424,7 +5424,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5" t="str">
-        <f t="shared" ref="D21:D31" si="4">IF(C21="","",$D$1&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5436,7 +5436,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D17:D23" si="4">IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
         <v/>
       </c>
     </row>
@@ -5460,7 +5460,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D11:D36" si="5">IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
         <v/>
       </c>
     </row>
@@ -5472,7 +5472,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5484,7 +5484,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5520,7 +5520,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5544,7 +5544,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5556,7 +5556,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5" t="str">
-        <f t="shared" ref="D32:D36" si="5">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6257D11D-563D-488E-BB33-A3441661AA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5CA1B3-2E9D-44F7-9499-DE6B6A90B9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -308,6 +308,20 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</t>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</t>
+    <rPh sb="28" eb="30">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4586,11 +4600,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -5117,18 +5131,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" activeCellId="1" sqref="B16 B14:C15"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5168,7 +5182,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D9" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D5" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_LOG31000=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
@@ -5216,7 +5230,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="5" t="str">
-        <f t="shared" ref="D6:D12" si="2">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
+        <f t="shared" ref="D6:D10" si="2">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
         <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
@@ -5277,11 +5291,11 @@
         <v>32000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG32000=リソースのクローズ処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG32000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5290,14 +5304,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>41000</v>
+        <v>32001</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <v>KMGTOOL_LOG32001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5306,14 +5320,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>41001</v>
+        <v>41000</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="5" t="str">
-        <f t="shared" ref="D12:D21" si="3">IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <f>IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5322,34 +5336,38 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
+        <v>41001</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f t="shared" ref="D13:D16" si="3">IF(C13="","",$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
         <v>41002</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D14" s="5" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="1"/>
       <c r="D15" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5376,7 +5394,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D12:D21" si="4">IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
         <v/>
       </c>
     </row>
@@ -5388,7 +5406,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5400,7 +5418,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5412,7 +5430,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5424,7 +5442,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5436,7 +5454,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5" t="str">
-        <f t="shared" ref="D17:D23" si="4">IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
+        <f t="shared" ref="D22:D23" si="5">IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
         <v/>
       </c>
     </row>
@@ -5448,7 +5466,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5460,7 +5478,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5" t="str">
-        <f t="shared" ref="D11:D36" si="5">IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
+        <f t="shared" ref="D24:D36" si="6">IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
         <v/>
       </c>
     </row>
@@ -5472,7 +5490,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5484,7 +5502,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5496,7 +5514,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5508,7 +5526,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5520,7 +5538,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5532,7 +5550,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5544,7 +5562,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5556,7 +5574,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5568,7 +5586,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5580,7 +5598,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5592,7 +5610,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5604,7 +5622,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5CA1B3-2E9D-44F7-9499-DE6B6A90B9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCC1A7B-E047-4F01-A631-A508533624DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -322,6 +322,33 @@
     <t>ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</t>
     <rPh sb="28" eb="30">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートの動的変換処理を開始します。</t>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートの動的変換処理を終了します。</t>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートの動的変換中にエラーが発生しました。</t>
+    <rPh sb="11" eb="12">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5175,15 +5202,15 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>31000</v>
+      <c r="B3" s="1">
+        <v>12000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D5" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGTOOL_LOG31000=CSVファイルに書き込む処理を開始します。</v>
+        <f t="shared" ref="D3:D4" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5191,15 +5218,15 @@
         <f t="shared" ref="A4:A36" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>31001</v>
+      <c r="B4" s="1">
+        <v>12001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG12001=テンプレートの動的変換中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5207,15 +5234,15 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>31002</v>
+      <c r="B5" s="1">
+        <v>12002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+        <f t="shared" ref="D5:D16" si="2">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
+        <v>KMGTOOL_LOG12002=テンプレートの動的変換処理を終了します。</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5224,14 +5251,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>31003</v>
+        <v>31000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="str">
-        <f t="shared" ref="D6:D10" si="2">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
-        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
+        <f t="shared" ref="D6:D17" si="3">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
+        <v>KMGTOOL_LOG31000=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5240,14 +5267,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>31004</v>
+        <v>31001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5256,14 +5283,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>31005</v>
+        <v>31002</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5272,14 +5299,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>31006</v>
+        <v>31003</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31006=CSVファイルに書き込む処理を終了します。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5288,14 +5315,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>32000</v>
+        <v>31004</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG32000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5304,14 +5331,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>32001</v>
+        <v>31005</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5" t="str">
-        <f>IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
-        <v>KMGTOOL_LOG32001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5320,14 +5347,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>41000</v>
+        <v>31006</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5" t="str">
-        <f>IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG31006=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5336,14 +5363,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>41001</v>
+        <v>32000</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="str">
-        <f t="shared" ref="D13:D16" si="3">IF(C13="","",$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG32000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5352,14 +5379,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>41002</v>
+        <v>32001</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D14" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+        <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
+        <v>KMGTOOL_LOG32001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5367,11 +5394,15 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="4">
+        <v>41000</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5379,11 +5410,15 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="4">
+        <v>41001</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D16" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" ref="D16:D17" si="4">IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5391,11 +5426,15 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="4">
+        <v>41002</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D17" s="5" t="str">
-        <f t="shared" ref="D12:D21" si="4">IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5406,7 +5445,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D15:D23" si="5">IF(C18="","",$D$1&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
         <v/>
       </c>
     </row>
@@ -5418,7 +5457,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5430,7 +5469,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5442,7 +5481,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5454,7 +5493,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5" t="str">
-        <f t="shared" ref="D22:D23" si="5">IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCC1A7B-E047-4F01-A631-A508533624DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA2C067-0863-44ED-9043-C4764A8EC86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9610" yWindow="2340" windowWidth="27810" windowHeight="14450" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -248,10 +248,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リソースのクローズ処理中にエラーが発生しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クリア処理中にエラーが発生しました。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -349,6 +345,33 @@
     <t>テンプレートの動的変換中にエラーが発生しました。</t>
     <rPh sb="11" eb="12">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートの動的変換ロジックをクローズ中にエラーが発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセサ作成ロジックをクローズ中にエラーが発生しました。</t>
+    <rPh sb="15" eb="16">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力ファイルを処理し、テンプレートに基づいて出力を生成中にエラーが発生しました。入力ファイルパス=[{0}]、出力ファイルパス=[{1}]、テンプレートファイルパス=[{2}]</t>
+    <rPh sb="27" eb="28">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4676,7 +4699,7 @@
         <v>12000</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="13" t="str">
         <f t="shared" ref="D3" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -4692,7 +4715,7 @@
         <v>12001</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="13" t="str">
         <f t="shared" ref="D4:D36" si="2">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
@@ -4705,14 +4728,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="12">
-        <v>31000</v>
+        <v>12002</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D5" s="13" t="str">
-        <f t="shared" ref="D5:D8" si="3">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
-        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
+        <f t="shared" ref="D5" si="3">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
+        <v>KMGTOOL_GEN12002=テンプレートの動的変換ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4721,14 +4744,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="12">
-        <v>31001</v>
+        <v>12003</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D6" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
+        <f t="shared" ref="D6" si="4">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
+        <v>KMGTOOL_GEN12003=入力ファイルを処理し、テンプレートに基づいて出力を生成中にエラーが発生しました。入力ファイルパス=[{0}]、出力ファイルパス=[{1}]、テンプレートファイルパス=[{2}]</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4737,14 +4760,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="12">
-        <v>31002</v>
+        <v>31000</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
+        <f t="shared" ref="D7:D23" si="5">IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
+        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4753,14 +4776,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="12">
-        <v>31003</v>
+        <v>31001</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN31003=リソースのクローズ処理中にエラーが発生しました。</v>
+        <f t="shared" si="5"/>
+        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4768,15 +4791,15 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="10">
-        <v>32001</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
+      <c r="B9" s="12">
+        <v>31002</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="13" t="str">
-        <f t="shared" ref="D9:D23" si="4">IF(C9="","",$D$1&amp;TEXT(B9,"00000")&amp;"="&amp;C9)</f>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+        <f t="shared" si="5"/>
+        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4784,15 +4807,15 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="10">
-        <v>32002</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>19</v>
+      <c r="B10" s="12">
+        <v>31003</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="D10" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+        <f t="shared" si="5"/>
+        <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4801,62 +4824,62 @@
         <v>9</v>
       </c>
       <c r="B11" s="10">
+        <v>32001</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>32002</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
         <v>32003</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13" t="str">
-        <f t="shared" si="4"/>
+      <c r="D13" s="13" t="str">
+        <f t="shared" si="5"/>
         <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="36">
-      <c r="A12" s="9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="10">
+    <row r="14" spans="1:4" ht="36">
+      <c r="A14" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
         <v>32004</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="13" t="str">
-        <f t="shared" si="4"/>
+      <c r="D14" s="13" t="str">
+        <f t="shared" si="5"/>
         <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36">
-      <c r="A13" s="9">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="10">
-        <v>32005</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="9">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="10">
-        <v>32006</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="36">
@@ -4865,62 +4888,62 @@
         <v>13</v>
       </c>
       <c r="B15" s="10">
+        <v>32005</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>32006</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="36">
+      <c r="A17" s="9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
         <v>32007</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="13" t="str">
-        <f t="shared" si="4"/>
+      <c r="D17" s="13" t="str">
+        <f t="shared" si="5"/>
         <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="36">
-      <c r="A16" s="9">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="10">
+    <row r="18" spans="1:4" ht="36">
+      <c r="A18" s="9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
         <v>32008</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="13" t="str">
-        <f t="shared" si="4"/>
+      <c r="D18" s="13" t="str">
+        <f t="shared" si="5"/>
         <v>KMGTOOL_GEN32008=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="9">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="12">
-        <v>41000</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="9">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="12">
-        <v>41001</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4929,14 +4952,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="12">
-        <v>41002</v>
+        <v>41000</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+        <f t="shared" si="5"/>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4944,11 +4967,15 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="12">
+        <v>41001</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4956,11 +4983,15 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="12">
+        <v>41002</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D21" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4971,7 +5002,7 @@
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
       <c r="D22" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4983,7 +5014,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
       <c r="D23" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5206,7 +5237,7 @@
         <v>12000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="5" t="str">
         <f t="shared" ref="D3:D4" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -5222,7 +5253,7 @@
         <v>12001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5238,10 +5269,10 @@
         <v>12002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5" t="str">
-        <f t="shared" ref="D5:D16" si="2">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
+        <f t="shared" ref="D5" si="2">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
         <v>KMGTOOL_LOG12002=テンプレートの動的変換処理を終了します。</v>
       </c>
     </row>
@@ -5257,7 +5288,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="5" t="str">
-        <f t="shared" ref="D6:D17" si="3">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
+        <f t="shared" ref="D6:D13" si="3">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
         <v>KMGTOOL_LOG31000=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
@@ -5302,7 +5333,7 @@
         <v>31003</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5318,7 +5349,7 @@
         <v>31004</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5334,7 +5365,7 @@
         <v>31005</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5350,7 +5381,7 @@
         <v>31006</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5366,7 +5397,7 @@
         <v>32000</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5382,7 +5413,7 @@
         <v>32001</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5" t="str">
         <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
@@ -5445,7 +5476,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5" t="str">
-        <f t="shared" ref="D15:D23" si="5">IF(C18="","",$D$1&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
+        <f t="shared" ref="D18:D23" si="5">IF(C18="","",$D$1&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA2C067-0863-44ED-9043-C4764A8EC86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793ACB88-54D8-4AF4-9A35-B270161F381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9610" yWindow="2340" windowWidth="27810" windowHeight="14450" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -342,13 +342,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テンプレートの動的変換中にエラーが発生しました。</t>
-    <rPh sb="11" eb="12">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テンプレートの動的変換ロジックをクローズ中にエラーが発生しました。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -373,6 +366,37 @@
     <rPh sb="55" eb="57">
       <t>シュツリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}], テンプレートパス：[{1}], 出力ファイルパス=[{2}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVの列が不足しています。入力ファイルパス: [{0}], プレースホルダーキー: [{1}], 列: [{2}] 番目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートの動的変換中にエラーが発生しました。テンプレートファイルパス：[{0}]</t>
+    <rPh sb="11" eb="12">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの1行読み込み中にエラーが発生しました。入力ファイルパス=[{0}}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4731,7 +4755,7 @@
         <v>12002</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="13" t="str">
         <f t="shared" ref="D5" si="3">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
@@ -4747,7 +4771,7 @@
         <v>12003</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="13" t="str">
         <f t="shared" ref="D6" si="4">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
@@ -4760,14 +4784,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="12">
-        <v>31000</v>
+        <v>13000</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D7" s="13" t="str">
         <f t="shared" ref="D7:D23" si="5">IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
-        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
+        <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4776,14 +4800,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="12">
-        <v>31001</v>
+        <v>13001</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
+        <f t="shared" ref="C8:D23" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
+        <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}], テンプレートパス：[{1}], 出力ファイルパス=[{2}]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4792,14 +4816,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="12">
-        <v>31002</v>
+        <v>13002</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D9" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN13002=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4808,14 +4832,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="12">
-        <v>31003</v>
+        <v>13003</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D10" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN13003=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4823,15 +4847,15 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="10">
-        <v>32001</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>18</v>
+      <c r="B11" s="12">
+        <v>13004</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D11" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN13004=CSVの列が不足しています。入力ファイルパス: [{0}], プレースホルダーキー: [{1}], 列: [{2}] 番目</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4839,15 +4863,15 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="10">
-        <v>32002</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>19</v>
+      <c r="B12" s="12">
+        <v>31000</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4855,47 +4879,47 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="10">
-        <v>32003</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>20</v>
+      <c r="B13" s="12">
+        <v>31001</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D13" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="36">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="10">
-        <v>32004</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>21</v>
+      <c r="B14" s="12">
+        <v>31002</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="D14" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="36">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="9">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="10">
-        <v>32005</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>22</v>
+      <c r="B15" s="12">
+        <v>31003</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="D15" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4904,78 +4928,78 @@
         <v>14</v>
       </c>
       <c r="B16" s="10">
-        <v>32006</v>
+        <v>32001</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D16" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="36">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="10">
-        <v>32007</v>
+        <v>32002</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D17" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="36">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="10">
-        <v>32008</v>
+        <v>32003</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D18" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_GEN32008=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="36">
       <c r="A19" s="9">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="12">
-        <v>41000</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>9</v>
+      <c r="B19" s="10">
+        <v>32004</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D19" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="36">
       <c r="A20" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="12">
-        <v>41001</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>10</v>
+      <c r="B20" s="10">
+        <v>32005</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D20" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4983,39 +5007,47 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="12">
-        <v>41002</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>11</v>
+      <c r="B21" s="10">
+        <v>32006</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D21" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="36">
       <c r="A22" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="10">
+        <v>32007</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="D22" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="36">
       <c r="A23" s="9">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="10">
+        <v>32008</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D23" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32008=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5023,11 +5055,15 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="12">
+        <v>41000</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D24" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" ref="D24:D32" si="7">IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5035,11 +5071,15 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="12">
+        <v>41001</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D25" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5047,11 +5087,15 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="12">
+        <v>41002</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D26" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5059,10 +5103,10 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5071,10 +5115,10 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5083,10 +5127,10 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5095,10 +5139,10 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5110,7 +5154,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5122,7 +5166,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5253,11 +5297,11 @@
         <v>12001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG12001=テンプレートの動的変換中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG12001=テンプレートの動的変換中にエラーが発生しました。テンプレートファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5281,15 +5325,15 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="4">
-        <v>31000</v>
+      <c r="B6" s="1">
+        <v>12003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5" t="str">
         <f t="shared" ref="D6:D13" si="3">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
-        <v>KMGTOOL_LOG31000=CSVファイルに書き込む処理を開始します。</v>
+        <v>KMGTOOL_LOG12003=データの1行読み込み中にエラーが発生しました。入力ファイルパス=[{0}}</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5298,14 +5342,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>31001</v>
+        <v>31000</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31000=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5314,14 +5358,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>31002</v>
+        <v>31001</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5330,14 +5374,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>31003</v>
+        <v>31002</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5346,14 +5390,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>31004</v>
+        <v>31003</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5362,14 +5406,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>31005</v>
+        <v>31004</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5378,14 +5422,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>31006</v>
+        <v>31005</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31006=CSVファイルに書き込む処理を終了します。</v>
+        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5394,14 +5438,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>32000</v>
+        <v>31006</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG32000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_LOG31006=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5410,14 +5454,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>32001</v>
+        <v>32000</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="5" t="str">
         <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
-        <v>KMGTOOL_LOG32001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_LOG32000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5426,14 +5470,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>41000</v>
+        <v>32001</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D15" s="5" t="str">
         <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <v>KMGTOOL_LOG32001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5442,14 +5486,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>41001</v>
+        <v>41000</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="5" t="str">
         <f t="shared" ref="D16:D17" si="4">IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5458,14 +5502,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>41002</v>
+        <v>41001</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5473,11 +5517,15 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="4">
+        <v>41002</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D18" s="5" t="str">
         <f t="shared" ref="D18:D23" si="5">IF(C18="","",$D$1&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
-        <v/>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="19" spans="1:4">

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793ACB88-54D8-4AF4-9A35-B270161F381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644AE826-448C-4028-B342-E68B5CD1CB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -399,6 +399,10 @@
     <t>データの1行読み込み中にエラーが発生しました。入力ファイルパス=[{0}}</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -4790,7 +4794,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="13" t="str">
-        <f t="shared" ref="D7:D23" si="5">IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
+        <f t="shared" ref="D7" si="5">IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
         <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
       </c>
     </row>
@@ -4806,7 +4810,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" ref="C8:D23" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
+        <f t="shared" ref="D8:D23" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
         <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}], テンプレートパス：[{1}], 出力ファイルパス=[{2}]</v>
       </c>
     </row>
@@ -5454,14 +5458,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>32000</v>
+        <v>31007</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D14" s="5" t="str">
         <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
-        <v>KMGTOOL_LOG32000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_LOG31007=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5470,14 +5474,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>32001</v>
+        <v>32000</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="str">
         <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
-        <v>KMGTOOL_LOG32001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_LOG32000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5486,14 +5490,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>41000</v>
+        <v>32001</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5" t="str">
-        <f t="shared" ref="D16:D17" si="4">IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <f>IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <v>KMGTOOL_LOG32001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5502,42 +5506,46 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>41001</v>
+        <v>41000</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="5" t="str">
+        <f t="shared" ref="D17:D19" si="4">IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>41001</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
-        <v>41002</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f t="shared" ref="D18:D23" si="5">IF(C18="","",$D$1&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
-      </c>
-    </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="4">
+        <v>41002</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D19" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5548,7 +5556,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D18:D23" si="5">IF(C20="","",$D$1&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644AE826-448C-4028-B342-E68B5CD1CB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E594F41C-FA92-4AA6-B702-6E8EB38ED163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18850" yWindow="2750" windowWidth="28770" windowHeight="15450" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -403,6 +403,38 @@
     <t>CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>CSVファイルに書き込む処理を開始します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVファイルに書き込む処理を終了します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1行読み込みに失敗しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -583,7 +615,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -2519,7 +2553,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -4676,7 +4712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -4736,7 +4772,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="9">
-        <f t="shared" ref="A4:A36" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A48" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="12">
@@ -4746,7 +4782,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="13" t="str">
-        <f t="shared" ref="D4:D36" si="2">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
+        <f t="shared" ref="D4:D48" si="2">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
         <v>KMGTOOL_GEN12001=テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0]}</v>
       </c>
     </row>
@@ -4810,7 +4846,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" ref="D8:D23" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
+        <f t="shared" ref="D8:D41" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
         <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}], テンプレートパス：[{1}], 出力ファイルパス=[{2}]</v>
       </c>
     </row>
@@ -4926,20 +4962,20 @@
         <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="36">
       <c r="A16" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="10">
-        <v>32001</v>
+      <c r="B16" s="12">
+        <v>31004</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D16" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+        <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4948,14 +4984,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="10">
-        <v>32002</v>
+        <v>32001</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4964,30 +5000,30 @@
         <v>16</v>
       </c>
       <c r="B18" s="10">
-        <v>32003</v>
+        <v>32002</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="9">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="10">
-        <v>32004</v>
+        <v>32003</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="36">
@@ -4996,46 +5032,46 @@
         <v>18</v>
       </c>
       <c r="B20" s="10">
-        <v>32005</v>
+        <v>32004</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="36">
       <c r="A21" s="9">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="10">
-        <v>32006</v>
+        <v>32005</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="10">
-        <v>32007</v>
+        <v>32006</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="36">
@@ -5044,30 +5080,30 @@
         <v>21</v>
       </c>
       <c r="B23" s="10">
-        <v>32008</v>
+        <v>32007</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="13" t="str">
         <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="36">
+      <c r="A24" s="9">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>32008</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>KMGTOOL_GEN32008=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="9">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="12">
-        <v>41000</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="13" t="str">
-        <f t="shared" ref="D24:D32" si="7">IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
-        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5075,127 +5111,159 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
+        <v>32009</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="10">
+        <v>32010</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32010=項目名がnullです。</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="10">
+        <v>32011</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32011=1行読み込みに失敗しました。</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="10">
+        <v>32012</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32012=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="36">
+      <c r="A29" s="9">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="10">
+        <v>32013</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32013=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="36">
+      <c r="A30" s="9">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="10">
+        <v>32014</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32014=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="36">
+      <c r="A31" s="9">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="10">
+        <v>32015</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>KMGTOOL_GEN32015=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="12">
+        <v>41000</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="13" t="str">
+        <f t="shared" ref="D32:D38" si="7">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <v>KMGTOOL_GEN41000=失敗</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="12">
         <v>41001</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="13" t="str">
+      <c r="D33" s="13" t="str">
         <f t="shared" si="7"/>
         <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="9">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="12">
+    <row r="34" spans="1:4">
+      <c r="A34" s="9">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="12">
         <v>41002</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="13" t="str">
+      <c r="D34" s="13" t="str">
         <f t="shared" si="7"/>
         <v>KMGTOOL_GEN41002=例外発生</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="9">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="9">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="9">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="9">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="9">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5206,7 +5274,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5218,6 +5286,150 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="9">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="9">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="9">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="9">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="9">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="9">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="13" t="str">
+        <f t="shared" ref="D42:D44" si="8">IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="9">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="9">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="9">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="9">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="9">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="9">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5506,14 +5718,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>41000</v>
+        <v>32002</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="str">
         <f t="shared" ref="D17:D19" si="4">IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <v>KMGTOOL_LOG32002=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5522,14 +5734,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>41001</v>
+        <v>32003</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <v>KMGTOOL_LOG32003=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5538,14 +5750,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>41002</v>
+        <v>32004</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D19" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+        <v>KMGTOOL_LOG32004=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5553,11 +5765,15 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="4">
+        <v>32005</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D20" s="5" t="str">
-        <f t="shared" ref="D18:D23" si="5">IF(C20="","",$D$1&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
-        <v/>
+        <f t="shared" ref="D20:D23" si="5">IF(C20="","",$D$1&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
+        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5565,11 +5781,15 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="4">
+        <v>32006</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D21" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>KMGTOOL_LOG32006=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5577,11 +5797,15 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="4">
+        <v>32007</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D22" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>KMGTOOL_LOG32007=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5589,11 +5813,15 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="4">
+        <v>32008</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D23" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>KMGTOOL_LOG32008=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5601,35 +5829,47 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="4">
+        <v>32009</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D24" s="5" t="str">
         <f t="shared" ref="D24:D36" si="6">IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>KMGTOOL_LOG32009=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="36">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="4">
+        <v>32010</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="D25" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <f t="shared" ref="D25:D31" si="7">IF(C25="","",$D$1&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
+        <v>KMGTOOL_LOG32010=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="36">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="4">
+        <v>32011</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D26" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>KMGTOOL_LOG32011=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5637,11 +5877,15 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="4">
+        <v>41000</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D27" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5649,11 +5893,15 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="4">
+        <v>41001</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D28" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5661,11 +5909,15 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="4">
+        <v>41002</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D29" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5676,7 +5928,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5688,7 +5940,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E594F41C-FA92-4AA6-B702-6E8EB38ED163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1AC8A7-0842-4795-86F9-4239ED14A6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18850" yWindow="2750" windowWidth="28770" windowHeight="15450" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="00000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +473,19 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -532,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -569,6 +582,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4951,7 +4974,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="17">
         <v>31003</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -4967,7 +4990,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="17">
         <v>31004</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -4978,36 +5001,36 @@
         <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="36">
       <c r="A17" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="10">
-        <v>32001</v>
+      <c r="B17" s="18">
+        <v>31005</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D17" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>KMGTOOL_GEN31005=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="36">
       <c r="A18" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="10">
-        <v>32002</v>
+      <c r="B18" s="18">
+        <v>31006</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D18" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+        <v>KMGTOOL_GEN31006=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5015,15 +5038,15 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="10">
-        <v>32003</v>
+      <c r="B19" s="18">
+        <v>31007</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D19" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
+        <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="36">
@@ -5031,15 +5054,15 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="10">
-        <v>32004</v>
+      <c r="B20" s="18">
+        <v>31008</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D20" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32004=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_GEN31008=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="36">
@@ -5047,15 +5070,15 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="10">
-        <v>32005</v>
+      <c r="B21" s="18">
+        <v>31009</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D21" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32005=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_GEN31009=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5063,47 +5086,47 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="10">
-        <v>32006</v>
+      <c r="B22" s="18">
+        <v>32001</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D22" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32006=1行読み込みに失敗しました。</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="36">
+        <f t="shared" ref="D22:D24" si="7">IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="9">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="10">
-        <v>32007</v>
+        <v>32002</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D23" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32007=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="36">
+        <f t="shared" si="7"/>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="9">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="10">
-        <v>32008</v>
+        <v>32003</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D24" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32008=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
+        <f t="shared" si="7"/>
+        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5230,7 +5253,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="13" t="str">
-        <f t="shared" ref="D32:D38" si="7">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <f t="shared" ref="D32:D41" si="8">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
         <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
@@ -5246,7 +5269,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
@@ -5262,7 +5285,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
@@ -5274,7 +5297,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -5286,7 +5309,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -5295,10 +5318,10 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="9"/>
       <c r="D37" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -5307,10 +5330,10 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="9"/>
       <c r="D38" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -5319,10 +5342,10 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="9"/>
       <c r="D39" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -5331,10 +5354,10 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="9"/>
       <c r="D40" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -5343,10 +5366,10 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="9"/>
       <c r="D41" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -5358,7 +5381,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="13" t="str">
-        <f t="shared" ref="D42:D44" si="8">IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
+        <f t="shared" ref="D42:D44" si="9">IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
         <v/>
       </c>
     </row>
@@ -5370,7 +5393,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5382,7 +5405,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5669,7 +5692,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="19">
         <v>31007</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -5685,15 +5708,15 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="4">
-        <v>32000</v>
+      <c r="B15" s="19">
+        <v>31008</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="5" t="str">
         <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
-        <v>KMGTOOL_LOG32000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_LOG31008=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5701,15 +5724,15 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="4">
-        <v>32001</v>
+      <c r="B16" s="19">
+        <v>31009</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="5" t="str">
         <f>IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
-        <v>KMGTOOL_LOG32001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_LOG31009=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="17" spans="1:4">

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1AC8A7-0842-4795-86F9-4239ED14A6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA24724F-3ED0-4BF3-B752-7771C77EE90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -292,22 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0]}</t>
-    <rPh sb="15" eb="17">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</t>
     <rPh sb="28" eb="30">
       <t>ニュウリョク</t>
@@ -433,6 +417,22 @@
   </si>
   <si>
     <t>出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0}]</t>
+    <rPh sb="15" eb="17">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シッパイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -576,12 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -592,6 +586,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4754,11 +4754,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
@@ -4802,11 +4802,11 @@
         <v>12001</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D4" s="13" t="str">
         <f t="shared" ref="D4:D48" si="2">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
-        <v>KMGTOOL_GEN12001=テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0]}</v>
+        <v>KMGTOOL_GEN12001=テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0}]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4818,7 +4818,7 @@
         <v>12002</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="13" t="str">
         <f t="shared" ref="D5" si="3">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
@@ -4834,7 +4834,7 @@
         <v>12003</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="13" t="str">
         <f t="shared" ref="D6" si="4">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
@@ -4850,7 +4850,7 @@
         <v>13000</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="13" t="str">
         <f t="shared" ref="D7" si="5">IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
@@ -4866,10 +4866,10 @@
         <v>13001</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" ref="D8:D41" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
+        <f t="shared" ref="D8:D31" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
         <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}], テンプレートパス：[{1}], 出力ファイルパス=[{2}]</v>
       </c>
     </row>
@@ -4882,7 +4882,7 @@
         <v>13002</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="13" t="str">
         <f t="shared" si="6"/>
@@ -4898,7 +4898,7 @@
         <v>13003</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="13" t="str">
         <f t="shared" si="6"/>
@@ -4914,7 +4914,7 @@
         <v>13004</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="13" t="str">
         <f t="shared" si="6"/>
@@ -4974,11 +4974,11 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>31003</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="13" t="str">
         <f t="shared" si="6"/>
@@ -4990,11 +4990,11 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>31004</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="13" t="str">
         <f t="shared" si="6"/>
@@ -5006,7 +5006,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="16">
         <v>31005</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -5022,7 +5022,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="16">
         <v>31006</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -5038,7 +5038,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="16">
         <v>31007</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -5054,7 +5054,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="16">
         <v>31008</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -5070,7 +5070,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="16">
         <v>31009</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -5086,7 +5086,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="16">
         <v>32001</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -5170,7 +5170,7 @@
         <v>32011</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="13" t="str">
         <f t="shared" si="6"/>
@@ -5218,7 +5218,7 @@
         <v>32014</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="13" t="str">
         <f t="shared" si="6"/>
@@ -5234,7 +5234,7 @@
         <v>32015</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="13" t="str">
         <f t="shared" si="6"/>
@@ -5318,7 +5318,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="9"/>
       <c r="D37" s="13" t="str">
         <f t="shared" si="8"/>
@@ -5330,7 +5330,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="9"/>
       <c r="D38" s="13" t="str">
         <f t="shared" si="8"/>
@@ -5342,7 +5342,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="9"/>
       <c r="D39" s="13" t="str">
         <f t="shared" si="8"/>
@@ -5354,7 +5354,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="9"/>
       <c r="D40" s="13" t="str">
         <f t="shared" si="8"/>
@@ -5366,7 +5366,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="16"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="9"/>
       <c r="D41" s="13" t="str">
         <f t="shared" si="8"/>
@@ -5488,11 +5488,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>12000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5" t="str">
         <f t="shared" ref="D3:D4" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -5536,7 +5536,7 @@
         <v>12001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5552,7 +5552,7 @@
         <v>12002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="str">
         <f t="shared" ref="D5" si="2">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
@@ -5568,7 +5568,7 @@
         <v>12003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5" t="str">
         <f t="shared" ref="D6:D13" si="3">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
@@ -5692,11 +5692,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>31007</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="str">
         <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
@@ -5708,11 +5708,11 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="17">
         <v>31008</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="5" t="str">
         <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
@@ -5724,11 +5724,11 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <v>31009</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="str">
         <f>IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
@@ -5744,7 +5744,7 @@
         <v>32002</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="str">
         <f t="shared" ref="D17:D19" si="4">IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
@@ -5760,7 +5760,7 @@
         <v>32003</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5776,7 +5776,7 @@
         <v>32004</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5872,7 +5872,7 @@
         <v>32010</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="5" t="str">
         <f t="shared" ref="D25:D31" si="7">IF(C25="","",$D$1&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
@@ -5888,7 +5888,7 @@
         <v>32011</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="5" t="str">
         <f t="shared" si="7"/>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA24724F-3ED0-4BF3-B752-7771C77EE90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9B3D95-9BE7-4375-A374-CCEF73C354C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15890" yWindow="3850" windowWidth="28770" windowHeight="15450" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -373,13 +373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テンプレートの動的変換中にエラーが発生しました。テンプレートファイルパス：[{0}]</t>
-    <rPh sb="11" eb="12">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データの1行読み込み中にエラーが発生しました。入力ファイルパス=[{0}}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4802,7 +4795,7 @@
         <v>12001</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="13" t="str">
         <f t="shared" ref="D4:D48" si="2">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
@@ -4994,7 +4987,7 @@
         <v>31004</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="13" t="str">
         <f t="shared" si="6"/>
@@ -5170,7 +5163,7 @@
         <v>32011</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="13" t="str">
         <f t="shared" si="6"/>
@@ -5218,7 +5211,7 @@
         <v>32014</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="13" t="str">
         <f t="shared" si="6"/>
@@ -5234,7 +5227,7 @@
         <v>32015</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="13" t="str">
         <f t="shared" si="6"/>
@@ -5523,7 +5516,7 @@
         <v>36</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D4" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D12" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
@@ -5533,14 +5526,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>12001</v>
+        <v>12002</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG12001=テンプレートの動的変換中にエラーが発生しました。テンプレートファイルパス：[{0}]</v>
+        <v>KMGTOOL_LOG12002=テンプレートの動的変換処理を終了します。</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5549,14 +5542,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>12002</v>
+        <v>12003</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5" t="str">
-        <f t="shared" ref="D5" si="2">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
-        <v>KMGTOOL_LOG12002=テンプレートの動的変換処理を終了します。</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG12003=データの1行読み込み中にエラーが発生しました。入力ファイルパス=[{0}}</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5564,15 +5557,15 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>12003</v>
+      <c r="B6" s="4">
+        <v>31000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="str">
-        <f t="shared" ref="D6:D13" si="3">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
-        <v>KMGTOOL_LOG12003=データの1行読み込み中にエラーが発生しました。入力ファイルパス=[{0}}</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG31000=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5581,14 +5574,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>31000</v>
+        <v>31001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31000=CSVファイルに書き込む処理を開始します。</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5597,14 +5590,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>31001</v>
+        <v>31002</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5613,14 +5606,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>31002</v>
+        <v>31003</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5629,14 +5622,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>31003</v>
+        <v>31004</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5645,14 +5638,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>31004</v>
+        <v>31005</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5661,14 +5654,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>31005</v>
+        <v>31006</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG31006=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5676,15 +5669,15 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="4">
-        <v>31006</v>
+      <c r="B13" s="17">
+        <v>31007</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D13" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31006=CSVファイルに書き込む処理を終了します。</v>
+        <f>IF(C13="","",$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
+        <v>KMGTOOL_LOG31007=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5693,14 +5686,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="17">
-        <v>31007</v>
+        <v>31008</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5" t="str">
         <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
-        <v>KMGTOOL_LOG31007=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
+        <v>KMGTOOL_LOG31008=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5709,14 +5702,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="17">
-        <v>31008</v>
+        <v>31009</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="str">
         <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
-        <v>KMGTOOL_LOG31008=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_LOG31009=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5724,15 +5717,15 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="17">
-        <v>31009</v>
+      <c r="B16" s="4">
+        <v>32002</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D16" s="5" t="str">
-        <f>IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
-        <v>KMGTOOL_LOG31009=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
+        <f t="shared" ref="D16:D30" si="2">IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <v>KMGTOOL_LOG32002=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5741,14 +5734,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>32002</v>
+        <v>32003</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="5" t="str">
-        <f t="shared" ref="D17:D19" si="4">IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
-        <v>KMGTOOL_LOG32002=CSVファイルに書き込む処理を開始します。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG32003=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5757,14 +5750,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>32003</v>
+        <v>32004</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_LOG32003=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG32004=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5773,14 +5766,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>32004</v>
+        <v>32005</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D19" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_LOG32004=CSVファイルに書き込む処理を終了します。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5789,14 +5782,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>32005</v>
+        <v>32006</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="5" t="str">
-        <f t="shared" ref="D20:D23" si="5">IF(C20="","",$D$1&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
-        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG32006=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5805,14 +5798,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>32006</v>
+        <v>32007</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_LOG32006=カラムの追加中にエラーが発生しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG32007=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5821,14 +5814,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>32007</v>
+        <v>32008</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D22" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_LOG32007=1行データの読み込み中にエラーが発生しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG32008=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5837,30 +5830,30 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>32008</v>
+        <v>32009</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_LOG32008=CSVファイルに書き込み中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG32009=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="36">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>32009</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>32010</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D24" s="5" t="str">
-        <f t="shared" ref="D24:D36" si="6">IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
-        <v>KMGTOOL_LOG32009=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG32010=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="36">
@@ -5869,30 +5862,30 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>32010</v>
+        <v>32011</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="5" t="str">
-        <f t="shared" ref="D25:D31" si="7">IF(C25="","",$D$1&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
-        <v>KMGTOOL_LOG32010=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="36">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG32011=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>32011</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>54</v>
+        <v>41000</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D26" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>KMGTOOL_LOG32011=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5901,14 +5894,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>41000</v>
+        <v>41001</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5917,14 +5910,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>41001</v>
+        <v>41002</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D28" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5932,15 +5925,11 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="4">
-        <v>41002</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5951,7 +5940,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5963,7 +5952,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D31" si="3">IF(C31="","",$D$1&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
         <v/>
       </c>
     </row>
@@ -5975,7 +5964,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D32:D36" si="4">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
         <v/>
       </c>
     </row>
@@ -5987,7 +5976,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5999,7 +5988,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6011,7 +6000,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6023,7 +6012,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9B3D95-9BE7-4375-A374-CCEF73C354C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5004D9FB-6FE9-4751-A278-4AD17D5A20EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15890" yWindow="3850" windowWidth="28770" windowHeight="15450" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -393,26 +393,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1行読み込みに失敗しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0}]</t>
     <rPh sb="15" eb="17">
       <t>ケイシキ</t>
@@ -4795,7 +4775,7 @@
         <v>12001</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D4" s="13" t="str">
         <f t="shared" ref="D4:D48" si="2">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
@@ -4862,7 +4842,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" ref="D8:D31" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
+        <f t="shared" ref="D8:D34" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
         <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}], テンプレートパス：[{1}], 出力ファイルパス=[{2}]</v>
       </c>
     </row>
@@ -5159,15 +5139,15 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="10">
-        <v>32011</v>
+      <c r="B27" s="12">
+        <v>41000</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D27" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32011=1行読み込みに失敗しました。</v>
+        <f t="shared" ref="D27:D37" si="8">IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5175,63 +5155,55 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="10">
-        <v>32012</v>
+      <c r="B28" s="12">
+        <v>41001</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D28" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32012=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="36">
+        <f t="shared" si="8"/>
+        <v>KMGTOOL_GEN41001=成功</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="9">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="10">
-        <v>32013</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>25</v>
+      <c r="B29" s="12">
+        <v>41002</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D29" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32013=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="36">
+        <f t="shared" si="8"/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="9">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="10">
-        <v>32014</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32014=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="36">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="9">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="10">
-        <v>32015</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32015=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5239,15 +5211,11 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="12">
-        <v>41000</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="13" t="str">
-        <f t="shared" ref="D32:D41" si="8">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
-        <v>KMGTOOL_GEN41000=失敗</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5255,15 +5223,11 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="12">
-        <v>41001</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5271,15 +5235,11 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="12">
-        <v>41002</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5287,7 +5247,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="9"/>
       <c r="D35" s="13" t="str">
         <f t="shared" si="8"/>
@@ -5299,7 +5259,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="9"/>
       <c r="D36" s="13" t="str">
         <f t="shared" si="8"/>
@@ -5326,7 +5286,7 @@
       <c r="B38" s="14"/>
       <c r="C38" s="9"/>
       <c r="D38" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D27:D38" si="9">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
         <v/>
       </c>
     </row>
@@ -5338,7 +5298,7 @@
       <c r="B39" s="14"/>
       <c r="C39" s="9"/>
       <c r="D39" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D32:D41" si="10">IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
         <v/>
       </c>
     </row>
@@ -5350,7 +5310,7 @@
       <c r="B40" s="14"/>
       <c r="C40" s="9"/>
       <c r="D40" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -5362,7 +5322,7 @@
       <c r="B41" s="14"/>
       <c r="C41" s="9"/>
       <c r="D41" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -5374,7 +5334,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="13" t="str">
-        <f t="shared" ref="D42:D44" si="9">IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
+        <f t="shared" ref="D42:D44" si="11">IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
         <v/>
       </c>
     </row>
@@ -5386,7 +5346,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5398,7 +5358,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5840,36 +5800,36 @@
         <v>KMGTOOL_LOG32009=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>32010</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>52</v>
+        <v>41000</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG32010=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="36">
+        <f t="shared" ref="D24:D31" si="3">IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>32011</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>53</v>
+        <v>41001</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D25" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG32011=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5878,14 +5838,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>41000</v>
+        <v>41002</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5893,15 +5853,11 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="4">
-        <v>41001</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5909,15 +5865,11 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="4">
-        <v>41002</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5928,7 +5880,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5940,7 +5892,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5952,7 +5904,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5" t="str">
-        <f t="shared" ref="D31" si="3">IF(C31="","",$D$1&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5004D9FB-6FE9-4751-A278-4AD17D5A20EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872214A0-EF7B-462A-AB35-4D4AC36D9340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -408,6 +408,14 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>項目がnullです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -4842,7 +4850,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" ref="D8:D34" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
+        <f t="shared" ref="D8:D26" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
         <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}], テンプレートパス：[{1}], 出力ファイルパス=[{2}]</v>
       </c>
     </row>
@@ -5060,14 +5068,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="16">
-        <v>32001</v>
+        <v>32000</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="13" t="str">
         <f t="shared" ref="D22:D24" si="7">IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5075,15 +5083,15 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="10">
-        <v>32002</v>
+      <c r="B23" s="16">
+        <v>32001</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+        <f t="shared" ref="D23:D37" si="8">IF(C23="","",$D$1&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5092,14 +5100,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="10">
-        <v>32003</v>
+        <v>32002</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
+        <f t="shared" si="8"/>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5108,14 +5116,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="10">
-        <v>32009</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>18</v>
+        <v>32003</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
+        <f t="shared" si="8"/>
+        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5124,14 +5132,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="10">
-        <v>32010</v>
+        <v>32004</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D26" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN32010=項目名がnullです。</v>
+        <f t="shared" si="8"/>
+        <v>KMGTOOL_GEN32004=項目がnullです。</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5139,15 +5147,15 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="12">
-        <v>41000</v>
+      <c r="B27" s="10">
+        <v>32005</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D27" s="13" t="str">
-        <f t="shared" ref="D27:D37" si="8">IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
-        <v>KMGTOOL_GEN41000=失敗</v>
+        <f t="shared" si="8"/>
+        <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5155,15 +5163,15 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="12">
-        <v>41001</v>
+      <c r="B28" s="10">
+        <v>32009</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D28" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5171,15 +5179,15 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="12">
-        <v>41002</v>
+      <c r="B29" s="10">
+        <v>32010</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D29" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+        <v>KMGTOOL_GEN32010=項目名がnullです。</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5187,11 +5195,15 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="12">
+        <v>41000</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D30" s="13" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5199,11 +5211,15 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="12">
+        <v>41001</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D31" s="13" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5211,11 +5227,15 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="12">
+        <v>41002</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D32" s="13" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5235,7 +5255,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="14"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="13" t="str">
         <f t="shared" si="8"/>
@@ -5286,7 +5306,7 @@
       <c r="B38" s="14"/>
       <c r="C38" s="9"/>
       <c r="D38" s="13" t="str">
-        <f t="shared" ref="D27:D38" si="9">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
+        <f t="shared" ref="D31:D38" si="9">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
         <v/>
       </c>
     </row>
@@ -5298,7 +5318,7 @@
       <c r="B39" s="14"/>
       <c r="C39" s="9"/>
       <c r="D39" s="13" t="str">
-        <f t="shared" ref="D32:D41" si="10">IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
+        <f t="shared" ref="D39:D41" si="10">IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
         <v/>
       </c>
     </row>
@@ -5684,7 +5704,7 @@
         <v>48</v>
       </c>
       <c r="D16" s="5" t="str">
-        <f t="shared" ref="D16:D30" si="2">IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <f t="shared" ref="D16:D23" si="2">IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
         <v>KMGTOOL_LOG32002=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872214A0-EF7B-462A-AB35-4D4AC36D9340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB611E4-773B-4C4A-BF20-BFCC9B9CD671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -416,6 +416,10 @@
     <t>項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -4850,7 +4854,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" ref="D8:D26" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
+        <f t="shared" ref="D8:D21" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
         <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}], テンプレートパス：[{1}], 出力ファイルパス=[{2}]</v>
       </c>
     </row>
@@ -5074,7 +5078,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="13" t="str">
-        <f t="shared" ref="D22:D24" si="7">IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
+        <f t="shared" ref="D22" si="7">IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
         <v>KMGTOOL_GEN32000=項目名がnullです。</v>
       </c>
     </row>
@@ -5306,7 +5310,7 @@
       <c r="B38" s="14"/>
       <c r="C38" s="9"/>
       <c r="D38" s="13" t="str">
-        <f t="shared" ref="D31:D38" si="9">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
+        <f t="shared" ref="D38" si="9">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
         <v/>
       </c>
     </row>
@@ -5697,15 +5701,15 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="4">
-        <v>32002</v>
+      <c r="B16" s="17">
+        <v>31010</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="5" t="str">
         <f t="shared" ref="D16:D23" si="2">IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
-        <v>KMGTOOL_LOG32002=CSVファイルに書き込む処理を開始します。</v>
+        <v>KMGTOOL_LOG31010=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5713,15 +5717,15 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="4">
-        <v>32003</v>
+      <c r="B17" s="17">
+        <v>31011</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG32003=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
+        <v>KMGTOOL_LOG31011=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5729,15 +5733,15 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="4">
-        <v>32004</v>
+      <c r="B18" s="17">
+        <v>31012</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG32004=CSVファイルに書き込む処理を終了します。</v>
+        <v>KMGTOOL_LOG31012=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5745,15 +5749,15 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="4">
-        <v>32005</v>
+      <c r="B19" s="17">
+        <v>31013</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5761,15 +5765,15 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="4">
-        <v>32006</v>
+      <c r="B20" s="17">
+        <v>31014</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG32006=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5777,15 +5781,15 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="4">
-        <v>32007</v>
+      <c r="B21" s="17">
+        <v>31015</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG32007=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5793,15 +5797,15 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="4">
-        <v>32008</v>
+      <c r="B22" s="17">
+        <v>31016</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG32008=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5809,15 +5813,15 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="4">
-        <v>32009</v>
+      <c r="B23" s="17">
+        <v>31017</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG32009=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+        <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5826,14 +5830,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>41000</v>
+        <v>32002</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D24" s="5" t="str">
-        <f t="shared" ref="D24:D31" si="3">IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <f t="shared" ref="D24:D36" si="3">IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
+        <v>KMGTOOL_LOG32002=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5842,14 +5846,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>41001</v>
+        <v>32003</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D25" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <v>KMGTOOL_LOG32003=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5858,14 +5862,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>41002</v>
+        <v>32004</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D26" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+        <v>KMGTOOL_LOG32004=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5873,11 +5877,15 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="4">
+        <v>32005</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D27" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5885,11 +5893,15 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="4">
+        <v>32006</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D28" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>KMGTOOL_LOG32006=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5897,11 +5909,15 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="4">
+        <v>32007</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D29" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>KMGTOOL_LOG32007=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5909,11 +5925,15 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="4">
+        <v>32008</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D30" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>KMGTOOL_LOG32008=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5921,11 +5941,15 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="4">
+        <v>32009</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D31" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>KMGTOOL_LOG32009=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5933,11 +5957,15 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="4">
+        <v>41000</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D32" s="5" t="str">
-        <f t="shared" ref="D32:D36" si="4">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5945,11 +5973,15 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="4">
+        <v>41001</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D33" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5957,11 +5989,15 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="4">
+        <v>41002</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D34" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5972,7 +6008,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5984,7 +6020,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB611E4-773B-4C4A-BF20-BFCC9B9CD671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B28E00-A960-4E54-AF7A-2C0977ED1A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -420,6 +420,10 @@
     <t>CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -5066,20 +5070,20 @@
         <v>KMGTOOL_GEN31009=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="36">
       <c r="A22" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="16">
-        <v>32000</v>
+        <v>31010</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D22" s="13" t="str">
         <f t="shared" ref="D22" si="7">IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
-        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
+        <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5088,14 +5092,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="16">
-        <v>32001</v>
+        <v>32000</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="13" t="str">
-        <f t="shared" ref="D23:D37" si="8">IF(C23="","",$D$1&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+        <f t="shared" ref="D23:D33" si="8">IF(C23="","",$D$1&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
+        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5103,15 +5107,15 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="10">
-        <v>32002</v>
+      <c r="B24" s="16">
+        <v>32001</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5120,14 +5124,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="10">
-        <v>32003</v>
+        <v>32002</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5136,14 +5140,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="10">
-        <v>32004</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>52</v>
+        <v>32003</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D26" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN32004=項目がnullです。</v>
+        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5152,14 +5156,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="10">
-        <v>32005</v>
+        <v>32004</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
+        <v>KMGTOOL_GEN32004=項目がnullです。</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5168,14 +5172,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="10">
-        <v>32009</v>
+        <v>32005</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D28" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
+        <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5184,14 +5188,14 @@
         <v>27</v>
       </c>
       <c r="B29" s="10">
-        <v>32010</v>
+        <v>32009</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN32010=項目名がnullです。</v>
+        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5199,15 +5203,15 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="12">
-        <v>41000</v>
+      <c r="B30" s="10">
+        <v>32010</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
+        <v>KMGTOOL_GEN32010=項目名がnullです。</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5216,14 +5220,14 @@
         <v>29</v>
       </c>
       <c r="B31" s="12">
-        <v>41001</v>
+        <v>41000</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5232,14 +5236,14 @@
         <v>30</v>
       </c>
       <c r="B32" s="12">
-        <v>41002</v>
+        <v>41001</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5247,11 +5251,15 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="B33" s="12">
+        <v>41002</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D33" s="13" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5262,7 +5270,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D23:D37" si="9">IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
         <v/>
       </c>
     </row>
@@ -5274,7 +5282,7 @@
       <c r="B35" s="14"/>
       <c r="C35" s="9"/>
       <c r="D35" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5286,7 +5294,7 @@
       <c r="B36" s="14"/>
       <c r="C36" s="9"/>
       <c r="D36" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5298,7 +5306,7 @@
       <c r="B37" s="14"/>
       <c r="C37" s="9"/>
       <c r="D37" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5310,7 +5318,7 @@
       <c r="B38" s="14"/>
       <c r="C38" s="9"/>
       <c r="D38" s="13" t="str">
-        <f t="shared" ref="D38" si="9">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
+        <f t="shared" ref="D38" si="10">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
         <v/>
       </c>
     </row>
@@ -5322,7 +5330,7 @@
       <c r="B39" s="14"/>
       <c r="C39" s="9"/>
       <c r="D39" s="13" t="str">
-        <f t="shared" ref="D39:D41" si="10">IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
+        <f t="shared" ref="D39:D41" si="11">IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
         <v/>
       </c>
     </row>
@@ -5334,7 +5342,7 @@
       <c r="B40" s="14"/>
       <c r="C40" s="9"/>
       <c r="D40" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5346,7 +5354,7 @@
       <c r="B41" s="14"/>
       <c r="C41" s="9"/>
       <c r="D41" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5358,7 +5366,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="13" t="str">
-        <f t="shared" ref="D42:D44" si="11">IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
+        <f t="shared" ref="D42:D44" si="12">IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
         <v/>
       </c>
     </row>
@@ -5370,7 +5378,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -5382,7 +5390,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B28E00-A960-4E54-AF7A-2C0977ED1A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE10BCFE-C45C-4B12-B0B8-A8CFD41BD9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -260,22 +260,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CSVファイルに書き込む処理を終了します。</t>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</t>
     <rPh sb="0" eb="3">
       <t>イチジテキ</t>
@@ -378,14 +362,6 @@
   </si>
   <si>
     <t>CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CSVファイルに書き込む処理を開始します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CSVファイルに書き込む処理を終了します。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4775,7 +4751,7 @@
         <v>12000</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="13" t="str">
         <f t="shared" ref="D3" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -4791,7 +4767,7 @@
         <v>12001</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13" t="str">
         <f t="shared" ref="D4:D48" si="2">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
@@ -4807,7 +4783,7 @@
         <v>12002</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13" t="str">
         <f t="shared" ref="D5" si="3">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
@@ -4823,7 +4799,7 @@
         <v>12003</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="13" t="str">
         <f t="shared" ref="D6" si="4">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
@@ -4839,7 +4815,7 @@
         <v>13000</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="13" t="str">
         <f t="shared" ref="D7" si="5">IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
@@ -4855,7 +4831,7 @@
         <v>13001</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="13" t="str">
         <f t="shared" ref="D8:D21" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
@@ -4871,7 +4847,7 @@
         <v>13002</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="13" t="str">
         <f t="shared" si="6"/>
@@ -4887,7 +4863,7 @@
         <v>13003</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="13" t="str">
         <f t="shared" si="6"/>
@@ -4903,7 +4879,7 @@
         <v>13004</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="13" t="str">
         <f t="shared" si="6"/>
@@ -4967,7 +4943,7 @@
         <v>31003</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="13" t="str">
         <f t="shared" si="6"/>
@@ -4983,7 +4959,7 @@
         <v>31004</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="13" t="str">
         <f t="shared" si="6"/>
@@ -5079,7 +5055,7 @@
         <v>31010</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D22" s="13" t="str">
         <f t="shared" ref="D22" si="7">IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
@@ -5159,7 +5135,7 @@
         <v>32004</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D27" s="13" t="str">
         <f t="shared" si="8"/>
@@ -5175,7 +5151,7 @@
         <v>32005</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D28" s="13" t="str">
         <f t="shared" si="8"/>
@@ -5270,7 +5246,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="13" t="str">
-        <f t="shared" ref="D23:D37" si="9">IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
+        <f t="shared" ref="D34:D37" si="9">IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
         <v/>
       </c>
     </row>
@@ -5455,7 +5431,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -5505,23 +5481,23 @@
         <v>12000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D12" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D8" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A36" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A42" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12002</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5537,7 +5513,7 @@
         <v>12003</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5549,15 +5525,15 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="4">
-        <v>31000</v>
+      <c r="B6" s="1">
+        <v>12004</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31000=CSVファイルに書き込む処理を開始します。</v>
+        <v>KMGTOOL_LOG12004=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5565,15 +5541,15 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="4">
-        <v>31001</v>
+      <c r="B7" s="1">
+        <v>12005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG12005=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5581,15 +5557,15 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>31002</v>
+      <c r="B8" s="1">
+        <v>12006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+        <v>KMGTOOL_LOG12006=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5598,14 +5574,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>31003</v>
+        <v>31001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
+        <f t="shared" ref="D9:D13" si="2">IF(C9="","",$D$1&amp;TEXT(B9,"00000")&amp;"="&amp;C9)</f>
+        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5614,14 +5590,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>31004</v>
+        <v>31002</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5630,14 +5606,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>31005</v>
+        <v>31003</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5646,14 +5622,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>31006</v>
+        <v>31004</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31006=CSVファイルに書き込む処理を終了します。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5661,15 +5637,15 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="17">
-        <v>31007</v>
+      <c r="B13" s="4">
+        <v>31005</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5" t="str">
-        <f>IF(C13="","",$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
-        <v>KMGTOOL_LOG31007=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5681,7 +5657,7 @@
         <v>31008</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="5" t="str">
         <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
@@ -5697,7 +5673,7 @@
         <v>31009</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="5" t="str">
         <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
@@ -5710,14 +5686,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="17">
-        <v>31010</v>
+        <v>31013</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D16" s="5" t="str">
-        <f t="shared" ref="D16:D23" si="2">IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
-        <v>KMGTOOL_LOG31010=CSVファイルに書き込む処理を開始します。</v>
+        <f t="shared" ref="D16:D41" si="3">IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5726,14 +5702,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="17">
-        <v>31011</v>
+        <v>31014</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D17" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31011=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5742,14 +5718,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="17">
-        <v>31012</v>
+        <v>31015</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D18" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31012=CSVファイルに書き込む処理を終了します。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5758,14 +5734,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="17">
-        <v>31013</v>
+        <v>31016</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5774,14 +5750,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="17">
-        <v>31014</v>
+        <v>31017</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D20" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5789,15 +5765,15 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="17">
-        <v>31015</v>
+      <c r="B21" s="4">
+        <v>32005</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5805,15 +5781,15 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="17">
-        <v>31016</v>
+      <c r="B22" s="4">
+        <v>32006</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG32006=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5821,15 +5797,15 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="17">
-        <v>31017</v>
+      <c r="B23" s="4">
+        <v>32007</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG32007=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5838,14 +5814,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>32002</v>
+        <v>32008</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D24" s="5" t="str">
-        <f t="shared" ref="D24:D36" si="3">IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
-        <v>KMGTOOL_LOG32002=CSVファイルに書き込む処理を開始します。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG32008=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5854,14 +5830,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>32003</v>
+        <v>32009</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D25" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG32003=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
+        <v>KMGTOOL_LOG32009=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5870,14 +5846,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>32004</v>
+        <v>41000</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D26" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG32004=CSVファイルに書き込む処理を終了します。</v>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5886,14 +5862,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>32005</v>
+        <v>41001</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D27" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5902,14 +5878,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>32006</v>
+        <v>41002</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D28" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG32006=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5917,15 +5893,11 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="4">
-        <v>32007</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG32007=1行データの読み込み中にエラーが発生しました。</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5933,15 +5905,11 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="4">
-        <v>32008</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG32008=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5949,15 +5917,11 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="4">
-        <v>32009</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG32009=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5965,15 +5929,11 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="4">
-        <v>41000</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5981,15 +5941,11 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="4">
-        <v>41001</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5997,15 +5953,11 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="4">
-        <v>41002</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6029,6 +5981,78 @@
       <c r="C36" s="1"/>
       <c r="D36" s="5" t="str">
         <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="5" t="str">
+        <f t="shared" ref="D42" si="4">IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE10BCFE-C45C-4B12-B0B8-A8CFD41BD9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B433D7-3A5A-4999-AC54-852877254367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12080" yWindow="4600" windowWidth="23870" windowHeight="14070" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -515,7 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -557,6 +556,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4711,709 +4711,709 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.9140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.58203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="4.75" style="8"/>
+    <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.9140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.58203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="4.75" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="14">
         <v>12000</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="13" t="str">
-        <f t="shared" ref="D3" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+      <c r="D3" s="12" t="str">
+        <f>IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN12000=一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9">
-        <f t="shared" ref="A4:A48" si="1">ROW()-2</f>
+      <c r="A4" s="8">
+        <f t="shared" ref="A4:A48" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>12001</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="13" t="str">
-        <f t="shared" ref="D4:D48" si="2">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
+      <c r="D4" s="12" t="str">
+        <f>IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
         <v>KMGTOOL_GEN12001=テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0}]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>12002</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="12" t="str">
+        <f>IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
+        <v>KMGTOOL_GEN12002=テンプレートの動的変換ロジックをクローズ中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>12003</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="12" t="str">
+        <f>IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
+        <v>KMGTOOL_GEN12003=入力ファイルを処理し、テンプレートに基づいて出力を生成中にエラーが発生しました。入力ファイルパス=[{0}]、出力ファイルパス=[{1}]、テンプレートファイルパス=[{2}]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>13000</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f>IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
+        <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>13001</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="12" t="str">
+        <f>IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
+        <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}], テンプレートパス：[{1}], 出力ファイルパス=[{2}]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="11">
+        <v>13002</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="str">
+        <f>IF(C9="","",$D$1&amp;TEXT(B9,"00000")&amp;"="&amp;C9)</f>
+        <v>KMGTOOL_GEN13002=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="14">
+        <v>13003</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="12" t="str">
+        <f>IF(C10="","",$D$1&amp;TEXT(B10,"00000")&amp;"="&amp;C10)</f>
+        <v>KMGTOOL_GEN13003=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="14">
+        <v>13004</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="12" t="str">
+        <f>IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
+        <v>KMGTOOL_GEN13004=CSVの列が不足しています。入力ファイルパス: [{0}], プレースホルダーキー: [{1}], 列: [{2}] 番目</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="15">
+        <v>13005</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="12" t="str">
+        <f>IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
+        <v>KMGTOOL_GEN13005=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="15">
+        <v>13006</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>IF(C13="","",$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
+        <v>KMGTOOL_GEN13006=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="15">
+        <v>13007</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
+        <v>KMGTOOL_GEN13007=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="15">
+        <v>13008</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
+        <v>KMGTOOL_GEN13008=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="11">
+        <v>31000</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="12" t="str">
+        <f>IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="11">
+        <v>31001</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="12" t="str">
+        <f>IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
+        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="11">
+        <v>31002</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12" t="str">
+        <f>IF(C18="","",$D$1&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
+        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="14">
+        <v>31003</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f>IF(C19="","",$D$1&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
+        <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="36">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="14">
+        <v>31004</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="12" t="str">
+        <f>IF(C20="","",$D$1&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
+        <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="15">
+        <v>31007</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="12" t="str">
+        <f>IF(C21="","",$D$1&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
+        <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="36">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="15">
+        <v>31010</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="12" t="str">
+        <f>IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
+        <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="15">
+        <v>32000</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="12" t="str">
+        <f>IF(C23="","",$D$1&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
+        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="15">
+        <v>32001</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f>IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="9">
+        <v>32002</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="12" t="str">
+        <f>IF(C25="","",$D$1&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="9">
+        <v>32003</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="12" t="str">
+        <f>IF(C26="","",$D$1&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
+        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="9">
+        <v>32004</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="12" t="str">
+        <f>IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
+        <v>KMGTOOL_GEN32004=項目がnullです。</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="9">
+        <v>32005</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="12" t="str">
+        <f>IF(C28="","",$D$1&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
+        <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="9">
+        <v>32009</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="12" t="str">
+        <f>IF(C29="","",$D$1&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
+        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="9">
+        <v>32010</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="12" t="str">
+        <f>IF(C30="","",$D$1&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
+        <v>KMGTOOL_GEN32010=項目名がnullです。</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="11">
+        <v>41000</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="12" t="str">
+        <f>IF(C31="","",$D$1&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
+        <v>KMGTOOL_GEN41000=失敗</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="11">
+        <v>41001</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="12" t="str">
+        <f>IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <v>KMGTOOL_GEN41001=成功</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="11">
+        <v>41002</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="12" t="str">
+        <f>IF(C33="","",$D$1&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
+        <v>KMGTOOL_GEN41002=例外発生</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="12" t="str">
+        <f t="shared" ref="D34:D39" si="1">IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="12">
-        <v>12002</v>
-      </c>
-      <c r="C5" s="11" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="8">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D5" s="13" t="str">
-        <f t="shared" ref="D5" si="3">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
-        <v>KMGTOOL_GEN12002=テンプレートの動的変換ロジックをクローズ中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9">
+      <c r="B39" s="13"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="12">
-        <v>12003</v>
-      </c>
-      <c r="C6" s="11" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="8">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="12" t="str">
+        <f t="shared" ref="D39:D48" si="2">IF(C40="","",$D$1&amp;TEXT(B40,"00000")&amp;"="&amp;C40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D6" s="13" t="str">
-        <f t="shared" ref="D6" si="4">IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
-        <v>KMGTOOL_GEN12003=入力ファイルを処理し、テンプレートに基づいて出力を生成中にエラーが発生しました。入力ファイルパス=[{0}]、出力ファイルパス=[{1}]、テンプレートファイルパス=[{2}]</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="12">
-        <v>13000</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="12" t="str">
+        <f t="shared" ref="D41:D42" si="3">IF(C41="","",$D$1&amp;TEXT(B41,"00000")&amp;"="&amp;C41)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D7" s="13" t="str">
-        <f t="shared" ref="D7" si="5">IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
-        <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="9">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="12">
-        <v>13001</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D8" s="13" t="str">
-        <f t="shared" ref="D8:D21" si="6">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
-        <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}], テンプレートパス：[{1}], 出力ファイルパス=[{2}]</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="12">
-        <v>13002</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN13002=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="12">
-        <v>13003</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN13003=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="9">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="12">
-        <v>13004</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN13004=CSVの列が不足しています。入力ファイルパス: [{0}], プレースホルダーキー: [{1}], 列: [{2}] 番目</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="12">
-        <v>31000</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="9">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="12">
-        <v>31001</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="9">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="12">
-        <v>31002</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="9">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="15">
-        <v>31003</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="36">
-      <c r="A16" s="9">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="15">
-        <v>31004</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="36">
-      <c r="A17" s="9">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="16">
-        <v>31005</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN31005=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="36">
-      <c r="A18" s="9">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="16">
-        <v>31006</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN31006=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="16">
-        <v>31007</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="36">
-      <c r="A20" s="9">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="16">
-        <v>31008</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN31008=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="36">
-      <c r="A21" s="9">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="16">
-        <v>31009</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>KMGTOOL_GEN31009=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="36">
-      <c r="A22" s="9">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="16">
-        <v>31010</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="13" t="str">
-        <f t="shared" ref="D22" si="7">IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
-        <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="9">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="16">
-        <v>32000</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="13" t="str">
-        <f t="shared" ref="D23:D33" si="8">IF(C23="","",$D$1&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
-        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="9">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="16">
-        <v>32001</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="9">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="10">
-        <v>32002</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="9">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="10">
-        <v>32003</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="10">
-        <v>32004</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN32004=項目がnullです。</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="10">
-        <v>32005</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="9">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="10">
-        <v>32009</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="10">
-        <v>32010</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN32010=項目名がnullです。</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="9">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="12">
-        <v>41000</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="9">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="12">
-        <v>41001</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN41001=成功</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="9">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="12">
-        <v>41002</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="9">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="13" t="str">
-        <f t="shared" ref="D34:D37" si="9">IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="9">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="13" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="9">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="13" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="9">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="13" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="9">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="13" t="str">
-        <f t="shared" ref="D38" si="10">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="9">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="13" t="str">
-        <f t="shared" ref="D39:D41" si="11">IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="9">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="9">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="9">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="13" t="str">
-        <f t="shared" ref="D42:D44" si="12">IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="9">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="13" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="9">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="13" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="9">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="13" t="str">
+      <c r="B43" s="13"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="9">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="13" t="str">
+    <row r="44" spans="1:4">
+      <c r="A44" s="8">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="9">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="13" t="str">
+    <row r="45" spans="1:4">
+      <c r="A45" s="8">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="8">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="9">
-        <f t="shared" si="1"/>
+      <c r="A48" s="8">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="13" t="str">
+      <c r="B48" s="13"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5449,11 +5449,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
@@ -5478,14 +5478,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D8" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f t="shared" ref="D3:D42" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <v>KMGTOOL_LOG13000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5494,14 +5494,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>12002</v>
+        <v>13001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5" t="str">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG12002=テンプレートの動的変換処理を終了します。</v>
+        <v>KMGTOOL_LOG13001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5510,14 +5510,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>12003</v>
+        <v>12000</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG12003=データの1行読み込み中にエラーが発生しました。入力ファイルパス=[{0}}</v>
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" ref="D5:D30" si="2">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
+        <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5526,14 +5526,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>12004</v>
+        <v>12002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG12004=CSVファイルに書き込む処理を開始します。</v>
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG12002=テンプレートの動的変換処理を終了します。</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5541,15 +5541,15 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>12005</v>
+      <c r="B7" s="19">
+        <v>12003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG12005=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG12003=データの1行読み込み中にエラーが発生しました。入力ファイルパス=[{0}}</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5557,15 +5557,15 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>12006</v>
+      <c r="B8" s="19">
+        <v>12004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG12006=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG12004=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5573,15 +5573,15 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="4">
-        <v>31001</v>
+      <c r="B9" s="19">
+        <v>12005</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f t="shared" ref="D9:D13" si="2">IF(C9="","",$D$1&amp;TEXT(B9,"00000")&amp;"="&amp;C9)</f>
-        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG12005=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5589,15 +5589,15 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="4">
-        <v>31002</v>
+      <c r="B10" s="19">
+        <v>12006</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5" t="str">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+        <v>KMGTOOL_LOG12006=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5605,15 +5605,15 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="4">
-        <v>31003</v>
+      <c r="B11" s="16">
+        <v>31001</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5" t="str">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5621,15 +5621,15 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="4">
-        <v>31004</v>
+      <c r="B12" s="16">
+        <v>31002</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="str">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5637,15 +5637,15 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="4">
-        <v>31005</v>
+      <c r="B13" s="16">
+        <v>31003</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5" t="str">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5653,15 +5653,15 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="17">
-        <v>31008</v>
+      <c r="B14" s="16">
+        <v>31004</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
-        <v>KMGTOOL_LOG31008=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5669,15 +5669,15 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="17">
-        <v>31009</v>
+      <c r="B15" s="16">
+        <v>31005</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="5" t="str">
-        <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
-        <v>KMGTOOL_LOG31009=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5685,15 +5685,15 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="17">
-        <v>31013</v>
+      <c r="B16" s="16">
+        <v>31006</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="5" t="str">
-        <f t="shared" ref="D16:D41" si="3">IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
-        <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG31006=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5701,15 +5701,15 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="17">
-        <v>31014</v>
+      <c r="B17" s="16">
+        <v>31007</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_LOG31007=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5717,15 +5717,15 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="17">
-        <v>31015</v>
+      <c r="B18" s="16">
+        <v>31010</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
+        <v>27</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" ref="D18:D28" si="3">IF(C18="","",$D$1&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
+        <v>KMGTOOL_LOG31010=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5733,15 +5733,15 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="17">
-        <v>31016</v>
+      <c r="B19" s="16">
+        <v>31011</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="5" t="str">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31011=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5749,15 +5749,15 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="17">
-        <v>31017</v>
+      <c r="B20" s="16">
+        <v>31013</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="5" t="str">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
+        <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5765,15 +5765,15 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="4">
-        <v>32005</v>
+      <c r="B21" s="16">
+        <v>31014</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="5" t="str">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5781,15 +5781,15 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="4">
-        <v>32006</v>
+      <c r="B22" s="16">
+        <v>31015</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="5" t="str">
+        <v>31</v>
+      </c>
+      <c r="D22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG32006=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5797,15 +5797,15 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="4">
-        <v>32007</v>
+      <c r="B23" s="16">
+        <v>31016</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="5" t="str">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG32007=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5813,15 +5813,15 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="4">
-        <v>32008</v>
+      <c r="B24" s="16">
+        <v>31017</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="5" t="str">
+        <v>51</v>
+      </c>
+      <c r="D24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG32008=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5829,15 +5829,15 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="4">
-        <v>32009</v>
+      <c r="B25" s="16">
+        <v>32005</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="5" t="str">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG32009=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5845,13 +5845,13 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="16">
         <v>41000</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="5" t="str">
+      <c r="D26" s="4" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
@@ -5861,13 +5861,13 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="16">
         <v>41001</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="5" t="str">
+      <c r="D27" s="4" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
@@ -5877,13 +5877,13 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="16">
         <v>41002</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="5" t="str">
+      <c r="D28" s="4" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
@@ -5893,10 +5893,10 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="D29" s="4" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5905,10 +5905,10 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="D30" s="4" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5919,8 +5919,8 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="D31" s="4" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5931,8 +5931,8 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="D32" s="4" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5943,8 +5943,8 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="D33" s="4" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5955,8 +5955,8 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="D34" s="4" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5967,8 +5967,8 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="D35" s="4" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5979,8 +5979,8 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="D36" s="4" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5991,8 +5991,8 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="D37" s="4" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6003,8 +6003,8 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="D38" s="4" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6015,8 +6015,8 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="D39" s="4" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6027,8 +6027,8 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="D40" s="4" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6039,8 +6039,8 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="D41" s="4" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6051,8 +6051,8 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="5" t="str">
-        <f t="shared" ref="D42" si="4">IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
+      <c r="D42" s="4" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B433D7-3A5A-4999-AC54-852877254367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ADD3CE-C3E0-4026-9668-F57AF6241BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="4600" windowWidth="23870" windowHeight="14070" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -400,6 +400,26 @@
     <t>メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コメントがnullです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドがnullです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型がnullです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド作成ロジックをクローズ中にエラーが発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVファイルに書き込み完了。コメント=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -474,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -506,11 +526,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -550,13 +581,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4719,11 +4752,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
@@ -4754,109 +4787,109 @@
         <v>32</v>
       </c>
       <c r="D3" s="12" t="str">
-        <f>IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D33" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN12000=一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8">
-        <f t="shared" ref="A4:A48" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A48" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="14">
         <v>12001</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="12" t="str">
-        <f>IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12001=テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0}]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="14">
         <v>12002</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="12" t="str">
-        <f>IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12002=テンプレートの動的変換ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="14">
         <v>12003</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="12" t="str">
-        <f>IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12003=入力ファイルを処理し、テンプレートに基づいて出力を生成中にエラーが発生しました。入力ファイルパス=[{0}]、出力ファイルパス=[{1}]、テンプレートファイルパス=[{2}]</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="14">
         <v>13000</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="12" t="str">
-        <f>IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="14">
         <v>13001</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="12" t="str">
-        <f>IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}], テンプレートパス：[{1}], 出力ファイルパス=[{2}]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="14">
         <v>13002</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="12" t="str">
-        <f>IF(C9="","",$D$1&amp;TEXT(B9,"00000")&amp;"="&amp;C9)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13002=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="14">
@@ -4866,13 +4899,13 @@
         <v>43</v>
       </c>
       <c r="D10" s="12" t="str">
-        <f>IF(C10="","",$D$1&amp;TEXT(B10,"00000")&amp;"="&amp;C10)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13003=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="14">
@@ -4882,13 +4915,13 @@
         <v>44</v>
       </c>
       <c r="D11" s="12" t="str">
-        <f>IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13004=CSVの列が不足しています。入力ファイルパス: [{0}], プレースホルダーキー: [{1}], 列: [{2}] 番目</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="36">
       <c r="A12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="15">
@@ -4898,13 +4931,13 @@
         <v>24</v>
       </c>
       <c r="D12" s="12" t="str">
-        <f>IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13005=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36">
       <c r="A13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="15">
@@ -4914,13 +4947,13 @@
         <v>25</v>
       </c>
       <c r="D13" s="12" t="str">
-        <f>IF(C13="","",$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13006=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="36">
       <c r="A14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="15">
@@ -4930,13 +4963,13 @@
         <v>21</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13007=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="36">
       <c r="A15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="15">
@@ -4946,61 +4979,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="12" t="str">
-        <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13008=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="14">
         <v>31000</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="12" t="str">
-        <f>IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="14">
         <v>31001</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="12" t="str">
-        <f>IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="14">
         <v>31002</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="12" t="str">
-        <f>IF(C18="","",$D$1&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="14">
@@ -5010,13 +5043,13 @@
         <v>38</v>
       </c>
       <c r="D19" s="12" t="str">
-        <f>IF(C19="","",$D$1&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="36">
       <c r="A20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="14">
@@ -5026,395 +5059,411 @@
         <v>47</v>
       </c>
       <c r="D20" s="12" t="str">
-        <f>IF(C20="","",$D$1&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="36">
       <c r="A21" s="8">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="14">
+        <v>31005</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="15">
+        <v>KMGTOOL_GEN31005=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="15">
         <v>31007</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="D21" s="12" t="str">
-        <f>IF(C21="","",$D$1&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
-        <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="36">
-      <c r="A22" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="15">
-        <v>31010</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="D22" s="12" t="str">
         <f>IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
-        <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="36">
       <c r="A23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="15">
-        <v>32000</v>
+        <v>31010</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D23" s="12" t="str">
         <f>IF(C23="","",$D$1&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
-        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
+        <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="15">
-        <v>32001</v>
+        <v>32000</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="12" t="str">
         <f>IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="9">
-        <v>32002</v>
+      <c r="B25" s="15">
+        <v>32001</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="12" t="str">
         <f>IF(C25="","",$D$1&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="9">
-        <v>32003</v>
+      <c r="B26" s="15">
+        <v>32002</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="12" t="str">
         <f>IF(C26="","",$D$1&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
-        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="9">
-        <v>32004</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>49</v>
+      <c r="B27" s="15">
+        <v>32003</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="12" t="str">
         <f>IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
-        <v>KMGTOOL_GEN32004=項目がnullです。</v>
+        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="9">
-        <v>32005</v>
+      <c r="B28" s="15">
+        <v>32004</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="12" t="str">
         <f>IF(C28="","",$D$1&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
-        <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
+        <v>KMGTOOL_GEN32004=項目がnullです。</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="9">
-        <v>32009</v>
+      <c r="B29" s="15">
+        <v>32005</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D29" s="12" t="str">
         <f>IF(C29="","",$D$1&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
-        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
+        <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="9">
-        <v>32010</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>18</v>
+      <c r="B30" s="15">
+        <v>32006</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D30" s="12" t="str">
-        <f>IF(C30="","",$D$1&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
-        <v>KMGTOOL_GEN32010=項目名がnullです。</v>
+        <f t="shared" ref="D30:D31" si="2">IF(C30="","",$D$1&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
+        <v>KMGTOOL_GEN32006=コメントがnullです。</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="11">
-        <v>41000</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>9</v>
+      <c r="B31" s="15">
+        <v>32007</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="D31" s="12" t="str">
-        <f>IF(C31="","",$D$1&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
-        <v>KMGTOOL_GEN41000=失敗</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32007=フィールドがnullです。</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="11">
-        <v>41001</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>10</v>
+      <c r="B32" s="15">
+        <v>32008</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D32" s="12" t="str">
         <f>IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <v>KMGTOOL_GEN32008=型がnullです。</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="11">
-        <v>41002</v>
+      <c r="B33" s="15">
+        <v>32009</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D33" s="12" t="str">
         <f>IF(C33="","",$D$1&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="9">
+        <v>32010</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="D34" s="12" t="str">
-        <f t="shared" ref="D34:D39" si="1">IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
-        <v/>
+        <f>IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
+        <v>KMGTOOL_GEN32010=項目名がnullです。</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="11">
+        <v>41000</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="D35" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="11">
+        <v>41001</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="D36" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(C36="","",$D$1&amp;TEXT(B36,"00000")&amp;"="&amp;C36)</f>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="11">
+        <v>41002</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D37" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(C37="","",$D$1&amp;TEXT(B37,"00000")&amp;"="&amp;C37)</f>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="8"/>
       <c r="D38" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D38:D41" si="3">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="8"/>
       <c r="D39" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="8"/>
       <c r="D40" s="12" t="str">
-        <f t="shared" ref="D39:D48" si="2">IF(C40="","",$D$1&amp;TEXT(B40,"00000")&amp;"="&amp;C40)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="8"/>
       <c r="D41" s="12" t="str">
-        <f t="shared" ref="D41:D42" si="3">IF(C41="","",$D$1&amp;TEXT(B41,"00000")&amp;"="&amp;C41)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="8"/>
       <c r="D42" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D42:D46" si="4">IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="8"/>
       <c r="D43" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="8"/>
       <c r="D44" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="8"/>
       <c r="D45" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="8"/>
       <c r="D46" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="8"/>
       <c r="D47" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D40:D48" si="5">IF(C47="","",$D$1&amp;TEXT(B47,"00000")&amp;"="&amp;C47)</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="8"/>
       <c r="D48" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5449,11 +5498,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
@@ -5509,7 +5558,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="17">
         <v>12000</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -5525,7 +5574,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="17">
         <v>12002</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -5541,7 +5590,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>12003</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -5557,7 +5606,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="17">
         <v>12004</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -5573,7 +5622,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="17">
         <v>12005</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -5589,7 +5638,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <v>12006</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -5606,14 +5655,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="16">
-        <v>31001</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="str">
+        <v>31000</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31000=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5622,14 +5671,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="16">
-        <v>31002</v>
+        <v>31001</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+        <f>IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
+        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5638,14 +5687,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="16">
-        <v>31003</v>
+        <v>31002</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
+        <f>IF(C13="","",$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
+        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5654,14 +5703,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="16">
-        <v>31004</v>
+        <v>31003</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
+        <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
+        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5670,14 +5719,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="16">
-        <v>31005</v>
+        <v>31004</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
+        <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
+        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5686,14 +5735,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="16">
-        <v>31006</v>
+        <v>31005</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31006=カラムの追加中にエラーが発生しました。</v>
+        <f>IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5702,14 +5751,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="16">
-        <v>31007</v>
+        <v>31006</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31007=1行データの読み込み中にエラーが発生しました。</v>
+        <f>IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
+        <v>KMGTOOL_LOG31006=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5718,14 +5767,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="16">
-        <v>31010</v>
+        <v>31007</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D18" s="4" t="str">
-        <f t="shared" ref="D18:D28" si="3">IF(C18="","",$D$1&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
-        <v>KMGTOOL_LOG31010=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <f>IF(C18="","",$D$1&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
+        <v>KMGTOOL_LOG31007=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5734,78 +5783,78 @@
         <v>17</v>
       </c>
       <c r="B19" s="16">
+        <v>31008</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f t="shared" ref="D19:D32" si="3">IF(C19="","",$D$1&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
+        <v>KMGTOOL_LOG31008=カラムの追加中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="16">
+        <v>31009</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG31009=1行データの読み込み中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="16">
+        <v>31010</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_LOG31010=CSVファイルに書き込み中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="16">
         <v>31011</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D22" s="4" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_LOG31011=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="16">
-        <v>31013</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="16">
-        <v>31014</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="16">
-        <v>31015</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
-      </c>
-    </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="16">
-        <v>31016</v>
+        <v>31012</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31012=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5814,14 +5863,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="16">
-        <v>31017</v>
+        <v>31013</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
+        <f>IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
+        <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5830,14 +5879,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="16">
-        <v>32005</v>
+        <v>31014</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
+        <f>IF(C25="","",$D$1&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
+        <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5846,14 +5895,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="16">
-        <v>41000</v>
+        <v>31015</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D26" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <f>IF(C26="","",$D$1&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
+        <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5862,14 +5911,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="16">
-        <v>41001</v>
+        <v>31016</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D27" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <f>IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
+        <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5878,14 +5927,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="16">
-        <v>41002</v>
+        <v>31017</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D28" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+        <f>IF(C28="","",$D$1&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
+        <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5893,11 +5942,15 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="16">
+        <v>31018</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D29" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" ref="D29" si="4">IF(C29="","",$D$1&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
+        <v>KMGTOOL_LOG31018=CSVファイルに書き込み完了。コメント=[{0}]</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5905,11 +5958,15 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="16">
+        <v>32005</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D30" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF(C30="","",$D$1&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
+        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5917,11 +5974,15 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="16">
+        <v>41000</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(C31="","",$D$1&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5929,11 +5990,15 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="16">
+        <v>41001</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5941,11 +6006,15 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="16">
+        <v>41002</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(C33="","",$D$1&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="34" spans="1:4">

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ADD3CE-C3E0-4026-9668-F57AF6241BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6B8856-B2C7-40C9-895C-C8DDCEE8D5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -420,6 +420,22 @@
     <t>CSVファイルに書き込み完了。コメント=[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>CSVファイルに書き込む処理を終了します。</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -582,14 +598,14 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4752,11 +4768,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
@@ -4787,7 +4803,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="12" t="str">
-        <f t="shared" ref="D3:D33" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D21" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN12000=一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
     </row>
@@ -5091,7 +5107,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="12" t="str">
-        <f>IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
+        <f t="shared" ref="D22:D29" si="2">IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
         <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
       </c>
     </row>
@@ -5107,7 +5123,7 @@
         <v>52</v>
       </c>
       <c r="D23" s="12" t="str">
-        <f>IF(C23="","",$D$1&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
@@ -5123,7 +5139,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="12" t="str">
-        <f>IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32000=項目名がnullです。</v>
       </c>
     </row>
@@ -5139,7 +5155,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="12" t="str">
-        <f>IF(C25="","",$D$1&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
@@ -5155,7 +5171,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="12" t="str">
-        <f>IF(C26="","",$D$1&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
     </row>
@@ -5171,7 +5187,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="12" t="str">
-        <f>IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
     </row>
@@ -5187,7 +5203,7 @@
         <v>49</v>
       </c>
       <c r="D28" s="12" t="str">
-        <f>IF(C28="","",$D$1&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32004=項目がnullです。</v>
       </c>
     </row>
@@ -5203,7 +5219,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="12" t="str">
-        <f>IF(C29="","",$D$1&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
@@ -5219,7 +5235,7 @@
         <v>53</v>
       </c>
       <c r="D30" s="12" t="str">
-        <f t="shared" ref="D30:D31" si="2">IF(C30="","",$D$1&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
+        <f t="shared" ref="D30:D31" si="3">IF(C30="","",$D$1&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
         <v>KMGTOOL_GEN32006=コメントがnullです。</v>
       </c>
     </row>
@@ -5235,7 +5251,7 @@
         <v>54</v>
       </c>
       <c r="D31" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32007=フィールドがnullです。</v>
       </c>
     </row>
@@ -5251,7 +5267,7 @@
         <v>55</v>
       </c>
       <c r="D32" s="12" t="str">
-        <f>IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <f t="shared" ref="D32:D37" si="4">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
         <v>KMGTOOL_GEN32008=型がnullです。</v>
       </c>
     </row>
@@ -5267,7 +5283,7 @@
         <v>18</v>
       </c>
       <c r="D33" s="12" t="str">
-        <f>IF(C33="","",$D$1&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
+        <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32009=項目名がnullです。</v>
       </c>
     </row>
@@ -5283,7 +5299,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="12" t="str">
-        <f>IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
+        <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32010=項目名がnullです。</v>
       </c>
     </row>
@@ -5299,7 +5315,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="12" t="str">
-        <f>IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+        <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
@@ -5315,7 +5331,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="12" t="str">
-        <f>IF(C36="","",$D$1&amp;TEXT(B36,"00000")&amp;"="&amp;C36)</f>
+        <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
@@ -5331,7 +5347,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="12" t="str">
-        <f>IF(C37="","",$D$1&amp;TEXT(B37,"00000")&amp;"="&amp;C37)</f>
+        <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
@@ -5343,7 +5359,7 @@
       <c r="B38" s="13"/>
       <c r="C38" s="8"/>
       <c r="D38" s="12" t="str">
-        <f t="shared" ref="D38:D41" si="3">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
+        <f t="shared" ref="D38:D41" si="5">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
         <v/>
       </c>
     </row>
@@ -5355,7 +5371,7 @@
       <c r="B39" s="13"/>
       <c r="C39" s="8"/>
       <c r="D39" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5367,7 +5383,7 @@
       <c r="B40" s="13"/>
       <c r="C40" s="8"/>
       <c r="D40" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5379,7 +5395,7 @@
       <c r="B41" s="13"/>
       <c r="C41" s="8"/>
       <c r="D41" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5391,7 +5407,7 @@
       <c r="B42" s="13"/>
       <c r="C42" s="8"/>
       <c r="D42" s="12" t="str">
-        <f t="shared" ref="D42:D46" si="4">IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
+        <f t="shared" ref="D42:D46" si="6">IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
         <v/>
       </c>
     </row>
@@ -5403,7 +5419,7 @@
       <c r="B43" s="13"/>
       <c r="C43" s="8"/>
       <c r="D43" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5415,7 +5431,7 @@
       <c r="B44" s="13"/>
       <c r="C44" s="8"/>
       <c r="D44" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5427,7 +5443,7 @@
       <c r="B45" s="13"/>
       <c r="C45" s="8"/>
       <c r="D45" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5439,7 +5455,7 @@
       <c r="B46" s="13"/>
       <c r="C46" s="8"/>
       <c r="D46" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5451,7 +5467,7 @@
       <c r="B47" s="13"/>
       <c r="C47" s="8"/>
       <c r="D47" s="12" t="str">
-        <f t="shared" ref="D40:D48" si="5">IF(C47="","",$D$1&amp;TEXT(B47,"00000")&amp;"="&amp;C47)</f>
+        <f t="shared" ref="D47:D48" si="7">IF(C47="","",$D$1&amp;TEXT(B47,"00000")&amp;"="&amp;C47)</f>
         <v/>
       </c>
     </row>
@@ -5463,7 +5479,7 @@
       <c r="B48" s="13"/>
       <c r="C48" s="8"/>
       <c r="D48" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5498,11 +5514,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
@@ -5565,7 +5581,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="4" t="str">
-        <f t="shared" ref="D5:D30" si="2">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
+        <f t="shared" ref="D5:D11" si="2">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
         <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
@@ -5642,11 +5658,11 @@
         <v>12006</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG12006=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
+        <v>KMGTOOL_LOG12006=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5657,10 +5673,10 @@
       <c r="B11" s="16">
         <v>31000</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="21" t="str">
+      <c r="D11" s="19" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_LOG31000=クリア処理中にエラーが発生しました。</v>
       </c>
@@ -5677,7 +5693,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f>IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
+        <f t="shared" ref="D12:D18" si="3">IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
         <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
@@ -5693,7 +5709,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f>IF(C13="","",$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
+        <f t="shared" si="3"/>
         <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
@@ -5709,7 +5725,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="4" t="str">
-        <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
+        <f t="shared" si="3"/>
         <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
@@ -5725,7 +5741,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
+        <f t="shared" si="3"/>
         <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
@@ -5741,7 +5757,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f>IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <f t="shared" si="3"/>
         <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
@@ -5757,7 +5773,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f>IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
+        <f t="shared" si="3"/>
         <v>KMGTOOL_LOG31006=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
@@ -5773,7 +5789,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="4" t="str">
-        <f>IF(C18="","",$D$1&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
+        <f t="shared" si="3"/>
         <v>KMGTOOL_LOG31007=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
@@ -5789,7 +5805,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f t="shared" ref="D19:D32" si="3">IF(C19="","",$D$1&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
+        <f t="shared" ref="D19:D23" si="4">IF(C19="","",$D$1&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
         <v>KMGTOOL_LOG31008=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
@@ -5805,7 +5821,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>KMGTOOL_LOG31009=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
@@ -5821,7 +5837,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>KMGTOOL_LOG31010=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
@@ -5837,7 +5853,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>KMGTOOL_LOG31011=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
@@ -5853,7 +5869,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>KMGTOOL_LOG31012=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
@@ -5949,7 +5965,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="4" t="str">
-        <f t="shared" ref="D29" si="4">IF(C29="","",$D$1&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
+        <f t="shared" ref="D29" si="5">IF(C29="","",$D$1&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
         <v>KMGTOOL_LOG31018=CSVファイルに書き込み完了。コメント=[{0}]</v>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6B8856-B2C7-40C9-895C-C8DDCEE8D5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB90CA1B-C122-4055-8235-A43BC7EA7610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -354,14 +354,6 @@
   </si>
   <si>
     <t>CSVの列が不足しています。入力ファイルパス: [{0}], プレースホルダーキー: [{1}], 列: [{2}] 番目</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データの1行読み込み中にエラーが発生しました。入力ファイルパス=[{0}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4751,11 +4743,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -4816,7 +4808,7 @@
         <v>12001</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5072,7 +5064,7 @@
         <v>31004</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5088,7 +5080,7 @@
         <v>31005</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5120,7 +5112,7 @@
         <v>31010</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="12" t="str">
         <f t="shared" si="2"/>
@@ -5200,7 +5192,7 @@
         <v>32004</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" s="12" t="str">
         <f t="shared" si="2"/>
@@ -5216,7 +5208,7 @@
         <v>32005</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29" s="12" t="str">
         <f t="shared" si="2"/>
@@ -5232,7 +5224,7 @@
         <v>32006</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" s="12" t="str">
         <f t="shared" ref="D30:D31" si="3">IF(C30="","",$D$1&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
@@ -5248,7 +5240,7 @@
         <v>32007</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D31" s="12" t="str">
         <f t="shared" si="3"/>
@@ -5264,7 +5256,7 @@
         <v>32008</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32" s="12" t="str">
         <f t="shared" ref="D32:D37" si="4">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
@@ -5498,11 +5490,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -5542,15 +5534,15 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>13000</v>
+      <c r="B3" s="17">
+        <v>12000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D42" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGTOOL_LOG13000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5558,15 +5550,15 @@
         <f t="shared" ref="A4:A42" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>13001</v>
+      <c r="B4" s="17">
+        <v>12002</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_LOG12002=テンプレートの動的変換処理を終了します。</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5575,14 +5567,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="17">
-        <v>12000</v>
+        <v>12004</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D11" si="2">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
-        <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
+        <v>KMGTOOL_LOG12004=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5591,14 +5583,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="17">
-        <v>12002</v>
+        <v>12006</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG12002=テンプレートの動的変換処理を終了します。</v>
+        <v>KMGTOOL_LOG12006=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5606,15 +5598,15 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="17">
-        <v>12003</v>
+      <c r="B7" s="1">
+        <v>13000</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG12003=データの1行読み込み中にエラーが発生しました。入力ファイルパス=[{0}}</v>
+        <v>KMGTOOL_LOG13000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5622,15 +5614,15 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="17">
-        <v>12004</v>
+      <c r="B8" s="1">
+        <v>13001</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG12004=CSVファイルに書き込む処理を開始します。</v>
+        <v>KMGTOOL_LOG13001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5638,15 +5630,15 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="17">
-        <v>12005</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
+      <c r="B9" s="16">
+        <v>31000</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG12005=CSVファイルの書き込み処理中にエラーが発生しました。出力ファイルパス:[{0}]</v>
+        <v>KMGTOOL_LOG31000=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5654,15 +5646,15 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="17">
-        <v>12006</v>
+      <c r="B10" s="16">
+        <v>31001</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG12006=CSVファイルに書き込む処理を終了します。</v>
+        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5671,14 +5663,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="16">
-        <v>31000</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>29</v>
+        <v>31002</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31000=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5687,14 +5679,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="16">
-        <v>31001</v>
+        <v>31003</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" ref="D12:D18" si="3">IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
-        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5703,14 +5695,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="16">
-        <v>31002</v>
+        <v>31004</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5719,14 +5711,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="16">
-        <v>31003</v>
+        <v>31005</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5735,14 +5727,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="16">
-        <v>31004</v>
+        <v>31006</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31006=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5751,14 +5743,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="16">
-        <v>31005</v>
+        <v>31007</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31007=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5767,14 +5759,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="16">
-        <v>31006</v>
+        <v>31008</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31006=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31008=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5783,14 +5775,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="16">
-        <v>31007</v>
+        <v>31009</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31007=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31009=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5799,14 +5791,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="16">
-        <v>31008</v>
+        <v>31010</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" ref="D19:D23" si="4">IF(C19="","",$D$1&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
-        <v>KMGTOOL_LOG31008=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31010=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5815,14 +5807,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="16">
-        <v>31009</v>
+        <v>31011</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>KMGTOOL_LOG31009=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31011=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5831,14 +5823,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="16">
-        <v>31010</v>
+        <v>31012</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>KMGTOOL_LOG31010=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31012=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5847,14 +5839,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="16">
-        <v>31011</v>
+        <v>31013</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>KMGTOOL_LOG31011=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
+        <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5863,14 +5855,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="16">
-        <v>31012</v>
+        <v>31014</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>KMGTOOL_LOG31012=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5879,14 +5871,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="16">
-        <v>31013</v>
+        <v>31015</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4" t="str">
         <f>IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
-        <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5895,14 +5887,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="16">
-        <v>31014</v>
+        <v>31016</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D25" s="4" t="str">
         <f>IF(C25="","",$D$1&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
-        <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5911,14 +5903,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="16">
-        <v>31015</v>
+        <v>31017</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D26" s="4" t="str">
         <f>IF(C26="","",$D$1&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
-        <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5927,14 +5919,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="16">
-        <v>31016</v>
+        <v>31018</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D27" s="4" t="str">
         <f>IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
-        <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31018=CSVファイルに書き込み完了。コメント=[{0}]</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5943,14 +5935,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="16">
-        <v>31017</v>
+        <v>32005</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D28" s="4" t="str">
         <f>IF(C28="","",$D$1&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
-        <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
+        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5959,14 +5951,14 @@
         <v>27</v>
       </c>
       <c r="B29" s="16">
-        <v>31018</v>
+        <v>41000</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" ref="D29" si="5">IF(C29="","",$D$1&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
-        <v>KMGTOOL_LOG31018=CSVファイルに書き込み完了。コメント=[{0}]</v>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5975,14 +5967,14 @@
         <v>28</v>
       </c>
       <c r="B30" s="16">
-        <v>32005</v>
+        <v>41001</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D30" s="4" t="str">
         <f>IF(C30="","",$D$1&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
-        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5991,14 +5983,14 @@
         <v>29</v>
       </c>
       <c r="B31" s="16">
-        <v>41000</v>
+        <v>41002</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D31" s="4" t="str">
         <f>IF(C31="","",$D$1&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6006,15 +5998,11 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="16">
-        <v>41001</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="4" t="str">
         <f>IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6022,15 +6010,11 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="16">
-        <v>41002</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="4" t="str">
         <f>IF(C33="","",$D$1&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:4">

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB90CA1B-C122-4055-8235-A43BC7EA7610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45DFD3A-FDF4-4244-965E-AE86F1CCF8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -428,6 +428,38 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>実行中にKMGツール例外が発生しました。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行中に想定外の例外が発生しました。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ソウテイガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -5494,7 +5526,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -5998,11 +6030,15 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="16">
+        <v>41003</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D32" s="4" t="str">
         <f>IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
-        <v/>
+        <v>KMGTOOL_LOG41003=実行中にKMGツール例外が発生しました。</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6010,11 +6046,15 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="16">
+        <v>41004</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D33" s="4" t="str">
         <f>IF(C33="","",$D$1&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
-        <v/>
+        <v>KMGTOOL_LOG41004=実行中に想定外の例外が発生しました。</v>
       </c>
     </row>
     <row r="34" spans="1:4">

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45DFD3A-FDF4-4244-965E-AE86F1CCF8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B4B5C-112C-4E82-8967-14BFF9D3F29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="1530" windowWidth="20160" windowHeight="17130" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -428,38 +428,6 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>実行中にKMGツール例外が発生しました。</t>
-    <rPh sb="0" eb="2">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実行中に想定外の例外が発生しました。</t>
-    <rPh sb="0" eb="2">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ソウテイガイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
@@ -4775,11 +4743,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -5522,11 +5490,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -6030,15 +5998,11 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="16">
-        <v>41003</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="4" t="str">
         <f>IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
-        <v>KMGTOOL_LOG41003=実行中にKMGツール例外が発生しました。</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6046,15 +6010,11 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="16">
-        <v>41004</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="4" t="str">
         <f>IF(C33="","",$D$1&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
-        <v>KMGTOOL_LOG41004=実行中に想定外の例外が発生しました。</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:4">

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B4B5C-112C-4E82-8967-14BFF9D3F29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB55891F-4C23-4D29-BF03-F8CA097EABC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="1530" windowWidth="20160" windowHeight="17130" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -426,6 +426,54 @@
     <rPh sb="15" eb="17">
       <t>シュウリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javadocタグ設定処理を開始します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javadocタグ設定処理を終了します。\n読み込みファイル数:[{0}]\n最終合計行数:[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力ファイルパスがnullです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力パスファイルが存在しません。入力ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力ファイルの読み込みに失敗しました。入力ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力ファイルから対象パスを設定に失敗しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行が成功しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行中に例外が発生しました。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -549,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -567,13 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4741,7 +4783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -4760,11 +4802,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
@@ -4788,29 +4830,29 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>12000</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="12" t="str">
-        <f t="shared" ref="D3:D21" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+      <c r="D3" s="10" t="str">
+        <f t="shared" ref="D3:D25" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN12000=一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8">
-        <f t="shared" ref="A4:A48" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A57" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>12001</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="12" t="str">
+      <c r="D4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12001=テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0}]</v>
       </c>
@@ -4820,13 +4862,13 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>12002</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12002=テンプレートの動的変換ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -4836,13 +4878,13 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>12003</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12003=入力ファイルを処理し、テンプレートに基づいて出力を生成中にエラーが発生しました。入力ファイルパス=[{0}]、出力ファイルパス=[{1}]、テンプレートファイルパス=[{2}]</v>
       </c>
@@ -4852,303 +4894,303 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
+        <v>12004</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_GEN12004=入力ファイルパスがnullです。</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
+        <v>12005</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_GEN12005=入力パスファイルが存在しません。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>12006</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_GEN12006=入力ファイルの読み込みに失敗しました。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
         <v>13000</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="14">
+    <row r="11" spans="1:4">
+      <c r="A11" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
         <v>13001</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}], テンプレートパス：[{1}], 出力ファイルパス=[{2}]</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="14">
+    <row r="12" spans="1:4">
+      <c r="A12" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
         <v>13002</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13002=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="14">
+    <row r="13" spans="1:4">
+      <c r="A13" s="8">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
         <v>13003</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="12" t="str">
+      <c r="D13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13003=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="14">
+    <row r="14" spans="1:4">
+      <c r="A14" s="8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
         <v>13004</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13004=CSVの列が不足しています。入力ファイルパス: [{0}], プレースホルダーキー: [{1}], 列: [{2}] 番目</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="36">
-      <c r="A12" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="15">
+    <row r="15" spans="1:4" ht="36">
+      <c r="A15" s="8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="13">
         <v>13005</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13005=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="36">
-      <c r="A13" s="8">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="15">
+    <row r="16" spans="1:4" ht="36">
+      <c r="A16" s="8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="13">
         <v>13006</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13006=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="36">
-      <c r="A14" s="8">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="15">
+    <row r="17" spans="1:4" ht="36">
+      <c r="A17" s="8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="13">
         <v>13007</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="12" t="str">
+      <c r="D17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13007=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36">
-      <c r="A15" s="8">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="15">
+    <row r="18" spans="1:4" ht="36">
+      <c r="A18" s="8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="13">
         <v>13008</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="12" t="str">
+      <c r="D18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13008=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="14">
+    <row r="19" spans="1:4">
+      <c r="A19" s="8">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="12">
         <v>31000</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="12" t="str">
+      <c r="D19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="14">
+    <row r="20" spans="1:4">
+      <c r="A20" s="8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
         <v>31001</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="12" t="str">
+      <c r="D20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="14">
+    <row r="21" spans="1:4">
+      <c r="A21" s="8">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
         <v>31002</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="12" t="str">
+      <c r="D21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="14">
+    <row r="22" spans="1:4">
+      <c r="A22" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="12">
         <v>31003</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="12" t="str">
+      <c r="D22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="36">
-      <c r="A20" s="8">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="14">
+    <row r="23" spans="1:4" ht="36">
+      <c r="A23" s="8">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="12">
         <v>31004</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="12" t="str">
+      <c r="D23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="36">
-      <c r="A21" s="8">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="14">
+    <row r="24" spans="1:4" ht="36">
+      <c r="A24" s="8">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="12">
         <v>31005</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="12" t="str">
+      <c r="D24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31005=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="15">
-        <v>31007</v>
-      </c>
-      <c r="C22" s="8" t="s">
+    <row r="25" spans="1:4" ht="36">
+      <c r="A25" s="8">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D22" s="12" t="str">
-        <f t="shared" ref="D22:D29" si="2">IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
-        <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="36">
-      <c r="A23" s="8">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="15">
-        <v>31010</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="15">
-        <v>32000</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="8">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="15">
-        <v>32001</v>
+      <c r="B25" s="12">
+        <v>31006</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+        <v>62</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_GEN31006=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5156,31 +5198,31 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="15">
-        <v>32002</v>
+      <c r="B26" s="13">
+        <v>31007</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="D26" s="10" t="str">
+        <f t="shared" ref="D26:D35" si="2">IF(C26="","",$D$1&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
+        <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="36">
       <c r="A27" s="8">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="15">
-        <v>32003</v>
+      <c r="B27" s="13">
+        <v>31010</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
+        <v>50</v>
+      </c>
+      <c r="D27" s="10" t="str">
+        <f t="shared" ref="D27:D50" si="3">IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
+        <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5188,15 +5230,15 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="15">
-        <v>32004</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32004=項目がnullです。</v>
+      <c r="B28" s="13">
+        <v>32000</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5204,15 +5246,15 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="15">
-        <v>32005</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
+      <c r="B29" s="13">
+        <v>32001</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5220,15 +5262,15 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="15">
-        <v>32006</v>
+      <c r="B30" s="13">
+        <v>32002</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="12" t="str">
-        <f t="shared" ref="D30:D31" si="3">IF(C30="","",$D$1&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
-        <v>KMGTOOL_GEN32006=コメントがnullです。</v>
+        <v>19</v>
+      </c>
+      <c r="D30" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5236,95 +5278,95 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="13">
+        <v>32003</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="13">
+        <v>32004</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32004=項目がnullです。</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="13">
+        <v>32005</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="13">
+        <v>32006</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32006=コメントがnullです。</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="13">
         <v>32007</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="12" t="str">
+      <c r="D35" s="10" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32007=フィールドがnullです。</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="8">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="15">
-        <v>32008</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="12" t="str">
-        <f t="shared" ref="D32:D37" si="4">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
-        <v>KMGTOOL_GEN32008=型がnullです。</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="8">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="15">
-        <v>32009</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="8">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="9">
-        <v>32010</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN32010=項目名がnullです。</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="8">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="11">
-        <v>41000</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
-      </c>
-    </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="11">
-        <v>41001</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+      <c r="B36" s="13">
+        <v>32008</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32008=型がnullです。</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5332,15 +5374,15 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="11">
-        <v>41002</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+      <c r="B37" s="13">
+        <v>32009</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5348,11 +5390,15 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="12" t="str">
-        <f t="shared" ref="D38:D41" si="5">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
-        <v/>
+      <c r="B38" s="13">
+        <v>32010</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32010=項目名がnullです。</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5360,11 +5406,15 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="B39" s="13">
+        <v>32011</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32011=Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5372,11 +5422,15 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="B40" s="13">
+        <v>32012</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32012=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5384,11 +5438,15 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="B41" s="13">
+        <v>32013</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32013=Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5396,11 +5454,15 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="12" t="str">
-        <f t="shared" ref="D42:D46" si="6">IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
-        <v/>
+      <c r="B42" s="12">
+        <v>41000</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5408,11 +5470,15 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="B43" s="12">
+        <v>41001</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5420,11 +5486,15 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="B44" s="12">
+        <v>41002</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5432,11 +5502,15 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="B45" s="12">
+        <v>41003</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5444,11 +5518,15 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="B46" s="12">
+        <v>41004</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41004=実行が成功しました。</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5456,11 +5534,15 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="12" t="str">
-        <f t="shared" ref="D47:D48" si="7">IF(C47="","",$D$1&amp;TEXT(B47,"00000")&amp;"="&amp;C47)</f>
-        <v/>
+      <c r="B47" s="12">
+        <v>41005</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5468,10 +5550,118 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="12" t="str">
-        <f t="shared" si="7"/>
+      <c r="D48" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="10" t="str">
+        <f t="shared" ref="D51:D55" si="4">IF(C51="","",$D$1&amp;TEXT(B51,"00000")&amp;"="&amp;C51)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="8">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="8">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="8">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="10" t="str">
+        <f t="shared" ref="D56:D57" si="5">IF(C56="","",$D$1&amp;TEXT(B56,"00000")&amp;"="&amp;C56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="8">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="10" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5506,11 +5696,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
@@ -5534,7 +5724,7 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>12000</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5550,7 +5740,7 @@
         <f t="shared" ref="A4:A42" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>12002</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -5566,7 +5756,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>12004</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -5582,7 +5772,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>12006</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -5630,10 +5820,10 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>31000</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="4" t="str">
@@ -5646,7 +5836,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>31001</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -5662,13 +5852,13 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>31002</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="19" t="str">
+      <c r="D11" s="17" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
       </c>
@@ -5678,7 +5868,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>31003</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -5694,7 +5884,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>31004</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -5710,7 +5900,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>31005</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -5726,7 +5916,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>31006</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -5742,7 +5932,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <v>31007</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -5758,7 +5948,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>31008</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -5774,7 +5964,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>31009</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5790,7 +5980,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>31010</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -5806,7 +5996,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <v>31011</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -5822,7 +6012,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>31012</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5838,7 +6028,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <v>31013</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -5854,7 +6044,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <v>31014</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5870,7 +6060,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="14">
         <v>31015</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -5886,7 +6076,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <v>31016</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -5902,7 +6092,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <v>31017</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -5918,7 +6108,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="14">
         <v>31018</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -5934,15 +6124,15 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="16">
-        <v>32005</v>
+      <c r="B28" s="14">
+        <v>31019</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D28" s="4" t="str">
-        <f>IF(C28="","",$D$1&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
-        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
+        <f t="shared" ref="D28:D31" si="5">IF(C28="","",$D$1&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
+        <v>KMGTOOL_LOG31019=Javadocタグ設定処理を開始します。</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5950,15 +6140,15 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="16">
-        <v>41000</v>
+      <c r="B29" s="14">
+        <v>31020</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D29" s="4" t="str">
-        <f t="shared" ref="D29" si="5">IF(C29="","",$D$1&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <f t="shared" si="5"/>
+        <v>KMGTOOL_LOG31020=Javadocタグ設定処理を終了します。\n読み込みファイル数:[{0}]\n最終合計行数:[{1}]</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5966,15 +6156,15 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="16">
-        <v>41001</v>
+      <c r="B30" s="14">
+        <v>32005</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4" t="str">
         <f>IF(C30="","",$D$1&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5982,15 +6172,15 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="16">
-        <v>41002</v>
+      <c r="B31" s="14">
+        <v>41000</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" s="4" t="str">
-        <f>IF(C31="","",$D$1&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+        <f t="shared" ref="D31" si="6">IF(C31="","",$D$1&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5998,11 +6188,15 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="14">
+        <v>41001</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D32" s="4" t="str">
         <f>IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
-        <v/>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6010,11 +6204,15 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="14">
+        <v>41002</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D33" s="4" t="str">
         <f>IF(C33="","",$D$1&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
-        <v/>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6025,7 +6223,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D34:D36" si="7">IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
         <v/>
       </c>
     </row>
@@ -6037,7 +6235,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6049,7 +6247,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB55891F-4C23-4D29-BF03-F8CA097EABC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73C8892-6AC5-4F15-9B57-FAB1F6643681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -244,10 +244,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クリア処理中にエラーが発生しました。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -341,19 +337,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}], テンプレートパス：[{1}], 出力ファイルパス=[{2}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CSVの列が不足しています。入力ファイルパス: [{0}], プレースホルダーキー: [{1}], 列: [{2}] 番目</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -475,6 +463,27 @@
   <si>
     <t>実行中に例外が発生しました。</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</t>
+  </si>
+  <si>
+    <t>タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</t>
+  </si>
+  <si>
+    <t>タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</t>
+  </si>
+  <si>
+    <t>タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</t>
+  </si>
+  <si>
+    <t>タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</t>
+  </si>
+  <si>
+    <t>出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}]、 テンプレートパス：[{1}]、 出力ファイルパス=[{2}]</t>
+  </si>
+  <si>
+    <t>CSVの列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</t>
   </si>
 </sst>
 </file>
@@ -601,8 +610,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -630,14 +637,28 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4783,7 +4804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -4794,873 +4815,853 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.9140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="4.75" style="7"/>
+    <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.9140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="4.75" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>12000</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="10" t="str">
+      <c r="C3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="8" t="str">
         <f t="shared" ref="D3:D25" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN12000=一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8">
-        <f t="shared" ref="A4:A57" si="1">ROW()-2</f>
+      <c r="A4" s="6">
+        <f t="shared" ref="A4:A54" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>12001</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="10" t="str">
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12001=テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0}]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>12002</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="10" t="str">
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12002=テンプレートの動的変換ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>12003</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="10" t="str">
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12003=入力ファイルを処理し、テンプレートに基づいて出力を生成中にエラーが発生しました。入力ファイルパス=[{0}]、出力ファイルパス=[{1}]、テンプレートファイルパス=[{2}]</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>12004</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="10" t="str">
+      <c r="C7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12004=入力ファイルパスがnullです。</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>12005</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="10" t="str">
+      <c r="C8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12005=入力パスファイルが存在しません。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>12006</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="10" t="str">
+      <c r="C9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12006=入力ファイルの読み込みに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>13000</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="10" t="str">
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>13001</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="10" t="str">
+      <c r="C11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}], テンプレートパス：[{1}], 出力ファイルパス=[{2}]</v>
+        <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}]、 テンプレートパス：[{1}]、 出力ファイルパス=[{2}]</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>13002</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="10" t="str">
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13002=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>13003</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="10" t="str">
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13003=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>13004</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="10" t="str">
+      <c r="C14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN13004=CSVの列が不足しています。入力ファイルパス: [{0}], プレースホルダーキー: [{1}], 列: [{2}] 番目</v>
+        <v>KMGTOOL_GEN13004=CSVの列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="36">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>13005</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="10" t="str">
+      <c r="D15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13005=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="36">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>13006</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="10" t="str">
+      <c r="D16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13006=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="36">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>13007</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="10" t="str">
+      <c r="D17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13007=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="36">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>13008</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="10" t="str">
+      <c r="D18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13008=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>31000</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="10" t="str">
+      <c r="D19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>31001</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="10" t="str">
+      <c r="D20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>31002</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="10" t="str">
+      <c r="D21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>31003</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="10" t="str">
+      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="36">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>31004</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="10" t="str">
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="36">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>31005</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="10" t="str">
+      <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31005=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="36">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <v>31006</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="10" t="str">
+      <c r="C25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31006=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="11">
         <v>31007</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="10" t="str">
-        <f t="shared" ref="D26:D35" si="2">IF(C26="","",$D$1&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
+      <c r="D26" s="8" t="str">
+        <f t="shared" ref="D26" si="2">IF(C26="","",$D$1&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
         <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="36">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="11">
         <v>31010</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="10" t="str">
-        <f t="shared" ref="D27:D50" si="3">IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
+      <c r="C27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f t="shared" ref="D27:D31" si="3">IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
         <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8">
+    <row r="28" spans="1:4" ht="36">
+      <c r="A28" s="6">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="13">
-        <v>32000</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="10" t="str">
+      <c r="B28" s="11">
+        <v>31011</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8">
+        <v>KMGTOOL_GEN31011=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="36">
+      <c r="A29" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="13">
-        <v>32001</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="10" t="str">
+      <c r="B29" s="11">
+        <v>31012</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="8">
+        <v>KMGTOOL_GEN31012=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="72">
+      <c r="A30" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="13">
-        <v>32002</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="10" t="str">
+      <c r="B30" s="11">
+        <v>31013</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="8">
+        <v>KMGTOOL_GEN31013=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="72">
+      <c r="A31" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="13">
-        <v>32003</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="10" t="str">
+      <c r="B31" s="11">
+        <v>31014</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
+        <v>KMGTOOL_GEN31014=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="13">
-        <v>32004</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32004=項目がnullです。</v>
+      <c r="B32" s="11">
+        <v>32000</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="8" t="str">
+        <f t="shared" ref="D32:D52" si="4">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8">
+      <c r="A33" s="6">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="13">
-        <v>32005</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
+      <c r="B33" s="11">
+        <v>32001</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8">
+      <c r="A34" s="6">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="13">
-        <v>32006</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32006=コメントがnullです。</v>
+      <c r="B34" s="11">
+        <v>32002</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8">
+      <c r="A35" s="6">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="13">
-        <v>32007</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32007=フィールドがnullです。</v>
+      <c r="B35" s="11">
+        <v>32003</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8">
+      <c r="A36" s="6">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="13">
-        <v>32008</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32008=型がnullです。</v>
+      <c r="B36" s="11">
+        <v>32004</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32004=項目がnullです。</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8">
+      <c r="A37" s="6">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="13">
-        <v>32009</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
+      <c r="B37" s="11">
+        <v>32005</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="13">
-        <v>32010</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32010=項目名がnullです。</v>
+      <c r="B38" s="11">
+        <v>32006</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32006=コメントがnullです。</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8">
+      <c r="A39" s="6">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="13">
-        <v>32011</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32011=Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</v>
+      <c r="B39" s="11">
+        <v>32007</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32007=フィールドがnullです。</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8">
+      <c r="A40" s="6">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="13">
-        <v>32012</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32012=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
+      <c r="B40" s="11">
+        <v>32008</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32008=型がnullです。</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8">
+      <c r="A41" s="6">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="13">
-        <v>32013</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN32013=Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
+      <c r="B41" s="11">
+        <v>32009</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8">
+      <c r="A42" s="6">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="12">
-        <v>41000</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
+      <c r="B42" s="11">
+        <v>32010</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32010=項目名がnullです。</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8">
+      <c r="A43" s="6">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="12">
-        <v>41001</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+      <c r="B43" s="11">
+        <v>32011</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32011=Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8">
+      <c r="A44" s="6">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="12">
-        <v>41002</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+      <c r="B44" s="11">
+        <v>32012</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32012=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8">
+      <c r="A45" s="6">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="12">
-        <v>41003</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
+      <c r="B45" s="11">
+        <v>32013</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN32013=Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8">
+      <c r="A46" s="6">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="12">
-        <v>41004</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41004=実行が成功しました。</v>
+      <c r="B46" s="10">
+        <v>41000</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8">
+      <c r="A47" s="6">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="12">
-        <v>41005</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
+      <c r="B47" s="10">
+        <v>41001</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8">
+      <c r="A48" s="6">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B48" s="10">
+        <v>41002</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8">
+      <c r="A49" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B49" s="10">
+        <v>41003</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8">
+      <c r="A50" s="6">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B50" s="10">
+        <v>41004</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN41004=実行が成功しました。</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8">
+      <c r="A51" s="6">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="10" t="str">
-        <f t="shared" ref="D51:D55" si="4">IF(C51="","",$D$1&amp;TEXT(B51,"00000")&amp;"="&amp;C51)</f>
-        <v/>
+      <c r="B51" s="10">
+        <v>41005</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8">
+      <c r="A52" s="6">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="10" t="str">
+      <c r="B52" s="9"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8">
+      <c r="A53" s="6">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="8" t="str">
+        <f t="shared" ref="D53:D54" si="5">IF(C53="","",$D$1&amp;TEXT(B53,"00000")&amp;"="&amp;C53)</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8">
+      <c r="A54" s="6">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="8">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="8">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="10" t="str">
-        <f t="shared" ref="D56:D57" si="5">IF(C56="","",$D$1&amp;TEXT(B56,"00000")&amp;"="&amp;C56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="8">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="10" t="str">
+      <c r="B54" s="9"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5689,637 +5690,653 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.08203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>12000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7">
+        <f t="shared" ref="A4:A42" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="16">
+        <v>12002</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="4" t="str">
-        <f t="shared" ref="D3:D42" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A42" si="1">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="15">
-        <v>12002</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="8" t="str">
+        <f>IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
+        <v>KMGTOOL_LOG12002=テンプレートの動的変換処理を終了します。</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG12002=テンプレートの動的変換処理を終了します。</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>12004</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" ref="D5:D11" si="2">IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
+      <c r="D5" s="8" t="str">
+        <f>IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
         <v>KMGTOOL_LOG12004=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <f t="shared" si="1"/>
+      <c r="A6" s="7">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>12006</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="C6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f>IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
         <v>KMGTOOL_LOG12006=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <f t="shared" si="1"/>
+      <c r="A7" s="7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>13000</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f>IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
+        <v>KMGTOOL_LOG13000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>13001</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG13000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>13001</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="D8" s="8" t="str">
+        <f>IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
         <v>KMGTOOL_LOG13001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <f t="shared" si="1"/>
+      <c r="A9" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="10">
         <v>31000</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f>IF(C9="","",$D$1&amp;TEXT(B9,"00000")&amp;"="&amp;C9)</f>
+        <v>KMGTOOL_LOG31000=クリア処理中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>31001</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f>IF(C10="","",$D$1&amp;TEXT(B10,"00000")&amp;"="&amp;C10)</f>
+        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>31002</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f>IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
+        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>31003</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f>IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
+        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>31004</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31000=クリア処理中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="14">
-        <v>31001</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D13" s="8" t="str">
+        <f>IF(C13="","",$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
+        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>31005</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
+        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>31006</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
+        <v>KMGTOOL_LOG31006=カラムの追加中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>31007</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f>IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <v>KMGTOOL_LOG31007=1行データの読み込み中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <v>31008</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f>IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
+        <v>KMGTOOL_LOG31008=カラムの追加中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>31009</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="str">
+        <f>IF(C18="","",$D$1&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
+        <v>KMGTOOL_LOG31009=1行データの読み込み中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
+        <v>31010</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="14">
-        <v>31002</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D19" s="8" t="str">
+        <f>IF(C19="","",$D$1&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
+        <v>KMGTOOL_LOG31010=CSVファイルに書き込み中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>31011</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f>IF(C20="","",$D$1&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
+        <v>KMGTOOL_LOG31011=CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>31012</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f>IF(C21="","",$D$1&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
+        <v>KMGTOOL_LOG31012=CSVファイルに書き込み中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="10">
+        <v>31013</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="14">
-        <v>31003</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D22" s="8" t="str">
+        <f>IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
+        <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="10">
+        <v>31014</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="str">
-        <f t="shared" ref="D12:D18" si="3">IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
-        <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="14">
-        <v>31004</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D23" s="8" t="str">
+        <f>IF(C23="","",$D$1&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
+        <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>31015</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="14">
-        <v>31005</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="14">
-        <v>31006</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31006=カラムの追加中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="14">
-        <v>31007</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31007=1行データの読み込み中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="14">
-        <v>31008</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31008=カラムの追加中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="14">
-        <v>31009</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_LOG31009=1行データの読み込み中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="14">
-        <v>31010</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="4" t="str">
-        <f t="shared" ref="D19:D23" si="4">IF(C19="","",$D$1&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
-        <v>KMGTOOL_LOG31010=CSVファイルに書き込み中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="14">
-        <v>31011</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_LOG31011=CSVファイルに書き込み完了。名称=[{0}], 項目名=[{1}]</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="14">
-        <v>31012</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_LOG31012=CSVファイルに書き込み中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="14">
-        <v>31013</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="14">
-        <v>31014</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="14">
-        <v>31015</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="8" t="str">
         <f>IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
         <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <f t="shared" si="1"/>
+      <c r="A25" s="7">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="10">
         <v>31016</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="D25" s="8" t="str">
         <f>IF(C25="","",$D$1&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
         <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <f t="shared" si="1"/>
+      <c r="A26" s="7">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="10">
         <v>31017</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="4" t="str">
+      <c r="C26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="8" t="str">
         <f>IF(C26="","",$D$1&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
         <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <f t="shared" si="1"/>
+      <c r="A27" s="7">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="10">
         <v>31018</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="4" t="str">
+      <c r="C27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="8" t="str">
         <f>IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
         <v>KMGTOOL_LOG31018=CSVファイルに書き込み完了。コメント=[{0}]</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1">
+      <c r="A28" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="10">
+        <v>31019</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="8" t="str">
+        <f>IF(C28="","",$D$1&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
+        <v>KMGTOOL_LOG31019=Javadocタグ設定処理を開始します。</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="10">
+        <v>31020</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f>IF(C29="","",$D$1&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
+        <v>KMGTOOL_LOG31020=Javadocタグ設定処理を終了します。\n読み込みファイル数:[{0}]\n最終合計行数:[{1}]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="10">
+        <v>31021</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f>IF(C30="","",$D$1&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
+        <v>KMGTOOL_LOG31021=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="10">
+        <v>31022</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="8" t="str">
+        <f>IF(C31="","",$D$1&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
+        <v>KMGTOOL_LOG31022=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="10">
+        <v>31023</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="8" t="str">
+        <f>IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <v>KMGTOOL_LOG31023=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="10">
+        <v>31024</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="8" t="str">
+        <f>IF(C33="","",$D$1&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
+        <v>KMGTOOL_LOG31024=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="10">
+        <v>32005</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="8" t="str">
+        <f>IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
+        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="10">
+        <v>41000</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="8" t="str">
+        <f>IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="10">
+        <v>41001</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="8" t="str">
+        <f>IF(C36="","",$D$1&amp;TEXT(B36,"00000")&amp;"="&amp;C36)</f>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="10">
+        <v>41002</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="8" t="str">
+        <f>IF(C37="","",$D$1&amp;TEXT(B37,"00000")&amp;"="&amp;C37)</f>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8" t="str">
+        <f t="shared" ref="D3:D42" si="1">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="14">
-        <v>31019</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <f t="shared" ref="D28:D31" si="5">IF(C28="","",$D$1&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
-        <v>KMGTOOL_LOG31019=Javadocタグ設定処理を開始します。</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="14">
-        <v>31020</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KMGTOOL_LOG31020=Javadocタグ設定処理を終了します。\n読み込みファイル数:[{0}]\n最終合計行数:[{1}]</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="14">
-        <v>32005</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="4" t="str">
-        <f>IF(C30="","",$D$1&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
-        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="14">
-        <v>41000</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="4" t="str">
-        <f t="shared" ref="D31" si="6">IF(C31="","",$D$1&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="14">
-        <v>41001</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="4" t="str">
-        <f>IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="14">
-        <v>41002</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="4" t="str">
-        <f>IF(C33="","",$D$1&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="4" t="str">
-        <f t="shared" ref="D34:D36" si="7">IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="4" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73C8892-6AC5-4F15-9B57-FAB1F6643681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4485BA69-76EC-4CEF-A292-C24FEAA5C35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -433,10 +433,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Javadocタグ設定処理を終了します。\n読み込みファイル数:[{0}]\n最終合計行数:[{1}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -484,6 +480,16 @@
   </si>
   <si>
     <t>CSVの列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</t>
+  </si>
+  <si>
+    <t>Javadocタグ設定処理を終了します。\n読み込みファイル数:[{0}]\n合計置換数:[{1}]</t>
+    <rPh sb="39" eb="41">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>チカンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -637,12 +643,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -659,6 +659,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4823,11 +4829,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
@@ -4919,7 +4925,7 @@
         <v>12004</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4935,7 +4941,7 @@
         <v>12005</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4951,7 +4957,7 @@
         <v>12006</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4983,7 +4989,7 @@
         <v>13001</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5031,7 +5037,7 @@
         <v>13004</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5207,7 +5213,7 @@
         <v>31006</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5255,14 +5261,14 @@
         <v>31011</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="8" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31011=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="36">
+    <row r="29" spans="1:4" ht="54">
       <c r="A29" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -5271,7 +5277,7 @@
         <v>31012</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="8" t="str">
         <f t="shared" si="3"/>
@@ -5287,7 +5293,7 @@
         <v>31013</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="8" t="str">
         <f t="shared" si="3"/>
@@ -5303,7 +5309,7 @@
         <v>31014</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="8" t="str">
         <f t="shared" si="3"/>
@@ -5591,7 +5597,7 @@
         <v>41003</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" s="8" t="str">
         <f t="shared" si="4"/>
@@ -5607,7 +5613,7 @@
         <v>41004</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" s="8" t="str">
         <f t="shared" si="4"/>
@@ -5623,7 +5629,7 @@
         <v>41005</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" s="8" t="str">
         <f t="shared" si="4"/>
@@ -5690,33 +5696,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.08203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.08203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5725,68 +5731,68 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>12000</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="8" t="str">
-        <f>IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D37" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7">
-        <f t="shared" ref="A4:A42" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A42" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>12002</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="8" t="str">
-        <f>IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG12002=テンプレートの動的変換処理を終了します。</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>12004</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="8" t="str">
-        <f>IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG12004=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>12006</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="8" t="str">
-        <f>IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG12006=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="7">
@@ -5796,13 +5802,13 @@
         <v>32</v>
       </c>
       <c r="D7" s="8" t="str">
-        <f>IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="7">
@@ -5812,29 +5818,29 @@
         <v>33</v>
       </c>
       <c r="D8" s="8" t="str">
-        <f>IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="10">
         <v>31000</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="8" t="str">
-        <f>IF(C9="","",$D$1&amp;TEXT(B9,"00000")&amp;"="&amp;C9)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31000=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="10">
@@ -5844,29 +5850,29 @@
         <v>27</v>
       </c>
       <c r="D10" s="8" t="str">
-        <f>IF(C10="","",$D$1&amp;TEXT(B10,"00000")&amp;"="&amp;C10)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="10">
         <v>31002</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="18" t="str">
-        <f>IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
+        <v>65</v>
+      </c>
+      <c r="D11" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="10">
@@ -5876,13 +5882,13 @@
         <v>28</v>
       </c>
       <c r="D12" s="8" t="str">
-        <f>IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="10">
@@ -5892,13 +5898,13 @@
         <v>29</v>
       </c>
       <c r="D13" s="8" t="str">
-        <f>IF(C13="","",$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="10">
@@ -5908,13 +5914,13 @@
         <v>30</v>
       </c>
       <c r="D14" s="8" t="str">
-        <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="10">
@@ -5924,13 +5930,13 @@
         <v>29</v>
       </c>
       <c r="D15" s="8" t="str">
-        <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31006=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="10">
@@ -5940,13 +5946,13 @@
         <v>30</v>
       </c>
       <c r="D16" s="8" t="str">
-        <f>IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31007=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="10">
@@ -5956,13 +5962,13 @@
         <v>29</v>
       </c>
       <c r="D17" s="8" t="str">
-        <f>IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31008=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="10">
@@ -5972,13 +5978,13 @@
         <v>30</v>
       </c>
       <c r="D18" s="8" t="str">
-        <f>IF(C18="","",$D$1&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31009=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="10">
@@ -5988,29 +5994,29 @@
         <v>27</v>
       </c>
       <c r="D19" s="8" t="str">
-        <f>IF(C19="","",$D$1&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31010=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="10">
         <v>31011</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8" t="str">
-        <f>IF(C20="","",$D$1&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31011=CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="10">
@@ -6020,13 +6026,13 @@
         <v>27</v>
       </c>
       <c r="D21" s="8" t="str">
-        <f>IF(C21="","",$D$1&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31012=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="10">
@@ -6036,13 +6042,13 @@
         <v>28</v>
       </c>
       <c r="D22" s="8" t="str">
-        <f>IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="10">
@@ -6052,13 +6058,13 @@
         <v>29</v>
       </c>
       <c r="D23" s="8" t="str">
-        <f>IF(C23="","",$D$1&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="10">
@@ -6068,13 +6074,13 @@
         <v>30</v>
       </c>
       <c r="D24" s="8" t="str">
-        <f>IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="10">
@@ -6084,13 +6090,13 @@
         <v>27</v>
       </c>
       <c r="D25" s="8" t="str">
-        <f>IF(C25="","",$D$1&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="10">
@@ -6100,13 +6106,13 @@
         <v>46</v>
       </c>
       <c r="D26" s="8" t="str">
-        <f>IF(C26="","",$D$1&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="10">
@@ -6116,13 +6122,13 @@
         <v>52</v>
       </c>
       <c r="D27" s="8" t="str">
-        <f>IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31018=CSVファイルに書き込み完了。コメント=[{0}]</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="10">
@@ -6132,93 +6138,93 @@
         <v>57</v>
       </c>
       <c r="D28" s="8" t="str">
-        <f>IF(C28="","",$D$1&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31019=Javadocタグ設定処理を開始します。</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="10">
         <v>31020</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D29" s="8" t="str">
-        <f>IF(C29="","",$D$1&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
-        <v>KMGTOOL_LOG31020=Javadocタグ設定処理を終了します。\n読み込みファイル数:[{0}]\n最終合計行数:[{1}]</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG31020=Javadocタグ設定処理を終了します。\n読み込みファイル数:[{0}]\n合計置換数:[{1}]</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="10">
         <v>31021</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="8" t="str">
-        <f>IF(C30="","",$D$1&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31021=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="10">
         <v>31022</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="8" t="str">
-        <f>IF(C31="","",$D$1&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31022=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="10">
         <v>31023</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="8" t="str">
-        <f>IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31023=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="10">
         <v>31024</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="8" t="str">
-        <f>IF(C33="","",$D$1&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31024=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="10">
@@ -6228,13 +6234,13 @@
         <v>28</v>
       </c>
       <c r="D34" s="8" t="str">
-        <f>IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="10">
@@ -6244,13 +6250,13 @@
         <v>12</v>
       </c>
       <c r="D35" s="8" t="str">
-        <f>IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="10">
@@ -6260,13 +6266,13 @@
         <v>12</v>
       </c>
       <c r="D36" s="8" t="str">
-        <f>IF(C36="","",$D$1&amp;TEXT(B36,"00000")&amp;"="&amp;C36)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="10">
@@ -6276,67 +6282,67 @@
         <v>15</v>
       </c>
       <c r="D37" s="8" t="str">
-        <f>IF(C37="","",$D$1&amp;TEXT(B37,"00000")&amp;"="&amp;C37)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8" t="str">
-        <f t="shared" ref="D3:D42" si="1">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
+        <f t="shared" ref="D38:D42" si="2">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4485BA69-76EC-4CEF-A292-C24FEAA5C35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2745DD0F-46CE-43A1-983C-0B29CA21C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -482,11 +482,11 @@
     <t>CSVの列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</t>
   </si>
   <si>
-    <t>Javadocタグ設定処理を終了します。\n読み込みファイル数:[{0}]\n合計置換数:[{1}]</t>
-    <rPh sb="39" eb="41">
+    <t>Javadocタグ設定処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</t>
+    <rPh sb="36" eb="38">
       <t>ゴウケイ</t>
     </rPh>
-    <rPh sb="41" eb="44">
+    <rPh sb="38" eb="41">
       <t>チカンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -612,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -631,9 +631,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -643,19 +640,10 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -666,6 +654,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4829,11 +4826,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
@@ -4852,66 +4849,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="36">
       <c r="A3" s="6">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>12000</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="16" t="str">
         <f t="shared" ref="D3:D25" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN12000=一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="36">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A54" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>12001</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="8" t="str">
+      <c r="D4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12001=テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0}]</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="36">
       <c r="A5" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>12002</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="8" t="str">
+      <c r="D5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12002=テンプレートの動的変換ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="54">
       <c r="A6" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>12003</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="8" t="str">
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12003=入力ファイルを処理し、テンプレートに基づいて出力を生成中にエラーが発生しました。入力ファイルパス=[{0}]、出力ファイルパス=[{1}]、テンプレートファイルパス=[{2}]</v>
       </c>
@@ -4921,13 +4918,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>12004</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="8" t="str">
+      <c r="D7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12004=入力ファイルパスがnullです。</v>
       </c>
@@ -4937,109 +4934,109 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>12005</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12005=入力パスファイルが存在しません。入力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="36">
       <c r="A9" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>12006</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="8" t="str">
+      <c r="D9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12006=入力ファイルの読み込みに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="36">
       <c r="A10" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>13000</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="8" t="str">
+      <c r="D10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="54">
       <c r="A11" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>13001</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="8" t="str">
+      <c r="D11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}]、 テンプレートパス：[{1}]、 出力ファイルパス=[{2}]</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="36">
       <c r="A12" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>13002</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13002=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="36">
       <c r="A13" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>13003</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13003=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="36">
       <c r="A14" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>13004</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="D14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13004=CSVの列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</v>
       </c>
@@ -5049,13 +5046,13 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>13005</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="8" t="str">
+      <c r="D15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13005=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
@@ -5065,13 +5062,13 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>13006</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="8" t="str">
+      <c r="D16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13006=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
@@ -5081,13 +5078,13 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>13007</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="8" t="str">
+      <c r="D17" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13007=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
@@ -5097,13 +5094,13 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>13008</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="8" t="str">
+      <c r="D18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13008=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
@@ -5113,13 +5110,13 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>31000</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="8" t="str">
+      <c r="D19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
@@ -5129,45 +5126,45 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>31001</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="8" t="str">
+      <c r="D20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="36">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>31002</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="8" t="str">
+      <c r="D21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="36">
       <c r="A22" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>31003</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -5177,13 +5174,13 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>31004</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="8" t="str">
+      <c r="D23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -5193,13 +5190,13 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>31005</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="8" t="str">
+      <c r="D24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31005=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -5209,13 +5206,13 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>31006</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="8" t="str">
+      <c r="D25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31006=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
       </c>
@@ -5225,13 +5222,13 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>31007</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="8" t="str">
+      <c r="D26" s="16" t="str">
         <f t="shared" ref="D26" si="2">IF(C26="","",$D$1&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
         <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
       </c>
@@ -5241,13 +5238,13 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>31010</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="8" t="str">
+      <c r="D27" s="16" t="str">
         <f t="shared" ref="D27:D31" si="3">IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
         <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -5257,13 +5254,13 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>31011</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="8" t="str">
+      <c r="D28" s="16" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31011=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
       </c>
@@ -5273,13 +5270,13 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>31012</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="8" t="str">
+      <c r="D29" s="16" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31012=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
       </c>
@@ -5289,13 +5286,13 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>31013</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="8" t="str">
+      <c r="D30" s="16" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31013=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
       </c>
@@ -5305,13 +5302,13 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>31014</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="8" t="str">
+      <c r="D31" s="16" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31014=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
       </c>
@@ -5321,13 +5318,13 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>32000</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="8" t="str">
+      <c r="D32" s="16" t="str">
         <f t="shared" ref="D32:D52" si="4">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
         <v>KMGTOOL_GEN32000=項目名がnullです。</v>
       </c>
@@ -5337,13 +5334,13 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>32001</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="8" t="str">
+      <c r="D33" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
@@ -5353,13 +5350,13 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>32002</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="8" t="str">
+      <c r="D34" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
@@ -5369,13 +5366,13 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>32003</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="8" t="str">
+      <c r="D35" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
@@ -5385,29 +5382,29 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>32004</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="8" t="str">
+      <c r="D36" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32004=項目がnullです。</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" ht="36">
       <c r="A37" s="6">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>32005</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="8" t="str">
+      <c r="D37" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
@@ -5417,13 +5414,13 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>32006</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="8" t="str">
+      <c r="D38" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32006=コメントがnullです。</v>
       </c>
@@ -5433,13 +5430,13 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>32007</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="8" t="str">
+      <c r="D39" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32007=フィールドがnullです。</v>
       </c>
@@ -5449,13 +5446,13 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>32008</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="8" t="str">
+      <c r="D40" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32008=型がnullです。</v>
       </c>
@@ -5465,13 +5462,13 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>32009</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="8" t="str">
+      <c r="D41" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32009=項目名がnullです。</v>
       </c>
@@ -5481,61 +5478,61 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>32010</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="8" t="str">
+      <c r="D42" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32010=項目名がnullです。</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" ht="54">
       <c r="A43" s="6">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>32011</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="8" t="str">
+      <c r="D43" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32011=Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" ht="36">
       <c r="A44" s="6">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>32012</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="8" t="str">
+      <c r="D44" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32012=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="36">
       <c r="A45" s="6">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>32013</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="8" t="str">
+      <c r="D45" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32013=Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
       </c>
@@ -5545,13 +5542,13 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>41000</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="8" t="str">
+      <c r="D46" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41000=失敗</v>
       </c>
@@ -5561,13 +5558,13 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>41001</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="8" t="str">
+      <c r="D47" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41001=成功</v>
       </c>
@@ -5577,13 +5574,13 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>41002</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="8" t="str">
+      <c r="D48" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
@@ -5593,13 +5590,13 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>41003</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="8" t="str">
+      <c r="D49" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
@@ -5609,13 +5606,13 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>41004</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="8" t="str">
+      <c r="D50" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41004=実行が成功しました。</v>
       </c>
@@ -5625,13 +5622,13 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>41005</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="8" t="str">
+      <c r="D51" s="16" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
       </c>
@@ -5641,9 +5638,9 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="9"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="8" t="str">
+      <c r="D52" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5653,9 +5650,9 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="9"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="8" t="str">
+      <c r="D53" s="16" t="str">
         <f t="shared" ref="D53:D54" si="5">IF(C53="","",$D$1&amp;TEXT(B53,"00000")&amp;"="&amp;C53)</f>
         <v/>
       </c>
@@ -5665,9 +5662,9 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="9"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="8" t="str">
+      <c r="D54" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5696,101 +5693,101 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.08203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.08203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="36">
       <c r="A3" s="7">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>12000</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="16" t="str">
         <f t="shared" ref="D3:D37" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="36">
       <c r="A4" s="7">
         <f t="shared" ref="A4:A42" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>12002</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="8" t="str">
+      <c r="D4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG12002=テンプレートの動的変換処理を終了します。</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="36">
       <c r="A5" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>12004</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="str">
+      <c r="D5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG12004=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="36">
       <c r="A6" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>12006</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="8" t="str">
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG12006=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="36">
       <c r="A7" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5798,15 +5795,15 @@
       <c r="B7" s="7">
         <v>13000</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="8" t="str">
+      <c r="D7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="36">
       <c r="A8" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5814,426 +5811,426 @@
       <c r="B8" s="7">
         <v>13001</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="36">
       <c r="A9" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>31000</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="8" t="str">
+      <c r="D9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31000=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="36">
       <c r="A10" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>31001</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="8" t="str">
+      <c r="D10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="36">
       <c r="A11" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>31002</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" s="18" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="36">
       <c r="A12" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>31003</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="36">
       <c r="A13" s="7">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>31004</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="36">
       <c r="A14" s="7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>31005</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="D14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="36">
       <c r="A15" s="7">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>31006</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="8" t="str">
+      <c r="D15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31006=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="36">
       <c r="A16" s="7">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>31007</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="8" t="str">
+      <c r="D16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31007=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="36">
       <c r="A17" s="7">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>31008</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="8" t="str">
+      <c r="D17" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31008=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="36">
       <c r="A18" s="7">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>31009</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="8" t="str">
+      <c r="D18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31009=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="36">
       <c r="A19" s="7">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>31010</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="8" t="str">
+      <c r="D19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31010=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="36">
       <c r="A20" s="7">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>31011</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="8" t="str">
+      <c r="D20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31011=CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="36">
       <c r="A21" s="7">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>31012</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="8" t="str">
+      <c r="D21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31012=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="36">
       <c r="A22" s="7">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>31013</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="36">
       <c r="A23" s="7">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>31014</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="8" t="str">
+      <c r="D23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="36">
       <c r="A24" s="7">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>31015</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="8" t="str">
+      <c r="D24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="36">
       <c r="A25" s="7">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>31016</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="8" t="str">
+      <c r="D25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="36">
       <c r="A26" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>31017</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="8" t="str">
+      <c r="D26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="36">
       <c r="A27" s="7">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>31018</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="8" t="str">
+      <c r="D27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31018=CSVファイルに書き込み完了。コメント=[{0}]</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="36">
       <c r="A28" s="7">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>31019</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="8" t="str">
+      <c r="D28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31019=Javadocタグ設定処理を開始します。</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="36">
       <c r="A29" s="7">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>31020</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="8" t="str">
+      <c r="D29" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31020=Javadocタグ設定処理を終了します。\n読み込みファイル数:[{0}]\n合計置換数:[{1}]</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>KMGTOOL_LOG31020=Javadocタグ設定処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="54">
       <c r="A30" s="7">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>31021</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="8" t="str">
+      <c r="D30" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31021=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="54">
       <c r="A31" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>31022</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="8" t="str">
+      <c r="D31" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31022=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" ht="90">
       <c r="A32" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>31023</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="8" t="str">
+      <c r="D32" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31023=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="90">
       <c r="A33" s="7">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>31024</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="8" t="str">
+      <c r="D33" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31024=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="36">
       <c r="A34" s="7">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>32005</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="8" t="str">
+      <c r="D34" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
@@ -6243,13 +6240,13 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>41000</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="8" t="str">
+      <c r="D35" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
@@ -6259,13 +6256,13 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>41001</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="8" t="str">
+      <c r="D36" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
@@ -6275,13 +6272,13 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>41002</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="8" t="str">
+      <c r="D37" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
@@ -6292,8 +6289,8 @@
         <v>36</v>
       </c>
       <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8" t="str">
+      <c r="C38" s="6"/>
+      <c r="D38" s="16" t="str">
         <f t="shared" ref="D38:D42" si="2">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
         <v/>
       </c>
@@ -6304,8 +6301,8 @@
         <v>37</v>
       </c>
       <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8" t="str">
+      <c r="C39" s="6"/>
+      <c r="D39" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6316,8 +6313,8 @@
         <v>38</v>
       </c>
       <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8" t="str">
+      <c r="C40" s="6"/>
+      <c r="D40" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6328,8 +6325,8 @@
         <v>39</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8" t="str">
+      <c r="C41" s="6"/>
+      <c r="D41" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6340,8 +6337,8 @@
         <v>40</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8" t="str">
+      <c r="C42" s="6"/>
+      <c r="D42" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2745DD0F-46CE-43A1-983C-0B29CA21C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4DAE7E-19A9-4238-AD02-64C054A1DBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -489,6 +489,14 @@
     <rPh sb="38" eb="41">
       <t>チカンスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象のファイルの処理を開始します。対象のファイルのパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象のファイルの処理を終了します。対象のファイルのパス=[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -649,12 +657,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -663,6 +665,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4826,11 +4834,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
@@ -4860,7 +4868,7 @@
       <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="16" t="str">
+      <c r="D3" s="14" t="str">
         <f t="shared" ref="D3:D25" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN12000=一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
@@ -4876,7 +4884,7 @@
       <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="16" t="str">
+      <c r="D4" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12001=テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0}]</v>
       </c>
@@ -4892,7 +4900,7 @@
       <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="16" t="str">
+      <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12002=テンプレートの動的変換ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -4908,7 +4916,7 @@
       <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="16" t="str">
+      <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12003=入力ファイルを処理し、テンプレートに基づいて出力を生成中にエラーが発生しました。入力ファイルパス=[{0}]、出力ファイルパス=[{1}]、テンプレートファイルパス=[{2}]</v>
       </c>
@@ -4924,7 +4932,7 @@
       <c r="C7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="16" t="str">
+      <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12004=入力ファイルパスがnullです。</v>
       </c>
@@ -4940,7 +4948,7 @@
       <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="16" t="str">
+      <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12005=入力パスファイルが存在しません。入力ファイルパス=[{0}]</v>
       </c>
@@ -4956,7 +4964,7 @@
       <c r="C9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="16" t="str">
+      <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN12006=入力ファイルの読み込みに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
@@ -4972,7 +4980,7 @@
       <c r="C10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
       </c>
@@ -4988,7 +4996,7 @@
       <c r="C11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}]、 テンプレートパス：[{1}]、 出力ファイルパス=[{2}]</v>
       </c>
@@ -5004,7 +5012,7 @@
       <c r="C12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13002=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
       </c>
@@ -5020,7 +5028,7 @@
       <c r="C13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13003=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
       </c>
@@ -5036,7 +5044,7 @@
       <c r="C14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="16" t="str">
+      <c r="D14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13004=CSVの列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</v>
       </c>
@@ -5052,7 +5060,7 @@
       <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="16" t="str">
+      <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13005=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
@@ -5068,7 +5076,7 @@
       <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="16" t="str">
+      <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13006=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
@@ -5084,7 +5092,7 @@
       <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="16" t="str">
+      <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13007=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
@@ -5100,7 +5108,7 @@
       <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN13008=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
@@ -5116,7 +5124,7 @@
       <c r="C19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
@@ -5132,7 +5140,7 @@
       <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
       </c>
@@ -5148,7 +5156,7 @@
       <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
@@ -5164,7 +5172,7 @@
       <c r="C22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -5180,7 +5188,7 @@
       <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -5196,7 +5204,7 @@
       <c r="C24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31005=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -5212,7 +5220,7 @@
       <c r="C25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN31006=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
       </c>
@@ -5228,7 +5236,7 @@
       <c r="C26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="14" t="str">
         <f t="shared" ref="D26" si="2">IF(C26="","",$D$1&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
         <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
       </c>
@@ -5244,7 +5252,7 @@
       <c r="C27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" s="14" t="str">
         <f t="shared" ref="D27:D31" si="3">IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
         <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -5260,7 +5268,7 @@
       <c r="C28" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31011=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
       </c>
@@ -5276,7 +5284,7 @@
       <c r="C29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="16" t="str">
+      <c r="D29" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31012=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
       </c>
@@ -5292,7 +5300,7 @@
       <c r="C30" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="16" t="str">
+      <c r="D30" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31013=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
       </c>
@@ -5308,7 +5316,7 @@
       <c r="C31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="16" t="str">
+      <c r="D31" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31014=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
       </c>
@@ -5324,7 +5332,7 @@
       <c r="C32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="16" t="str">
+      <c r="D32" s="14" t="str">
         <f t="shared" ref="D32:D52" si="4">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
         <v>KMGTOOL_GEN32000=項目名がnullです。</v>
       </c>
@@ -5340,7 +5348,7 @@
       <c r="C33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="16" t="str">
+      <c r="D33" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
@@ -5356,7 +5364,7 @@
       <c r="C34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="16" t="str">
+      <c r="D34" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
@@ -5372,7 +5380,7 @@
       <c r="C35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="16" t="str">
+      <c r="D35" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
@@ -5388,7 +5396,7 @@
       <c r="C36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="16" t="str">
+      <c r="D36" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32004=項目がnullです。</v>
       </c>
@@ -5404,7 +5412,7 @@
       <c r="C37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="16" t="str">
+      <c r="D37" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
@@ -5420,7 +5428,7 @@
       <c r="C38" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="16" t="str">
+      <c r="D38" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32006=コメントがnullです。</v>
       </c>
@@ -5436,7 +5444,7 @@
       <c r="C39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="16" t="str">
+      <c r="D39" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32007=フィールドがnullです。</v>
       </c>
@@ -5452,7 +5460,7 @@
       <c r="C40" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="16" t="str">
+      <c r="D40" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32008=型がnullです。</v>
       </c>
@@ -5468,7 +5476,7 @@
       <c r="C41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="16" t="str">
+      <c r="D41" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32009=項目名がnullです。</v>
       </c>
@@ -5484,7 +5492,7 @@
       <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="16" t="str">
+      <c r="D42" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32010=項目名がnullです。</v>
       </c>
@@ -5500,7 +5508,7 @@
       <c r="C43" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="16" t="str">
+      <c r="D43" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32011=Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</v>
       </c>
@@ -5516,7 +5524,7 @@
       <c r="C44" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="16" t="str">
+      <c r="D44" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32012=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
       </c>
@@ -5532,7 +5540,7 @@
       <c r="C45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="16" t="str">
+      <c r="D45" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN32013=Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
       </c>
@@ -5548,7 +5556,7 @@
       <c r="C46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="16" t="str">
+      <c r="D46" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41000=失敗</v>
       </c>
@@ -5564,7 +5572,7 @@
       <c r="C47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="16" t="str">
+      <c r="D47" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41001=成功</v>
       </c>
@@ -5580,7 +5588,7 @@
       <c r="C48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="16" t="str">
+      <c r="D48" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
@@ -5596,7 +5604,7 @@
       <c r="C49" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="16" t="str">
+      <c r="D49" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
@@ -5612,7 +5620,7 @@
       <c r="C50" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="16" t="str">
+      <c r="D50" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41004=実行が成功しました。</v>
       </c>
@@ -5628,7 +5636,7 @@
       <c r="C51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="16" t="str">
+      <c r="D51" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
       </c>
@@ -5640,7 +5648,7 @@
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="16" t="str">
+      <c r="D52" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5652,7 +5660,7 @@
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="16" t="str">
+      <c r="D53" s="14" t="str">
         <f t="shared" ref="D53:D54" si="5">IF(C53="","",$D$1&amp;TEXT(B53,"00000")&amp;"="&amp;C53)</f>
         <v/>
       </c>
@@ -5664,7 +5672,7 @@
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="16" t="str">
+      <c r="D54" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5682,7 +5690,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -5700,11 +5708,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
@@ -5734,14 +5742,14 @@
       <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="16" t="str">
-        <f t="shared" ref="D3:D37" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+      <c r="D3" s="14" t="str">
+        <f t="shared" ref="D3:D39" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="7">
-        <f t="shared" ref="A4:A42" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A44" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="12">
@@ -5750,7 +5758,7 @@
       <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="16" t="str">
+      <c r="D4" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG12002=テンプレートの動的変換処理を終了します。</v>
       </c>
@@ -5766,7 +5774,7 @@
       <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="16" t="str">
+      <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG12004=CSVファイルに書き込む処理を開始します。</v>
       </c>
@@ -5782,7 +5790,7 @@
       <c r="C6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="16" t="str">
+      <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG12006=CSVファイルに書き込む処理を終了します。</v>
       </c>
@@ -5798,7 +5806,7 @@
       <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="16" t="str">
+      <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
@@ -5814,7 +5822,7 @@
       <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="16" t="str">
+      <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
@@ -5827,10 +5835,10 @@
       <c r="B9" s="9">
         <v>31000</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="16" t="str">
+      <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31000=クリア処理中にエラーが発生しました。</v>
       </c>
@@ -5846,7 +5854,7 @@
       <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
@@ -5862,7 +5870,7 @@
       <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="18" t="str">
+      <c r="D11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
@@ -5878,7 +5886,7 @@
       <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
@@ -5894,7 +5902,7 @@
       <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
       </c>
@@ -5910,7 +5918,7 @@
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="16" t="str">
+      <c r="D14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
       </c>
@@ -5926,7 +5934,7 @@
       <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="16" t="str">
+      <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31006=カラムの追加中にエラーが発生しました。</v>
       </c>
@@ -5942,7 +5950,7 @@
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="16" t="str">
+      <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31007=1行データの読み込み中にエラーが発生しました。</v>
       </c>
@@ -5958,7 +5966,7 @@
       <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="16" t="str">
+      <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31008=カラムの追加中にエラーが発生しました。</v>
       </c>
@@ -5974,7 +5982,7 @@
       <c r="C18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31009=1行データの読み込み中にエラーが発生しました。</v>
       </c>
@@ -5990,7 +5998,7 @@
       <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31010=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
@@ -6006,7 +6014,7 @@
       <c r="C20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31011=CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
@@ -6022,7 +6030,7 @@
       <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31012=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
@@ -6038,7 +6046,7 @@
       <c r="C22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
       </c>
@@ -6054,7 +6062,7 @@
       <c r="C23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
       </c>
@@ -6070,7 +6078,7 @@
       <c r="C24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
       </c>
@@ -6086,7 +6094,7 @@
       <c r="C25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
@@ -6102,7 +6110,7 @@
       <c r="C26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
@@ -6118,7 +6126,7 @@
       <c r="C27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31018=CSVファイルに書き込み完了。コメント=[{0}]</v>
       </c>
@@ -6134,7 +6142,7 @@
       <c r="C28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31019=Javadocタグ設定処理を開始します。</v>
       </c>
@@ -6150,7 +6158,7 @@
       <c r="C29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="16" t="str">
+      <c r="D29" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31020=Javadocタグ設定処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
       </c>
@@ -6166,7 +6174,7 @@
       <c r="C30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="16" t="str">
+      <c r="D30" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31021=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
       </c>
@@ -6182,7 +6190,7 @@
       <c r="C31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="16" t="str">
+      <c r="D31" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31022=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
       </c>
@@ -6198,7 +6206,7 @@
       <c r="C32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="16" t="str">
+      <c r="D32" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31023=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
       </c>
@@ -6214,7 +6222,7 @@
       <c r="C33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="16" t="str">
+      <c r="D33" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31024=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
       </c>
@@ -6225,120 +6233,152 @@
         <v>32</v>
       </c>
       <c r="B34" s="9">
+        <v>31025</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG31025=対象のファイルの処理を開始します。対象のファイルのパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="36">
+      <c r="A35" s="7">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="9">
+        <v>31026</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG31026=対象のファイルの処理を終了します。対象のファイルのパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="36">
+      <c r="A36" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="9">
         <v>32005</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="16" t="str">
+      <c r="D36" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="9">
+    <row r="37" spans="1:4">
+      <c r="A37" s="7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="9">
         <v>41000</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="16" t="str">
+      <c r="D37" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="9">
+    <row r="38" spans="1:4">
+      <c r="A38" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="9">
         <v>41001</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="16" t="str">
+      <c r="D38" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="7">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="9">
+    <row r="39" spans="1:4">
+      <c r="A39" s="7">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="9">
         <v>41002</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="16" t="str">
+      <c r="D39" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="7">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="16" t="str">
-        <f t="shared" ref="D38:D42" si="2">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
+    <row r="40" spans="1:4">
+      <c r="A40" s="7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="14" t="str">
+        <f t="shared" ref="D40:D44" si="2">IF(C40="","",$D$1&amp;TEXT(B40,"00000")&amp;"="&amp;C40)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="16" t="str">
+    <row r="41" spans="1:4">
+      <c r="A41" s="7">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="7">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="16" t="str">
+    <row r="42" spans="1:4">
+      <c r="A42" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="16" t="str">
+    <row r="43" spans="1:4">
+      <c r="A43" s="7">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="7">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="16" t="str">
+    <row r="44" spans="1:4">
+      <c r="A44" s="7">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4DAE7E-19A9-4238-AD02-64C054A1DBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83478FF5-F33C-456A-A870-B9DF04DB72A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
     <sheet name="ログ一覧" sheetId="1" r:id="rId2"/>
-    <sheet name="リスト" sheetId="2" r:id="rId3"/>
+    <sheet name="バリデーション一覧" sheetId="4" r:id="rId3"/>
+    <sheet name="リスト" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="種類">リスト!$A$2:$A$4</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -499,6 +500,50 @@
     <t>対象のファイルの処理を終了します。対象のファイルのパス=[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>KMGTOOL_VAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YAMLデータが空です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}が空ありません。Javadocタグ設定の構成のキーワード=[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[{0}]は、[{1}]の場合のみ指定可能です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[{0}]が指定可能な値ではありません。[{0}]=[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[{0}]は対象要素を指定してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[{0}]が指定されていません。[{0}]のキーワード=[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[{0}]が存在しません。指定された[{0}]=[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[{0}]が指定されいません。[{0}]のキーワード=[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[{0}]が正しく設定されていません。[{0}]=[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java区分から要素名が取得できません。コード行=[{0}]、Java区分=[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -4228,6 +4273,2035 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>…logic</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…presentation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…ui.cli</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…ui.gui</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2660650" cy="7766050"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5851B657-6223-4ACA-813E-FC87A9E0E133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12071350" y="476250"/>
+          <a:ext cx="2660650" cy="7766050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■メッセージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の例</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>KMGTOOL_VAL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■プリフィックス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>KMGTOOL_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>VAL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■連番の範囲</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>00000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>99999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■連番の区分け</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>domain</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…model</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>全般</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リフレクション</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…service</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…logic</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>infrastructure</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…exception</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…type</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…types</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…utils</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…application</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…service</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…logic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…model</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -6395,6 +8469,705 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AC477B-6266-470B-9717-547C562E223F}">
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.9140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="4.75" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>33000</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="14" t="str">
+        <f t="shared" ref="D3:D52" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <v>KMGTOOL_VAL33000=YAMLデータが空です。</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36">
+      <c r="A4" s="6">
+        <f t="shared" ref="A4:A52" si="1">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>33001</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_VAL33001={0}が空ありません。Javadocタグ設定の構成のキーワード=[{1}]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>33002</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_VAL33002=[{0}]は、[{1}]の場合のみ指定可能です。</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>33003</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_VAL33003=[{0}]が指定可能な値ではありません。[{0}]=[{1}]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>33004</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_VAL33004=[{0}]は対象要素を指定してください。</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>33005</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_VAL33005=[{0}]が指定されていません。[{0}]のキーワード=[{1}]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>33006</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_VAL33006=[{0}]が存在しません。指定された[{0}]=[{1}]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>33007</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_VAL33007=[{0}]が指定されいません。[{0}]のキーワード=[{1}]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>33008</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_VAL33008=[{0}]が正しく設定されていません。[{0}]=[{1}]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>33009</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_VAL33009=[{0}]が正しく設定されていません。[{0}]=[{1}]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36">
+      <c r="A13" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>33010</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_VAL33010=Java区分から要素名が取得できません。コード行=[{0}]、Java区分=[{1}]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36">
+      <c r="A14" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="36">
+      <c r="A28" s="6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="36">
+      <c r="A29" s="6">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="54">
+      <c r="A30" s="6">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="54">
+      <c r="A31" s="6">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="6">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="6">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="6">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="36">
+      <c r="A37" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="6">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="6">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="6">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="6">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="36">
+      <c r="A43" s="6">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="36">
+      <c r="A44" s="6">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="36">
+      <c r="A45" s="6">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="6">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="6">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="6">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="6">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="6">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="6">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381CBA83-6CBB-4301-8D20-7404951A5D8A}">
   <dimension ref="A1:A4"/>
   <sheetViews>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83478FF5-F33C-456A-A870-B9DF04DB72A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D3C865-6D78-4B2D-A978-820D79162FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -544,6 +544,10 @@
     <t>Java区分から要素名が取得できません。コード行=[{0}]、Java区分=[{1}]</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>バリデーションエラーが発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2276,7 +2280,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
@@ -2348,6 +2351,83 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>…logic</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…model</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -6889,7 +6969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -6949,7 +7029,7 @@
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A54" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A55" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="9">
@@ -7043,52 +7123,52 @@
         <v>KMGTOOL_GEN12006=入力ファイルの読み込みに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="36">
+    <row r="10" spans="1:4">
       <c r="A10" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="9">
+        <v>12007</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_GEN12007=バリデーションエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36">
+      <c r="A11" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
         <v>13000</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="14" t="str">
-        <f t="shared" si="0"/>
+      <c r="D11" s="14" t="str">
+        <f t="shared" ref="D11:D55" si="2">IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
         <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="54">
-      <c r="A11" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="9">
+    <row r="12" spans="1:4" ht="54">
+      <c r="A12" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
         <v>13001</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="14" t="str">
-        <f t="shared" si="0"/>
+      <c r="D12" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}]、 テンプレートパス：[{1}]、 出力ファイルパス=[{2}]</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="36">
-      <c r="A12" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="9">
-        <v>13002</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN13002=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36">
@@ -7097,14 +7177,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="9">
-        <v>13003</v>
+        <v>13002</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN13003=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN13002=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="36">
@@ -7113,14 +7193,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="9">
-        <v>13004</v>
+        <v>13003</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN13004=CSVの列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN13003=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="36">
@@ -7128,15 +7208,15 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="10">
-        <v>13005</v>
+      <c r="B15" s="9">
+        <v>13004</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN13005=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN13004=CSVの列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="36">
@@ -7145,14 +7225,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="10">
-        <v>13006</v>
+        <v>13005</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN13006=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN13005=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="36">
@@ -7161,14 +7241,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="10">
-        <v>13007</v>
+        <v>13006</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN13007=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN13006=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="36">
@@ -7177,30 +7257,30 @@
         <v>16</v>
       </c>
       <c r="B18" s="10">
+        <v>13007</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN13007=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="36">
+      <c r="A19" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
         <v>13008</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="14" t="str">
-        <f t="shared" si="0"/>
+      <c r="D19" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13008=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="9">
-        <v>31000</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7209,30 +7289,30 @@
         <v>18</v>
       </c>
       <c r="B20" s="9">
-        <v>31001</v>
+        <v>31000</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>31001</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="36">
-      <c r="A21" s="6">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="9">
-        <v>31002</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="36">
@@ -7241,14 +7321,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="9">
-        <v>31003</v>
+        <v>31002</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D22" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="36">
@@ -7257,14 +7337,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="9">
-        <v>31004</v>
+        <v>31003</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="36">
@@ -7273,14 +7353,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="9">
-        <v>31005</v>
+        <v>31004</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D24" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN31005=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="36">
@@ -7289,46 +7369,46 @@
         <v>23</v>
       </c>
       <c r="B25" s="9">
+        <v>31005</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN31005=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="36">
+      <c r="A26" s="6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="9">
         <v>31006</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="14" t="str">
-        <f t="shared" si="0"/>
+      <c r="D26" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN31006=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="10">
+    <row r="27" spans="1:4">
+      <c r="A27" s="6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="10">
         <v>31007</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="14" t="str">
-        <f t="shared" ref="D26" si="2">IF(C26="","",$D$1&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
+      <c r="D27" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="36">
-      <c r="A27" s="6">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="10">
-        <v>31010</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="14" t="str">
-        <f t="shared" ref="D27:D31" si="3">IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
-        <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="36">
@@ -7337,46 +7417,46 @@
         <v>26</v>
       </c>
       <c r="B28" s="10">
+        <v>31010</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="36">
+      <c r="A29" s="6">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="10">
         <v>31011</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="D29" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN31011=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="54">
-      <c r="A29" s="6">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="10">
+    <row r="30" spans="1:4" ht="54">
+      <c r="A30" s="6">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="10">
         <v>31012</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="D30" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN31012=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="72">
-      <c r="A30" s="6">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="10">
-        <v>31013</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN31013=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="72">
@@ -7385,30 +7465,30 @@
         <v>29</v>
       </c>
       <c r="B31" s="10">
+        <v>31013</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN31013=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="72">
+      <c r="A32" s="6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="10">
         <v>31014</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="D32" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN31014=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="6">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="10">
-        <v>32000</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="14" t="str">
-        <f t="shared" ref="D32:D52" si="4">IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
-        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7417,14 +7497,14 @@
         <v>31</v>
       </c>
       <c r="B33" s="10">
-        <v>32001</v>
+        <v>32000</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7433,14 +7513,14 @@
         <v>32</v>
       </c>
       <c r="B34" s="10">
-        <v>32002</v>
+        <v>32001</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7449,14 +7529,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="10">
-        <v>32003</v>
+        <v>32002</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7465,46 +7545,46 @@
         <v>34</v>
       </c>
       <c r="B36" s="10">
+        <v>32003</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="10">
         <v>32004</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="D37" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32004=項目がnullです。</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="36">
-      <c r="A37" s="6">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="10">
+    <row r="38" spans="1:4" ht="36">
+      <c r="A38" s="6">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="10">
         <v>32005</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="D38" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="6">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="10">
-        <v>32006</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN32006=コメントがnullです。</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7513,14 +7593,14 @@
         <v>37</v>
       </c>
       <c r="B39" s="10">
-        <v>32007</v>
+        <v>32006</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN32007=フィールドがnullです。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32006=コメントがnullです。</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7529,14 +7609,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="10">
-        <v>32008</v>
+        <v>32007</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN32008=型がnullです。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32007=フィールドがnullです。</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7545,14 +7625,14 @@
         <v>39</v>
       </c>
       <c r="B41" s="10">
-        <v>32009</v>
+        <v>32008</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D41" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32008=型がnullです。</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7561,46 +7641,46 @@
         <v>40</v>
       </c>
       <c r="B42" s="10">
-        <v>32010</v>
+        <v>32009</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="10">
+        <v>32010</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32010=項目名がnullです。</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="54">
-      <c r="A43" s="6">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="10">
+    <row r="44" spans="1:4" ht="54">
+      <c r="A44" s="6">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="10">
         <v>32011</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="D44" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32011=Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="36">
-      <c r="A44" s="6">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="10">
-        <v>32012</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN32012=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="36">
@@ -7609,46 +7689,46 @@
         <v>43</v>
       </c>
       <c r="B45" s="10">
+        <v>32012</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN32012=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="36">
+      <c r="A46" s="6">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="10">
         <v>32013</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="D46" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN32013=Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="6">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="9">
-        <v>41000</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" ht="36">
       <c r="A47" s="6">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="9">
-        <v>41001</v>
+        <v>33000</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D47" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN33000=Java区分から要素名が取得できません。コード行=[{0}]、Java区分=[{1}]</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7657,14 +7737,14 @@
         <v>46</v>
       </c>
       <c r="B48" s="9">
-        <v>41002</v>
+        <v>41000</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7673,14 +7753,14 @@
         <v>47</v>
       </c>
       <c r="B49" s="9">
-        <v>41003</v>
+        <v>41001</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="D49" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7689,14 +7769,14 @@
         <v>48</v>
       </c>
       <c r="B50" s="9">
-        <v>41004</v>
+        <v>41002</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D50" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN41004=実行が成功しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7705,14 +7785,14 @@
         <v>49</v>
       </c>
       <c r="B51" s="9">
-        <v>41005</v>
+        <v>41003</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D51" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7720,11 +7800,15 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="6"/>
+      <c r="B52" s="9">
+        <v>41004</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="D52" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41004=実行が成功しました。</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -7732,11 +7816,15 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="6"/>
+      <c r="B53" s="9">
+        <v>41005</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D53" s="14" t="str">
-        <f t="shared" ref="D53:D54" si="5">IF(C53="","",$D$1&amp;TEXT(B53,"00000")&amp;"="&amp;C53)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7747,7 +7835,19 @@
       <c r="B54" s="8"/>
       <c r="C54" s="6"/>
       <c r="D54" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="6">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7764,7 +7864,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -7817,13 +7917,13 @@
         <v>34</v>
       </c>
       <c r="D3" s="14" t="str">
-        <f t="shared" ref="D3:D39" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D43" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="7">
-        <f t="shared" ref="A4:A44" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A46" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="12">
@@ -8405,7 +8505,7 @@
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
       <c r="D40" s="14" t="str">
-        <f t="shared" ref="D40:D44" si="2">IF(C40="","",$D$1&amp;TEXT(B40,"00000")&amp;"="&amp;C40)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -8417,7 +8517,7 @@
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
       <c r="D41" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -8429,7 +8529,7 @@
       <c r="B42" s="7"/>
       <c r="C42" s="6"/>
       <c r="D42" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -8441,7 +8541,7 @@
       <c r="B43" s="7"/>
       <c r="C43" s="6"/>
       <c r="D43" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -8453,7 +8553,31 @@
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
       <c r="D44" s="14" t="str">
+        <f t="shared" ref="D7:D45" si="2">IF(C44="","",$D$1&amp;TEXT(B44,"00000")&amp;"="&amp;C44)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="7">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="14" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="7">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="14" t="str">
+        <f t="shared" ref="D46" si="3">IF(C46="","",$D$1&amp;TEXT(B46,"00000")&amp;"="&amp;C46)</f>
         <v/>
       </c>
     </row>
@@ -8688,7 +8812,7 @@
         <v>KMGTOOL_VAL33010=Java区分から要素名が取得できません。コード行=[{0}]、Java区分=[{1}]</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="36">
+    <row r="14" spans="1:4">
       <c r="A14" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -8856,7 +8980,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="36">
+    <row r="28" spans="1:4">
       <c r="A28" s="6">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -8868,7 +8992,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="36">
+    <row r="29" spans="1:4">
       <c r="A29" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -8880,7 +9004,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="54">
+    <row r="30" spans="1:4">
       <c r="A30" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -8892,7 +9016,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="54">
+    <row r="31" spans="1:4">
       <c r="A31" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -8964,7 +9088,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="36">
+    <row r="37" spans="1:4">
       <c r="A37" s="6">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -9036,7 +9160,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="36">
+    <row r="43" spans="1:4">
       <c r="A43" s="6">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -9048,7 +9172,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="36">
+    <row r="44" spans="1:4">
       <c r="A44" s="6">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -9060,7 +9184,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="36">
+    <row r="45" spans="1:4">
       <c r="A45" s="6">
         <f t="shared" si="1"/>
         <v>43</v>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D3C865-6D78-4B2D-A978-820D79162FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD47883-4FAB-4347-A457-55E3BF5694B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -548,6 +548,34 @@
     <t>バリデーションエラーが発生しました。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除した行数=[{0}] Javadoc行の削除が完了しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javadoc行削除の初期化に失敗しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javadoc行削除が正常に完了しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javadoc行削除中にエラーが発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -669,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -719,6 +747,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -6969,7 +7003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -7023,13 +7057,13 @@
         <v>31</v>
       </c>
       <c r="D3" s="14" t="str">
-        <f t="shared" ref="D3:D25" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D10" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN12000=一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A55" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A67" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="9">
@@ -7151,7 +7185,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="14" t="str">
-        <f t="shared" ref="D11:D55" si="2">IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
+        <f t="shared" ref="D11:D59" si="2">IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
         <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
       </c>
     </row>
@@ -7720,47 +7754,47 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="9">
-        <v>33000</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>85</v>
+      <c r="B47" s="8">
+        <v>32014</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="D47" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN33000=Java区分から要素名が取得できません。コード行=[{0}]、Java区分=[{1}]</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>KMGTOOL_GEN32014=ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="36">
       <c r="A48" s="6">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="9">
-        <v>41000</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>9</v>
+      <c r="B48" s="8">
+        <v>32015</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="D48" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>KMGTOOL_GEN32015=ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="36">
       <c r="A49" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="9">
-        <v>41001</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>10</v>
+      <c r="B49" s="8">
+        <v>32016</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="D49" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <v>KMGTOOL_GEN32016=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7768,31 +7802,31 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="9">
-        <v>41002</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>11</v>
+      <c r="B50" s="8">
+        <v>32017</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="D50" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>KMGTOOL_GEN32017=削除した行数=[{0}] Javadoc行の削除が完了しました。</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="36">
       <c r="A51" s="6">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" s="9">
-        <v>41003</v>
+        <v>33000</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D51" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
+        <v>KMGTOOL_GEN33000=Java区分から要素名が取得できません。コード行=[{0}]、Java区分=[{1}]</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7801,14 +7835,14 @@
         <v>50</v>
       </c>
       <c r="B52" s="9">
-        <v>41004</v>
+        <v>41000</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D52" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41004=実行が成功しました。</v>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -7817,14 +7851,14 @@
         <v>51</v>
       </c>
       <c r="B53" s="9">
-        <v>41005</v>
+        <v>41001</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D53" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7832,11 +7866,15 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="6"/>
+      <c r="B54" s="9">
+        <v>41002</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D54" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7844,10 +7882,214 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="6"/>
+      <c r="B55" s="9">
+        <v>41003</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="D55" s="14" t="str">
         <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="9">
+        <v>41004</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41004=実行が成功しました。</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="9">
+        <v>41005</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="6">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="20">
+        <v>41006</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN41006=Javadoc行削除の初期化に失敗しました。</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="20">
+        <v>41007</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="14" t="str">
+        <f t="shared" ref="D59:D70" si="3">IF(C59="","",$D$1&amp;TEXT(B59,"00000")&amp;"="&amp;C59)</f>
+        <v>KMGTOOL_GEN41007=Javadoc行削除が正常に完了しました。</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="6">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="20">
+        <v>41008</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41008=Javadoc行削除中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="6">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="6">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="6">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="6">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="6">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="6">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="6">
+        <f t="shared" ref="A68:A70" si="4">ROW()-2</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="6">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="6">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="14" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8553,7 +8795,7 @@
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
       <c r="D44" s="14" t="str">
-        <f t="shared" ref="D7:D45" si="2">IF(C44="","",$D$1&amp;TEXT(B44,"00000")&amp;"="&amp;C44)</f>
+        <f t="shared" ref="D44:D45" si="2">IF(C44="","",$D$1&amp;TEXT(B44,"00000")&amp;"="&amp;C44)</f>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD47883-4FAB-4347-A457-55E3BF5694B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA58E139-C226-450F-8D14-50BC2A58BCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="00000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +627,13 @@
       <sz val="11"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -697,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -743,16 +750,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -7003,7 +7016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -7022,11 +7035,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
@@ -7053,7 +7066,7 @@
       <c r="B3" s="9">
         <v>12000</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="14" t="str">
@@ -7063,13 +7076,13 @@
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A67" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A66" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="9">
         <v>12001</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="14" t="str">
@@ -7085,7 +7098,7 @@
       <c r="B5" s="9">
         <v>12002</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="14" t="str">
@@ -7101,7 +7114,7 @@
       <c r="B6" s="9">
         <v>12003</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="14" t="str">
@@ -7117,7 +7130,7 @@
       <c r="B7" s="9">
         <v>12004</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="14" t="str">
@@ -7133,7 +7146,7 @@
       <c r="B8" s="9">
         <v>12005</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="17" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="14" t="str">
@@ -7149,7 +7162,7 @@
       <c r="B9" s="9">
         <v>12006</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="14" t="str">
@@ -7165,7 +7178,7 @@
       <c r="B10" s="9">
         <v>12007</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="14" t="str">
@@ -7181,11 +7194,11 @@
       <c r="B11" s="9">
         <v>13000</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="14" t="str">
-        <f t="shared" ref="D11:D59" si="2">IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
+        <f t="shared" ref="D11:D57" si="2">IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
         <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
       </c>
     </row>
@@ -7197,7 +7210,7 @@
       <c r="B12" s="9">
         <v>13001</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="17" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="14" t="str">
@@ -7213,7 +7226,7 @@
       <c r="B13" s="9">
         <v>13002</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="14" t="str">
@@ -7229,7 +7242,7 @@
       <c r="B14" s="9">
         <v>13003</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="14" t="str">
@@ -7245,7 +7258,7 @@
       <c r="B15" s="9">
         <v>13004</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="14" t="str">
@@ -7258,10 +7271,10 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="18">
         <v>13005</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="14" t="str">
@@ -7274,10 +7287,10 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="18">
         <v>13006</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="14" t="str">
@@ -7290,10 +7303,10 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="18">
         <v>13007</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="14" t="str">
@@ -7306,10 +7319,10 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="18">
         <v>13008</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="14" t="str">
@@ -7325,7 +7338,7 @@
       <c r="B20" s="9">
         <v>31000</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="14" t="str">
@@ -7341,7 +7354,7 @@
       <c r="B21" s="9">
         <v>31001</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="14" t="str">
@@ -7357,7 +7370,7 @@
       <c r="B22" s="9">
         <v>31002</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="14" t="str">
@@ -7373,7 +7386,7 @@
       <c r="B23" s="9">
         <v>31003</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="14" t="str">
@@ -7389,7 +7402,7 @@
       <c r="B24" s="9">
         <v>31004</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="14" t="str">
@@ -7405,7 +7418,7 @@
       <c r="B25" s="9">
         <v>31005</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="14" t="str">
@@ -7421,7 +7434,7 @@
       <c r="B26" s="9">
         <v>31006</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="14" t="str">
@@ -7434,10 +7447,10 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="18">
         <v>31007</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="14" t="str">
@@ -7450,10 +7463,10 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="18">
         <v>31010</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D28" s="14" t="str">
@@ -7466,10 +7479,10 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="18">
         <v>31011</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="14" t="str">
@@ -7482,10 +7495,10 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="18">
         <v>31012</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="17" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="14" t="str">
@@ -7498,10 +7511,10 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="18">
         <v>31013</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="14" t="str">
@@ -7514,10 +7527,10 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="18">
         <v>31014</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D32" s="14" t="str">
@@ -7530,10 +7543,10 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="18">
         <v>32000</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="14" t="str">
@@ -7546,10 +7559,10 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="18">
         <v>32001</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="14" t="str">
@@ -7562,10 +7575,10 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="18">
         <v>32002</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="14" t="str">
@@ -7578,10 +7591,10 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="18">
         <v>32003</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="14" t="str">
@@ -7594,10 +7607,10 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="18">
         <v>32004</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="14" t="str">
@@ -7610,10 +7623,10 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="18">
         <v>32005</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="17" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="14" t="str">
@@ -7626,10 +7639,10 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="18">
         <v>32006</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="14" t="str">
@@ -7642,10 +7655,10 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="18">
         <v>32007</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="14" t="str">
@@ -7658,10 +7671,10 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="18">
         <v>32008</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D41" s="14" t="str">
@@ -7674,10 +7687,10 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="18">
         <v>32009</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="14" t="str">
@@ -7690,10 +7703,10 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="18">
         <v>32010</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="14" t="str">
@@ -7706,10 +7719,10 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="18">
         <v>32011</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="14" t="str">
@@ -7722,10 +7735,10 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="18">
         <v>32012</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D45" s="14" t="str">
@@ -7738,10 +7751,10 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="18">
         <v>32013</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D46" s="14" t="str">
@@ -7754,7 +7767,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="18">
         <v>32014</v>
       </c>
       <c r="C47" s="19" t="s">
@@ -7770,7 +7783,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="18">
         <v>32015</v>
       </c>
       <c r="C48" s="19" t="s">
@@ -7786,7 +7799,7 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="18">
         <v>32016</v>
       </c>
       <c r="C49" s="19" t="s">
@@ -7797,36 +7810,36 @@
         <v>KMGTOOL_GEN32016=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" ht="36">
       <c r="A50" s="6">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="8">
-        <v>32017</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>90</v>
+      <c r="B50" s="9">
+        <v>33000</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="D50" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32017=削除した行数=[{0}] Javadoc行の削除が完了しました。</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN33000=Java区分から要素名が取得できません。コード行=[{0}]、Java区分=[{1}]</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="6">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" s="9">
-        <v>33000</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>85</v>
+        <v>41000</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="D51" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN33000=Java区分から要素名が取得できません。コード行=[{0}]、Java区分=[{1}]</v>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7835,14 +7848,14 @@
         <v>50</v>
       </c>
       <c r="B52" s="9">
-        <v>41000</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>9</v>
+        <v>41001</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="D52" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -7851,14 +7864,14 @@
         <v>51</v>
       </c>
       <c r="B53" s="9">
-        <v>41001</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>10</v>
+        <v>41002</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D53" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7867,14 +7880,14 @@
         <v>52</v>
       </c>
       <c r="B54" s="9">
-        <v>41002</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>11</v>
+        <v>41003</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="D54" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+        <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7883,14 +7896,14 @@
         <v>53</v>
       </c>
       <c r="B55" s="9">
-        <v>41003</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>62</v>
+        <v>41004</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="D55" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
+        <v>KMGTOOL_GEN41004=実行が成功しました。</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7899,14 +7912,14 @@
         <v>54</v>
       </c>
       <c r="B56" s="9">
-        <v>41004</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>63</v>
+        <v>41005</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="D56" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41004=実行が成功しました。</v>
+        <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7914,15 +7927,15 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="9">
-        <v>41005</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>64</v>
+      <c r="B57" s="20">
+        <v>41006</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="D57" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
+        <v>KMGTOOL_GEN41006=Javadoc行削除の初期化に失敗しました。</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7931,14 +7944,14 @@
         <v>56</v>
       </c>
       <c r="B58" s="20">
-        <v>41006</v>
+        <v>41007</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D58" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41006=Javadoc行削除の初期化に失敗しました。</v>
+        <f t="shared" ref="D58:D69" si="3">IF(C58="","",$D$1&amp;TEXT(B58,"00000")&amp;"="&amp;C58)</f>
+        <v>KMGTOOL_GEN41007=Javadoc行削除が正常に完了しました。</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -7947,14 +7960,14 @@
         <v>57</v>
       </c>
       <c r="B59" s="20">
-        <v>41007</v>
+        <v>41008</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D59" s="14" t="str">
-        <f t="shared" ref="D59:D70" si="3">IF(C59="","",$D$1&amp;TEXT(B59,"00000")&amp;"="&amp;C59)</f>
-        <v>KMGTOOL_GEN41007=Javadoc行削除が正常に完了しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41008=Javadoc行削除中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7962,15 +7975,11 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="20">
-        <v>41008</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41008=Javadoc行削除中にエラーが発生しました。</v>
+        <v/>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -8047,7 +8056,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A67:A69" si="4">ROW()-2</f>
         <v>65</v>
       </c>
       <c r="B67" s="8"/>
@@ -8059,7 +8068,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="6">
-        <f t="shared" ref="A68:A70" si="4">ROW()-2</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="B68" s="8"/>
@@ -8077,18 +8086,6 @@
       <c r="B69" s="8"/>
       <c r="C69" s="6"/>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="6">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8106,7 +8103,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -8124,11 +8121,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
@@ -8159,13 +8156,13 @@
         <v>34</v>
       </c>
       <c r="D3" s="14" t="str">
-        <f t="shared" ref="D3:D43" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D44" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="7">
-        <f t="shared" ref="A4:A46" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A47" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="12">
@@ -8671,7 +8668,7 @@
         <v>74</v>
       </c>
       <c r="D35" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D35" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
         <v>KMGTOOL_LOG31026=対象のファイルの処理を終了します。対象のファイルのパス=[{0}]</v>
       </c>
     </row>
@@ -8681,30 +8678,30 @@
         <v>34</v>
       </c>
       <c r="B36" s="9">
-        <v>32005</v>
+        <v>31027</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D36" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>KMGTOOL_LOG31027=削除した行数=[{0}] Javadoc行の削除が完了しました。</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="36">
       <c r="A37" s="7">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="9">
-        <v>41000</v>
+        <v>32005</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D37" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -8713,14 +8710,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="9">
-        <v>41001</v>
+        <v>41000</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -8729,14 +8726,14 @@
         <v>37</v>
       </c>
       <c r="B39" s="9">
-        <v>41002</v>
+        <v>41001</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D39" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -8744,11 +8741,15 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="9">
+        <v>41002</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D40" s="14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -8795,7 +8796,7 @@
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
       <c r="D44" s="14" t="str">
-        <f t="shared" ref="D44:D45" si="2">IF(C44="","",$D$1&amp;TEXT(B44,"00000")&amp;"="&amp;C44)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -8807,7 +8808,7 @@
       <c r="B45" s="7"/>
       <c r="C45" s="6"/>
       <c r="D45" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D45:D46" si="3">IF(C45="","",$D$1&amp;TEXT(B45,"00000")&amp;"="&amp;C45)</f>
         <v/>
       </c>
     </row>
@@ -8819,7 +8820,19 @@
       <c r="B46" s="7"/>
       <c r="C46" s="6"/>
       <c r="D46" s="14" t="str">
-        <f t="shared" ref="D46" si="3">IF(C46="","",$D$1&amp;TEXT(B46,"00000")&amp;"="&amp;C46)</f>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="14" t="str">
+        <f t="shared" ref="D47" si="4">IF(C47="","",$D$1&amp;TEXT(B47,"00000")&amp;"="&amp;C47)</f>
         <v/>
       </c>
     </row>
@@ -8855,11 +8868,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="3" t="s">
         <v>75</v>
       </c>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA58E139-C226-450F-8D14-50BC2A58BCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F6D1B9-11F9-4259-93BA-75D916224963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -576,6 +576,22 @@
     <t>Javadoc行削除中にエラーが発生しました。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>出力ファイルのディレクトリの作成に失敗しました。出力ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号化されたファイルです。入力ファイルのパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力ファイルのパスの読み込みに失敗しました。入力ファイルのパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力ファイルへの書き込みに失敗しました。出力ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -584,7 +600,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="00000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +647,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -704,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -767,6 +791,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7016,13 +7043,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -7070,13 +7097,13 @@
         <v>31</v>
       </c>
       <c r="D3" s="14" t="str">
-        <f t="shared" ref="D3:D10" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D12" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN12000=一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A66" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A70" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="9">
@@ -7186,36 +7213,36 @@
         <v>KMGTOOL_GEN12007=バリデーションエラーが発生しました。</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="36">
+    <row r="11" spans="1:4">
       <c r="A11" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="9">
-        <v>13000</v>
+        <v>12008</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D11" s="14" t="str">
-        <f t="shared" ref="D11:D57" si="2">IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
-        <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="54">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_GEN12008=暗号化されたファイルです。入力ファイルのパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36">
       <c r="A12" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="9">
-        <v>13001</v>
+        <v>12009</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D12" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}]、 テンプレートパス：[{1}]、 出力ファイルパス=[{2}]</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_GEN12009=入力ファイルのパスの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36">
@@ -7224,14 +7251,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="9">
-        <v>13002</v>
+        <v>12010</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="D13" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13002=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
+        <f t="shared" ref="D13" si="2">IF(C13="","",$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
+        <v>KMGTOOL_GEN12010=出力ファイルへの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="36">
@@ -7240,30 +7267,30 @@
         <v>12</v>
       </c>
       <c r="B14" s="9">
-        <v>13003</v>
+        <v>13000</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13003=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="36">
+        <f t="shared" ref="D14:D61" si="3">IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
+        <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="54">
       <c r="A15" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="9">
-        <v>13004</v>
+        <v>13001</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13004=CSVの列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN13001=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}]、 テンプレートパス：[{1}]、 出力ファイルパス=[{2}]</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="36">
@@ -7271,15 +7298,15 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="18">
-        <v>13005</v>
+      <c r="B16" s="9">
+        <v>13002</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D16" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13005=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN13002=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="36">
@@ -7287,15 +7314,15 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="18">
-        <v>13006</v>
+      <c r="B17" s="9">
+        <v>13003</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D17" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13006=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN13003=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="36">
@@ -7303,15 +7330,15 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="18">
-        <v>13007</v>
+      <c r="B18" s="9">
+        <v>13004</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D18" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13007=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN13004=CSVの列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="36">
@@ -7320,46 +7347,46 @@
         <v>17</v>
       </c>
       <c r="B19" s="18">
-        <v>13008</v>
+        <v>13005</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13008=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN13005=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="36">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="9">
-        <v>31000</v>
+      <c r="B20" s="18">
+        <v>13006</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D20" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN13006=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="36">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="9">
-        <v>31001</v>
+      <c r="B21" s="18">
+        <v>13007</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D21" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN13007=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="36">
@@ -7367,15 +7394,15 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="9">
-        <v>31002</v>
+      <c r="B22" s="18">
+        <v>13008</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D22" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN13008=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="36">
@@ -7383,47 +7410,47 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="9">
-        <v>31003</v>
+      <c r="B23" s="23">
+        <v>13009</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="D23" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="36">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN13009=出力ファイルのディレクトリの作成に失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="9">
-        <v>31004</v>
+        <v>31000</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D24" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="36">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="9">
-        <v>31005</v>
+        <v>31001</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D25" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN31005=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="36">
@@ -7432,30 +7459,30 @@
         <v>24</v>
       </c>
       <c r="B26" s="9">
-        <v>31006</v>
+        <v>31002</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D26" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN31006=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="36">
       <c r="A27" s="6">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="18">
-        <v>31007</v>
+      <c r="B27" s="9">
+        <v>31003</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D27" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="36">
@@ -7463,15 +7490,15 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="18">
-        <v>31010</v>
+      <c r="B28" s="9">
+        <v>31004</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D28" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="36">
@@ -7479,127 +7506,127 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="9">
+        <v>31005</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN31005=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="36">
+      <c r="A30" s="6">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="9">
+        <v>31006</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN31006=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="6">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="18">
+        <v>31007</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="36">
+      <c r="A32" s="6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="18">
+        <v>31010</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="36">
+      <c r="A33" s="6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="18">
         <v>31011</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C33" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="D33" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31011=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="54">
-      <c r="A30" s="6">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="18">
+    <row r="34" spans="1:4" ht="54">
+      <c r="A34" s="6">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="18">
         <v>31012</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="D34" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31012=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="72">
-      <c r="A31" s="6">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="18">
+    <row r="35" spans="1:4" ht="72">
+      <c r="A35" s="6">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="18">
         <v>31013</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="D35" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31013=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="72">
-      <c r="A32" s="6">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="18">
+    <row r="36" spans="1:4" ht="72">
+      <c r="A36" s="6">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="18">
         <v>31014</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="D36" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31014=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="6">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="18">
-        <v>32000</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="6">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="18">
-        <v>32001</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="6">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="18">
-        <v>32002</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="6">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="18">
-        <v>32003</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7608,30 +7635,30 @@
         <v>35</v>
       </c>
       <c r="B37" s="18">
-        <v>32004</v>
+        <v>32000</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D37" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32004=項目がnullです。</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="36">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32000=項目名がnullです。</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="18">
-        <v>32005</v>
+        <v>32001</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D38" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7640,14 +7667,14 @@
         <v>37</v>
       </c>
       <c r="B39" s="18">
-        <v>32006</v>
+        <v>32002</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D39" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32006=コメントがnullです。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7656,14 +7683,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="18">
-        <v>32007</v>
+        <v>32003</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D40" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32007=フィールドがnullです。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7672,30 +7699,30 @@
         <v>39</v>
       </c>
       <c r="B41" s="18">
-        <v>32008</v>
+        <v>32004</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D41" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32008=型がnullです。</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32004=項目がnullです。</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="36">
       <c r="A42" s="6">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="18">
-        <v>32009</v>
+        <v>32005</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D42" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7704,94 +7731,94 @@
         <v>41</v>
       </c>
       <c r="B43" s="18">
+        <v>32006</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32006=コメントがnullです。</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="6">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="18">
+        <v>32007</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32007=フィールドがnullです。</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="6">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="18">
+        <v>32008</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32008=型がnullです。</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="6">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="18">
+        <v>32009</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32009=項目名がnullです。</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="6">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="18">
         <v>32010</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C47" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="D47" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32010=項目名がnullです。</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="54">
-      <c r="A44" s="6">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="18">
+    <row r="48" spans="1:4" ht="54">
+      <c r="A48" s="6">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="18">
         <v>32011</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C48" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="D48" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32011=Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="36">
-      <c r="A45" s="6">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="18">
-        <v>32012</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32012=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="36">
-      <c r="A46" s="6">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="18">
-        <v>32013</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32013=Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="36">
-      <c r="A47" s="6">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="18">
-        <v>32014</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32014=ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="36">
-      <c r="A48" s="6">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="18">
-        <v>32015</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32015=ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="36">
@@ -7800,14 +7827,14 @@
         <v>47</v>
       </c>
       <c r="B49" s="18">
-        <v>32016</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>89</v>
+        <v>32012</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D49" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN32016=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32012=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="36">
@@ -7815,79 +7842,79 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="18">
+        <v>32013</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32013=Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="36">
+      <c r="A51" s="6">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="18">
+        <v>32014</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32014=ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="36">
+      <c r="A52" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="18">
+        <v>32015</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32015=ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="36">
+      <c r="A53" s="6">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="18">
+        <v>32016</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN32016=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="36">
+      <c r="A54" s="6">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="9">
         <v>33000</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D50" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="D54" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN33000=Java区分から要素名が取得できません。コード行=[{0}]、Java区分=[{1}]</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="9">
-        <v>41000</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="6">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B52" s="9">
-        <v>41001</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41001=成功</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="6">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B53" s="9">
-        <v>41002</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="6">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B54" s="9">
-        <v>41003</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7896,14 +7923,14 @@
         <v>53</v>
       </c>
       <c r="B55" s="9">
-        <v>41004</v>
+        <v>41000</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D55" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41004=実行が成功しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7912,14 +7939,14 @@
         <v>54</v>
       </c>
       <c r="B56" s="9">
-        <v>41005</v>
+        <v>41001</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D56" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7927,15 +7954,15 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="20">
-        <v>41006</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>91</v>
+      <c r="B57" s="9">
+        <v>41002</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D57" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN41006=Javadoc行削除の初期化に失敗しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7943,15 +7970,15 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="20">
-        <v>41007</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>92</v>
+      <c r="B58" s="9">
+        <v>41003</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="D58" s="14" t="str">
-        <f t="shared" ref="D58:D69" si="3">IF(C58="","",$D$1&amp;TEXT(B58,"00000")&amp;"="&amp;C58)</f>
-        <v>KMGTOOL_GEN41007=Javadoc行削除が正常に完了しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -7959,15 +7986,15 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59" s="20">
-        <v>41008</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>93</v>
+      <c r="B59" s="9">
+        <v>41004</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="D59" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41008=Javadoc行削除中にエラーが発生しました。</v>
+        <v>KMGTOOL_GEN41004=実行が成功しました。</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7975,11 +8002,15 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="6"/>
+      <c r="B60" s="9">
+        <v>41005</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="D60" s="14" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7987,11 +8018,15 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="6"/>
+      <c r="B61" s="20">
+        <v>41006</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="D61" s="14" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>KMGTOOL_GEN41006=Javadoc行削除の初期化に失敗しました。</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7999,11 +8034,15 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="6"/>
+      <c r="B62" s="20">
+        <v>41007</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="D62" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" ref="D62:D73" si="4">IF(C62="","",$D$1&amp;TEXT(B62,"00000")&amp;"="&amp;C62)</f>
+        <v>KMGTOOL_GEN41007=Javadoc行削除が正常に完了しました。</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -8011,11 +8050,15 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="6"/>
+      <c r="B63" s="20">
+        <v>41008</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="D63" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN41008=Javadoc行削除中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -8026,7 +8069,7 @@
       <c r="B64" s="8"/>
       <c r="C64" s="6"/>
       <c r="D64" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8038,7 +8081,7 @@
       <c r="B65" s="8"/>
       <c r="C65" s="6"/>
       <c r="D65" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8050,43 +8093,91 @@
       <c r="B66" s="8"/>
       <c r="C66" s="6"/>
       <c r="D66" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6">
-        <f t="shared" ref="A67:A69" si="4">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="6"/>
       <c r="D67" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="6"/>
       <c r="D68" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="6"/>
       <c r="D69" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="6">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="6">
+        <f t="shared" ref="A71:A73" si="5">ROW()-2</f>
+        <v>69</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="6">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="6">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="14" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F6D1B9-11F9-4259-93BA-75D916224963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A240FB6-7671-49BE-ADF0-EB7CB4B0E002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -592,6 +592,18 @@
     <t>出力ファイルへの書き込みに失敗しました。出力ファイルパス=[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>挿入SQL出力に失敗しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入SQL作成画面の実行ボタンの処理に失敗しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入SQL作成ツールの開始に失敗しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -600,7 +612,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="00000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,14 +659,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -792,8 +796,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2835,7 +2839,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2641600" cy="7594600"/>
+    <xdr:ext cx="2641600" cy="7924800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
@@ -2849,8 +2853,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7207251" y="469900"/>
-          <a:ext cx="2641600" cy="7594600"/>
+          <a:off x="9004301" y="469900"/>
+          <a:ext cx="2641600" cy="7924800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4733,6 +4737,84 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>…ui.gui</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…controller</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -7049,7 +7131,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -7410,7 +7492,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="18">
         <v>13009</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -7426,7 +7508,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="20">
         <v>31000</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -7442,7 +7524,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="20">
         <v>31001</v>
       </c>
       <c r="C25" s="17" t="s">
@@ -7458,7 +7540,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="20">
         <v>31002</v>
       </c>
       <c r="C26" s="17" t="s">
@@ -8194,13 +8276,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -8247,13 +8329,13 @@
         <v>34</v>
       </c>
       <c r="D3" s="14" t="str">
-        <f t="shared" ref="D3:D44" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D45" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="7">
-        <f t="shared" ref="A4:A47" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A54" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="12">
@@ -8299,20 +8381,20 @@
         <v>KMGTOOL_LOG12006=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="36">
+    <row r="7" spans="1:4">
       <c r="A7" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="7">
-        <v>13000</v>
+      <c r="B7" s="12">
+        <v>12007</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_LOG12007=挿入SQL出力に失敗しました。</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36">
@@ -8320,15 +8402,15 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>13001</v>
+      <c r="B8" s="12">
+        <v>13000</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_LOG13000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36">
@@ -8336,15 +8418,15 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="9">
-        <v>31000</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>28</v>
+      <c r="B9" s="12">
+        <v>13001</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31000=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG13001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="36">
@@ -8353,14 +8435,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="9">
-        <v>31001</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
+        <v>31000</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31000=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36">
@@ -8369,514 +8451,526 @@
         <v>9</v>
       </c>
       <c r="B11" s="9">
+        <v>31001</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36">
+      <c r="A12" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
         <v>31002</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="36">
-      <c r="A12" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="9">
+    <row r="13" spans="1:4" ht="36">
+      <c r="A13" s="7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
         <v>31003</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="14" t="str">
+      <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="36">
-      <c r="A13" s="7">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="9">
+    <row r="14" spans="1:4" ht="36">
+      <c r="A14" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
         <v>31004</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="14" t="str">
+      <c r="D14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="36">
-      <c r="A14" s="7">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="9">
+    <row r="15" spans="1:4" ht="36">
+      <c r="A15" s="7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
         <v>31005</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="14" t="str">
+      <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36">
-      <c r="A15" s="7">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="9">
+    <row r="16" spans="1:4" ht="36">
+      <c r="A16" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
         <v>31006</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="14" t="str">
+      <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31006=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="36">
-      <c r="A16" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="9">
+    <row r="17" spans="1:4" ht="36">
+      <c r="A17" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
         <v>31007</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="14" t="str">
+      <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31007=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="36">
-      <c r="A17" s="7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="9">
+    <row r="18" spans="1:4" ht="36">
+      <c r="A18" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
         <v>31008</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="14" t="str">
+      <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31008=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="36">
-      <c r="A18" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="9">
+    <row r="19" spans="1:4" ht="36">
+      <c r="A19" s="7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
         <v>31009</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="14" t="str">
+      <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31009=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="36">
-      <c r="A19" s="7">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="9">
+    <row r="20" spans="1:4" ht="36">
+      <c r="A20" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
         <v>31010</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="14" t="str">
+      <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31010=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="36">
-      <c r="A20" s="7">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="9">
+    <row r="21" spans="1:4" ht="36">
+      <c r="A21" s="7">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
         <v>31011</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="14" t="str">
+      <c r="D21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31011=CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="36">
-      <c r="A21" s="7">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="9">
+    <row r="22" spans="1:4" ht="36">
+      <c r="A22" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="9">
         <v>31012</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="14" t="str">
+      <c r="D22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31012=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36">
-      <c r="A22" s="7">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="9">
+    <row r="23" spans="1:4" ht="36">
+      <c r="A23" s="7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="9">
         <v>31013</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="14" t="str">
+      <c r="D23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="36">
-      <c r="A23" s="7">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="9">
+    <row r="24" spans="1:4" ht="36">
+      <c r="A24" s="7">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="9">
         <v>31014</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="14" t="str">
+      <c r="D24" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36">
-      <c r="A24" s="7">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="9">
+    <row r="25" spans="1:4" ht="36">
+      <c r="A25" s="7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="9">
         <v>31015</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="14" t="str">
+      <c r="D25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="36">
-      <c r="A25" s="7">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="9">
+    <row r="26" spans="1:4" ht="36">
+      <c r="A26" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="9">
         <v>31016</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="14" t="str">
+      <c r="D26" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="36">
-      <c r="A26" s="7">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="9">
+    <row r="27" spans="1:4" ht="36">
+      <c r="A27" s="7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="9">
         <v>31017</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="14" t="str">
+      <c r="D27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="36">
-      <c r="A27" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="9">
+    <row r="28" spans="1:4" ht="36">
+      <c r="A28" s="7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="9">
         <v>31018</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="14" t="str">
+      <c r="D28" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31018=CSVファイルに書き込み完了。コメント=[{0}]</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="36">
-      <c r="A28" s="7">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="9">
+    <row r="29" spans="1:4" ht="36">
+      <c r="A29" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="9">
         <v>31019</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="14" t="str">
+      <c r="D29" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31019=Javadocタグ設定処理を開始します。</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="36">
-      <c r="A29" s="7">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="9">
+    <row r="30" spans="1:4" ht="36">
+      <c r="A30" s="7">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="9">
         <v>31020</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="14" t="str">
+      <c r="D30" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31020=Javadocタグ設定処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="54">
-      <c r="A30" s="7">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="9">
+    <row r="31" spans="1:4" ht="54">
+      <c r="A31" s="7">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="9">
         <v>31021</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="14" t="str">
+      <c r="D31" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31021=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="54">
-      <c r="A31" s="7">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="9">
+    <row r="32" spans="1:4" ht="54">
+      <c r="A32" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="9">
         <v>31022</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="14" t="str">
+      <c r="D32" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31022=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="90">
-      <c r="A32" s="7">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="9">
+    <row r="33" spans="1:4" ht="90">
+      <c r="A33" s="7">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="9">
         <v>31023</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="14" t="str">
+      <c r="D33" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31023=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="90">
-      <c r="A33" s="7">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="9">
+    <row r="34" spans="1:4" ht="90">
+      <c r="A34" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="9">
         <v>31024</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="14" t="str">
+      <c r="D34" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31024=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="36">
-      <c r="A34" s="7">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="9">
+    <row r="35" spans="1:4" ht="36">
+      <c r="A35" s="7">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="9">
         <v>31025</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="14" t="str">
+      <c r="D35" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31025=対象のファイルの処理を開始します。対象のファイルのパス=[{0}]</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="36">
-      <c r="A35" s="7">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="9">
-        <v>31026</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="14" t="str">
-        <f t="shared" ref="D35" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
-        <v>KMGTOOL_LOG31026=対象のファイルの処理を終了します。対象のファイルのパス=[{0}]</v>
-      </c>
-    </row>
     <row r="36" spans="1:4" ht="36">
       <c r="A36" s="7">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="9">
+        <v>31026</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="14" t="str">
+        <f t="shared" ref="D36" si="2">IF(C36="","",$D$1&amp;TEXT(B36,"00000")&amp;"="&amp;C36)</f>
+        <v>KMGTOOL_LOG31026=対象のファイルの処理を終了します。対象のファイルのパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="36">
+      <c r="A37" s="7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="9">
         <v>31027</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="14" t="str">
+      <c r="D37" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31027=削除した行数=[{0}] Javadoc行の削除が完了しました。</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="36">
-      <c r="A37" s="7">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="9">
+    <row r="38" spans="1:4" ht="36">
+      <c r="A38" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="9">
         <v>32005</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="14" t="str">
+      <c r="D38" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="7">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="9">
+    <row r="39" spans="1:4">
+      <c r="A39" s="7">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="9">
         <v>41000</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="14" t="str">
+      <c r="D39" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="9">
+    <row r="40" spans="1:4">
+      <c r="A40" s="7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="9">
         <v>41001</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="14" t="str">
+      <c r="D40" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="7">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="9">
+    <row r="41" spans="1:4">
+      <c r="A41" s="7">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="9">
         <v>41002</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="14" t="str">
+      <c r="D41" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="36">
       <c r="A42" s="7">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="9">
+        <v>43000</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="D42" s="14" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>KMGTOOL_LOG43000=挿入SQL作成画面の実行ボタンの処理に失敗しました。</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="36">
       <c r="A43" s="7">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
+      <c r="B43" s="9">
+        <v>43001</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="D43" s="14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>KMGTOOL_LOG43001=挿入SQL作成ツールの開始に失敗しました。</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -8884,7 +8978,7 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="6"/>
       <c r="D44" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8896,10 +8990,10 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="6"/>
       <c r="D45" s="14" t="str">
-        <f t="shared" ref="D45:D46" si="3">IF(C45="","",$D$1&amp;TEXT(B45,"00000")&amp;"="&amp;C45)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -8908,22 +9002,106 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="6"/>
       <c r="D46" s="14" t="str">
+        <f t="shared" ref="D46:D47" si="3">IF(C46="","",$D$1&amp;TEXT(B46,"00000")&amp;"="&amp;C46)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="7">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="14" t="str">
-        <f t="shared" ref="D47" si="4">IF(C47="","",$D$1&amp;TEXT(B47,"00000")&amp;"="&amp;C47)</f>
+    <row r="48" spans="1:4">
+      <c r="A48" s="7">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="14" t="str">
+        <f t="shared" ref="D48" si="4">IF(C48="","",$D$1&amp;TEXT(B48,"00000")&amp;"="&amp;C48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="7">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="14" t="str">
+        <f t="shared" ref="D49:D54" si="5">IF(C49="","",$D$1&amp;TEXT(B49,"00000")&amp;"="&amp;C49)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="7">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="7">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="7">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="14" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A240FB6-7671-49BE-ADF0-EB7CB4B0E002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6DCF72-F337-48DE-A42F-CC626483F868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13520" yWindow="2260" windowWidth="28800" windowHeight="15380" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -790,13 +790,13 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -7125,7 +7125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -7144,11 +7144,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A70" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A69" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="9">
@@ -7355,7 +7355,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="14" t="str">
-        <f t="shared" ref="D14:D61" si="3">IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
+        <f t="shared" ref="D14:D60" si="3">IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
         <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
       </c>
     </row>
@@ -7983,20 +7983,20 @@
         <v>KMGTOOL_GEN32016=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="36">
+    <row r="54" spans="1:4">
       <c r="A54" s="6">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B54" s="9">
-        <v>33000</v>
+        <v>41000</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="D54" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN33000=Java区分から要素名が取得できません。コード行=[{0}]、Java区分=[{1}]</v>
+        <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -8005,14 +8005,14 @@
         <v>53</v>
       </c>
       <c r="B55" s="9">
-        <v>41000</v>
+        <v>41001</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41000=失敗</v>
+        <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -8021,14 +8021,14 @@
         <v>54</v>
       </c>
       <c r="B56" s="9">
-        <v>41001</v>
+        <v>41002</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D56" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41001=成功</v>
+        <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -8037,14 +8037,14 @@
         <v>55</v>
       </c>
       <c r="B57" s="9">
-        <v>41002</v>
+        <v>41003</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D57" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41002=例外発生</v>
+        <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -8053,14 +8053,14 @@
         <v>56</v>
       </c>
       <c r="B58" s="9">
-        <v>41003</v>
+        <v>41004</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D58" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
+        <v>KMGTOOL_GEN41004=実行が成功しました。</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -8069,14 +8069,14 @@
         <v>57</v>
       </c>
       <c r="B59" s="9">
-        <v>41004</v>
+        <v>41005</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D59" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41004=実行が成功しました。</v>
+        <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -8084,15 +8084,15 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="9">
-        <v>41005</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>64</v>
+      <c r="B60" s="20">
+        <v>41006</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="D60" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
+        <v>KMGTOOL_GEN41006=Javadoc行削除の初期化に失敗しました。</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -8101,14 +8101,14 @@
         <v>59</v>
       </c>
       <c r="B61" s="20">
-        <v>41006</v>
+        <v>41007</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D61" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN41006=Javadoc行削除の初期化に失敗しました。</v>
+        <f t="shared" ref="D61:D72" si="4">IF(C61="","",$D$1&amp;TEXT(B61,"00000")&amp;"="&amp;C61)</f>
+        <v>KMGTOOL_GEN41007=Javadoc行削除が正常に完了しました。</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -8117,14 +8117,14 @@
         <v>60</v>
       </c>
       <c r="B62" s="20">
-        <v>41007</v>
+        <v>41008</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D62" s="14" t="str">
-        <f t="shared" ref="D62:D73" si="4">IF(C62="","",$D$1&amp;TEXT(B62,"00000")&amp;"="&amp;C62)</f>
-        <v>KMGTOOL_GEN41007=Javadoc行削除が正常に完了しました。</v>
+        <f t="shared" si="4"/>
+        <v>KMGTOOL_GEN41008=Javadoc行削除中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -8132,15 +8132,11 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63" s="20">
-        <v>41008</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="6"/>
       <c r="D63" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>KMGTOOL_GEN41008=Javadoc行削除中にエラーが発生しました。</v>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -8217,7 +8213,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A70:A72" si="5">ROW()-2</f>
         <v>68</v>
       </c>
       <c r="B70" s="8"/>
@@ -8229,7 +8225,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="6">
-        <f t="shared" ref="A71:A73" si="5">ROW()-2</f>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="B71" s="8"/>
@@ -8247,18 +8243,6 @@
       <c r="B72" s="8"/>
       <c r="C72" s="6"/>
       <c r="D72" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="6">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -8294,11 +8278,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
@@ -9038,7 +9022,7 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="6"/>
       <c r="D49" s="14" t="str">
         <f t="shared" ref="D49:D54" si="5">IF(C49="","",$D$1&amp;TEXT(B49,"00000")&amp;"="&amp;C49)</f>
@@ -9050,7 +9034,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="23"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="6"/>
       <c r="D50" s="14" t="str">
         <f t="shared" si="5"/>
@@ -9062,7 +9046,7 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="6"/>
       <c r="D51" s="14" t="str">
         <f t="shared" si="5"/>
@@ -9137,11 +9121,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="3" t="s">
         <v>75</v>
       </c>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6DCF72-F337-48DE-A42F-CC626483F868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA244BA0-39D0-4511-A764-7027961189E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="2260" windowWidth="28800" windowHeight="15380" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17050" yWindow="3280" windowWidth="28800" windowHeight="15380" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -602,6 +602,10 @@
   </si>
   <si>
     <t>挿入SQL作成ツールの開始に失敗しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javadocタグ設定のコードの解析に失敗しました。識別子=[{0}]、オリジナルブロック=[{1}]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4431,6 +4435,97 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>…logic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…model</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -8260,13 +8355,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:B48"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -8313,13 +8408,13 @@
         <v>34</v>
       </c>
       <c r="D3" s="14" t="str">
-        <f t="shared" ref="D3:D45" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D46" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="7">
-        <f t="shared" ref="A4:A54" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A55" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="12">
@@ -8877,20 +8972,20 @@
         <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="36">
       <c r="A39" s="7">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="9">
-        <v>41000</v>
+        <v>33000</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D39" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG41000=初期化の失敗</v>
+        <v>KMGTOOL_LOG33000=Javadocタグ設定のコードの解析に失敗しました。識別子=[{0}]、オリジナルブロック=[{1}]</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -8899,14 +8994,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="9">
-        <v>41001</v>
+        <v>41000</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+        <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -8915,30 +9010,30 @@
         <v>39</v>
       </c>
       <c r="B41" s="9">
-        <v>41002</v>
+        <v>41001</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D41" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="36">
+        <v>KMGTOOL_LOG41001=初期化の失敗</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="7">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="9">
-        <v>43000</v>
+        <v>41002</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D42" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG43000=挿入SQL作成画面の実行ボタンの処理に失敗しました。</v>
+        <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="36">
@@ -8947,26 +9042,30 @@
         <v>41</v>
       </c>
       <c r="B43" s="9">
-        <v>43001</v>
+        <v>43000</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG43001=挿入SQL作成ツールの開始に失敗しました。</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>KMGTOOL_LOG43000=挿入SQL作成画面の実行ボタンの処理に失敗しました。</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="36">
       <c r="A44" s="7">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="6"/>
+      <c r="B44" s="9">
+        <v>43001</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="D44" s="14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>KMGTOOL_LOG43001=挿入SQL作成ツールの開始に失敗しました。</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -8989,7 +9088,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="6"/>
       <c r="D46" s="14" t="str">
-        <f t="shared" ref="D46:D47" si="3">IF(C46="","",$D$1&amp;TEXT(B46,"00000")&amp;"="&amp;C46)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9001,7 +9100,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="6"/>
       <c r="D47" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D47:D48" si="3">IF(C47="","",$D$1&amp;TEXT(B47,"00000")&amp;"="&amp;C47)</f>
         <v/>
       </c>
     </row>
@@ -9013,7 +9112,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="6"/>
       <c r="D48" s="14" t="str">
-        <f t="shared" ref="D48" si="4">IF(C48="","",$D$1&amp;TEXT(B48,"00000")&amp;"="&amp;C48)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -9022,10 +9121,10 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="21"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="6"/>
       <c r="D49" s="14" t="str">
-        <f t="shared" ref="D49:D54" si="5">IF(C49="","",$D$1&amp;TEXT(B49,"00000")&amp;"="&amp;C49)</f>
+        <f t="shared" ref="D49" si="4">IF(C49="","",$D$1&amp;TEXT(B49,"00000")&amp;"="&amp;C49)</f>
         <v/>
       </c>
     </row>
@@ -9037,7 +9136,7 @@
       <c r="B50" s="21"/>
       <c r="C50" s="6"/>
       <c r="D50" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D50:D55" si="5">IF(C50="","",$D$1&amp;TEXT(B50,"00000")&amp;"="&amp;C50)</f>
         <v/>
       </c>
     </row>
@@ -9058,7 +9157,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="7"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="6"/>
       <c r="D52" s="14" t="str">
         <f t="shared" si="5"/>
@@ -9085,6 +9184,18 @@
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
       <c r="D54" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="7">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA244BA0-39D0-4511-A764-7027961189E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6906C8D5-ACC0-451E-B4F2-14877C710238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17050" yWindow="3280" windowWidth="28800" windowHeight="15380" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -606,6 +606,10 @@
   </si>
   <si>
     <t>Javadocタグ設定のコードの解析に失敗しました。識別子=[{0}]、オリジナルブロック=[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き込み対象のCSVデータの最後がリストに存在しません。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -669,7 +673,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,6 +689,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -802,6 +812,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7220,7 +7245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -7280,7 +7305,7 @@
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A69" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A72" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="9">
@@ -7450,7 +7475,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="14" t="str">
-        <f t="shared" ref="D14:D60" si="3">IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
+        <f t="shared" ref="D14:D63" si="3">IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
         <v>KMGTOOL_GEN13000=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
       </c>
     </row>
@@ -7598,20 +7623,20 @@
         <v>KMGTOOL_GEN13009=出力ファイルのディレクトリの作成に失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="36">
       <c r="A24" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="20">
-        <v>31000</v>
+      <c r="B24" s="18">
+        <v>13010</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="D24" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
+        <v>KMGTOOL_GEN13010=書き込み対象のCSVデータの最後がリストに存在しません。</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7620,30 +7645,30 @@
         <v>23</v>
       </c>
       <c r="B25" s="20">
-        <v>31001</v>
+        <v>31000</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN31000=ファイル処理に失敗しました。</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="20">
-        <v>31002</v>
+        <v>31001</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
+        <v>KMGTOOL_GEN31001=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="36">
@@ -7651,15 +7676,15 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="9">
-        <v>31003</v>
+      <c r="B27" s="20">
+        <v>31002</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D27" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
+        <v>KMGTOOL_GEN31002=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="36">
@@ -7668,14 +7693,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="9">
-        <v>31004</v>
+        <v>31003</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D28" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
+        <v>KMGTOOL_GEN31003=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="36">
@@ -7684,14 +7709,14 @@
         <v>27</v>
       </c>
       <c r="B29" s="9">
-        <v>31005</v>
+        <v>31004</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D29" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN31005=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
+        <v>KMGTOOL_GEN31004=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="36">
@@ -7700,562 +7725,564 @@
         <v>28</v>
       </c>
       <c r="B30" s="9">
-        <v>31006</v>
+        <v>31005</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D30" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN31006=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>KMGTOOL_GEN31005=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="36">
       <c r="A31" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="18">
-        <v>31007</v>
+      <c r="B31" s="9">
+        <v>31006</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D31" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN31006=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="6">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="18">
-        <v>31010</v>
+        <v>31007</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D32" s="14" t="str">
         <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN31007=1行読み込みに失敗しました。</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="27">
+        <v>31008</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="6">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="28">
+        <v>31009</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" ht="36">
+      <c r="A35" s="6">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="18">
+        <v>31010</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31010=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="36">
-      <c r="A33" s="6">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="18">
+    <row r="36" spans="1:4" ht="36">
+      <c r="A36" s="6">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="18">
         <v>31011</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="14" t="str">
+      <c r="D36" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31011=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="54">
-      <c r="A34" s="6">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="18">
+    <row r="37" spans="1:4" ht="54">
+      <c r="A37" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="18">
         <v>31012</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C37" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="14" t="str">
+      <c r="D37" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31012=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="72">
-      <c r="A35" s="6">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="18">
+    <row r="38" spans="1:4" ht="72">
+      <c r="A38" s="6">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="18">
         <v>31013</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C38" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="14" t="str">
+      <c r="D38" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31013=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="72">
-      <c r="A36" s="6">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="18">
+    <row r="39" spans="1:4" ht="72">
+      <c r="A39" s="6">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="18">
         <v>31014</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C39" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="14" t="str">
+      <c r="D39" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN31014=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="6">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="18">
+    <row r="40" spans="1:4">
+      <c r="A40" s="6">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="18">
         <v>32000</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="14" t="str">
+      <c r="D40" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32000=項目名がnullです。</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="6">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="18">
+    <row r="41" spans="1:4">
+      <c r="A41" s="6">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="18">
         <v>32001</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="14" t="str">
+      <c r="D41" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32001=項目名がnullです。</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="6">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="18">
+    <row r="42" spans="1:4">
+      <c r="A42" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="18">
         <v>32002</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C42" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="14" t="str">
+      <c r="D42" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32002=Javadocコメントがnullです。</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="6">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="18">
+    <row r="43" spans="1:4">
+      <c r="A43" s="6">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="18">
         <v>32003</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C43" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="14" t="str">
+      <c r="D43" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32003=型情報がnullです。</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="6">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="18">
+    <row r="44" spans="1:4">
+      <c r="A44" s="6">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="18">
         <v>32004</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C44" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="14" t="str">
+      <c r="D44" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32004=項目がnullです。</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="36">
-      <c r="A42" s="6">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="18">
+    <row r="45" spans="1:4" ht="36">
+      <c r="A45" s="6">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="18">
         <v>32005</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C45" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="14" t="str">
+      <c r="D45" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32005=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="6">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="18">
+    <row r="46" spans="1:4">
+      <c r="A46" s="6">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="18">
         <v>32006</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C46" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="14" t="str">
+      <c r="D46" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32006=コメントがnullです。</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="6">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="18">
+    <row r="47" spans="1:4">
+      <c r="A47" s="6">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="18">
         <v>32007</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C47" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="14" t="str">
+      <c r="D47" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32007=フィールドがnullです。</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="6">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="18">
+    <row r="48" spans="1:4">
+      <c r="A48" s="6">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="18">
         <v>32008</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C48" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="14" t="str">
+      <c r="D48" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32008=型がnullです。</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="6">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="18">
+    <row r="49" spans="1:4">
+      <c r="A49" s="6">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="18">
         <v>32009</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C49" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="14" t="str">
+      <c r="D49" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32009=項目名がnullです。</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="6">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="18">
+    <row r="50" spans="1:4">
+      <c r="A50" s="6">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="18">
         <v>32010</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C50" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="14" t="str">
+      <c r="D50" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32010=項目名がnullです。</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="54">
-      <c r="A48" s="6">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="18">
+    <row r="51" spans="1:4" ht="54">
+      <c r="A51" s="6">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="18">
         <v>32011</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C51" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="14" t="str">
+      <c r="D51" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32011=Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="36">
-      <c r="A49" s="6">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B49" s="18">
+    <row r="52" spans="1:4" ht="36">
+      <c r="A52" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="18">
         <v>32012</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C52" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="14" t="str">
+      <c r="D52" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32012=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="36">
-      <c r="A50" s="6">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B50" s="18">
+    <row r="53" spans="1:4" ht="36">
+      <c r="A53" s="6">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="18">
         <v>32013</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C53" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="14" t="str">
+      <c r="D53" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32013=Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="36">
-      <c r="A51" s="6">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="18">
+    <row r="54" spans="1:4" ht="36">
+      <c r="A54" s="6">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="18">
         <v>32014</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="14" t="str">
+      <c r="D54" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32014=ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="36">
-      <c r="A52" s="6">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B52" s="18">
+    <row r="55" spans="1:4" ht="36">
+      <c r="A55" s="6">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="18">
         <v>32015</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="14" t="str">
+      <c r="D55" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32015=ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="36">
-      <c r="A53" s="6">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B53" s="18">
+    <row r="56" spans="1:4" ht="36">
+      <c r="A56" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="18">
         <v>32016</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C56" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="14" t="str">
+      <c r="D56" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN32016=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="6">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B54" s="9">
+    <row r="57" spans="1:4">
+      <c r="A57" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="9">
         <v>41000</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C57" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="14" t="str">
+      <c r="D57" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN41000=失敗</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="6">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="9">
+    <row r="58" spans="1:4">
+      <c r="A58" s="6">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="9">
         <v>41001</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="14" t="str">
+      <c r="D58" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN41001=成功</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="6">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="9">
+    <row r="59" spans="1:4">
+      <c r="A59" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="9">
         <v>41002</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C59" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="14" t="str">
+      <c r="D59" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN41002=例外発生</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="6">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="9">
+    <row r="60" spans="1:4">
+      <c r="A60" s="6">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="9">
         <v>41003</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C60" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="14" t="str">
+      <c r="D60" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN41003=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="6">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="9">
+    <row r="61" spans="1:4">
+      <c r="A61" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="9">
         <v>41004</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C61" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="14" t="str">
+      <c r="D61" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN41004=実行が成功しました。</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="6">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B59" s="9">
+    <row r="62" spans="1:4">
+      <c r="A62" s="6">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="9">
         <v>41005</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C62" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="14" t="str">
+      <c r="D62" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN41005=実行中に例外が発生しました。</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="6">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="20">
+    <row r="63" spans="1:4">
+      <c r="A63" s="6">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="20">
         <v>41006</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C63" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="14" t="str">
+      <c r="D63" s="14" t="str">
         <f t="shared" si="3"/>
         <v>KMGTOOL_GEN41006=Javadoc行削除の初期化に失敗しました。</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="6">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B61" s="20">
+    <row r="64" spans="1:4">
+      <c r="A64" s="6">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="20">
         <v>41007</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C64" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="14" t="str">
-        <f t="shared" ref="D61:D72" si="4">IF(C61="","",$D$1&amp;TEXT(B61,"00000")&amp;"="&amp;C61)</f>
+      <c r="D64" s="14" t="str">
+        <f t="shared" ref="D64:D75" si="4">IF(C64="","",$D$1&amp;TEXT(B64,"00000")&amp;"="&amp;C64)</f>
         <v>KMGTOOL_GEN41007=Javadoc行削除が正常に完了しました。</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="6">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B62" s="20">
+    <row r="65" spans="1:4">
+      <c r="A65" s="6">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="20">
         <v>41008</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C65" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="14" t="str">
+      <c r="D65" s="14" t="str">
         <f t="shared" si="4"/>
         <v>KMGTOOL_GEN41008=Javadoc行削除中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="6">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="6">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="6">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -8308,7 +8335,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6">
-        <f t="shared" ref="A70:A72" si="5">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B70" s="8"/>
@@ -8320,7 +8347,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B71" s="8"/>
@@ -8332,12 +8359,48 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="6"/>
       <c r="D72" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="6">
+        <f t="shared" ref="A73:A75" si="5">ROW()-2</f>
+        <v>71</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="6">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="6">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -8355,7 +8418,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -8408,794 +8471,867 @@
         <v>34</v>
       </c>
       <c r="D3" s="14" t="str">
-        <f t="shared" ref="D3:D46" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D53" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_LOG12000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="36">
+    <row r="4" spans="1:4">
       <c r="A4" s="7">
-        <f t="shared" ref="A4:A55" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="26">
+        <v>12001</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="36">
+      <c r="A5" s="7">
+        <f t="shared" ref="A5:A61" si="1">ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
         <v>12002</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14" t="str">
+      <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG12002=テンプレートの動的変換処理を終了します。</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="36">
-      <c r="A5" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="12">
+    <row r="6" spans="1:4">
+      <c r="A6" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="26">
+        <v>12003</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="36">
+      <c r="A7" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
         <v>12004</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14" t="str">
+      <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG12004=CSVファイルに書き込む処理を開始します。</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
-      <c r="A6" s="7">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="12">
+    <row r="8" spans="1:4" ht="36">
+      <c r="A8" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
         <v>12006</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG12006=CSVファイルに書き込む処理を終了します。</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="12">
+    <row r="9" spans="1:4">
+      <c r="A9" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
         <v>12007</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG12007=挿入SQL出力に失敗しました。</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="36">
-      <c r="A8" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="12">
+    <row r="10" spans="1:4" ht="36">
+      <c r="A10" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
         <v>13000</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="14" t="str">
+      <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="36">
-      <c r="A9" s="7">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="12">
+    <row r="11" spans="1:4" ht="36">
+      <c r="A11" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
         <v>13001</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="14" t="str">
+      <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="36">
-      <c r="A10" s="7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="9">
+    <row r="12" spans="1:4" ht="36">
+      <c r="A12" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
         <v>31000</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14" t="str">
+      <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31000=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="36">
-      <c r="A11" s="7">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="9">
+    <row r="13" spans="1:4" ht="36">
+      <c r="A13" s="7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
         <v>31001</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="14" t="str">
+      <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="36">
-      <c r="A12" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="9">
+    <row r="14" spans="1:4" ht="36">
+      <c r="A14" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
         <v>31002</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="36">
-      <c r="A13" s="7">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="9">
+    <row r="15" spans="1:4" ht="36">
+      <c r="A15" s="7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
         <v>31003</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="14" t="str">
+      <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31003=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="36">
-      <c r="A14" s="7">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="9">
+    <row r="16" spans="1:4" ht="36">
+      <c r="A16" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
         <v>31004</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="14" t="str">
+      <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31004=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36">
-      <c r="A15" s="7">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="9">
+    <row r="17" spans="1:4" ht="36">
+      <c r="A17" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
         <v>31005</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="14" t="str">
+      <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31005=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="36">
-      <c r="A16" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="9">
+    <row r="18" spans="1:4" ht="36">
+      <c r="A18" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
         <v>31006</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="14" t="str">
+      <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31006=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="36">
-      <c r="A17" s="7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="9">
+    <row r="19" spans="1:4" ht="36">
+      <c r="A19" s="7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
         <v>31007</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14" t="str">
+      <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31007=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="36">
-      <c r="A18" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="9">
+    <row r="20" spans="1:4" ht="36">
+      <c r="A20" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
         <v>31008</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="14" t="str">
+      <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31008=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="36">
-      <c r="A19" s="7">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="9">
+    <row r="21" spans="1:4" ht="36">
+      <c r="A21" s="7">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
         <v>31009</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="14" t="str">
+      <c r="D21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31009=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="36">
-      <c r="A20" s="7">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="9">
+    <row r="22" spans="1:4" ht="36">
+      <c r="A22" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="9">
         <v>31010</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="14" t="str">
+      <c r="D22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31010=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="36">
-      <c r="A21" s="7">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="9">
+    <row r="23" spans="1:4" ht="36">
+      <c r="A23" s="7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="9">
         <v>31011</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="14" t="str">
+      <c r="D23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31011=CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36">
-      <c r="A22" s="7">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="9">
+    <row r="24" spans="1:4" ht="36">
+      <c r="A24" s="7">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="9">
         <v>31012</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="14" t="str">
+      <c r="D24" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31012=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="36">
-      <c r="A23" s="7">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="9">
+    <row r="25" spans="1:4" ht="36">
+      <c r="A25" s="7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="9">
         <v>31013</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="14" t="str">
+      <c r="D25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31013=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36">
-      <c r="A24" s="7">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="9">
+    <row r="26" spans="1:4" ht="36">
+      <c r="A26" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="9">
         <v>31014</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="14" t="str">
+      <c r="D26" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31014=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="36">
-      <c r="A25" s="7">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="9">
+    <row r="27" spans="1:4" ht="36">
+      <c r="A27" s="7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="9">
         <v>31015</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="14" t="str">
+      <c r="D27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31015=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="36">
-      <c r="A26" s="7">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="9">
+    <row r="28" spans="1:4" ht="36">
+      <c r="A28" s="7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="9">
         <v>31016</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="14" t="str">
+      <c r="D28" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="36">
-      <c r="A27" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="9">
+    <row r="29" spans="1:4" ht="36">
+      <c r="A29" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="9">
         <v>31017</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="14" t="str">
+      <c r="D29" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="36">
-      <c r="A28" s="7">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="9">
+    <row r="30" spans="1:4" ht="36">
+      <c r="A30" s="7">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="9">
         <v>31018</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="14" t="str">
+      <c r="D30" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31018=CSVファイルに書き込み完了。コメント=[{0}]</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="36">
-      <c r="A29" s="7">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="9">
+    <row r="31" spans="1:4" ht="36">
+      <c r="A31" s="7">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="9">
         <v>31019</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="14" t="str">
+      <c r="D31" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31019=Javadocタグ設定処理を開始します。</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="36">
-      <c r="A30" s="7">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="9">
+    <row r="32" spans="1:4" ht="36">
+      <c r="A32" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="9">
         <v>31020</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="14" t="str">
+      <c r="D32" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31020=Javadocタグ設定処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="54">
-      <c r="A31" s="7">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="9">
+    <row r="33" spans="1:4" ht="54">
+      <c r="A33" s="7">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="9">
         <v>31021</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="14" t="str">
+      <c r="D33" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31021=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="54">
-      <c r="A32" s="7">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="9">
+    <row r="34" spans="1:4" ht="54">
+      <c r="A34" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="9">
         <v>31022</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="14" t="str">
+      <c r="D34" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31022=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="90">
-      <c r="A33" s="7">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="9">
+    <row r="35" spans="1:4" ht="90">
+      <c r="A35" s="7">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="9">
         <v>31023</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="14" t="str">
+      <c r="D35" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31023=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="90">
-      <c r="A34" s="7">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="9">
+    <row r="36" spans="1:4" ht="90">
+      <c r="A36" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="9">
         <v>31024</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="14" t="str">
+      <c r="D36" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31024=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="36">
-      <c r="A35" s="7">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="9">
+    <row r="37" spans="1:4" ht="36">
+      <c r="A37" s="7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="9">
         <v>31025</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="14" t="str">
+      <c r="D37" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31025=対象のファイルの処理を開始します。対象のファイルのパス=[{0}]</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="36">
-      <c r="A36" s="7">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="9">
+    <row r="38" spans="1:4" ht="36">
+      <c r="A38" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="9">
         <v>31026</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="14" t="str">
-        <f t="shared" ref="D36" si="2">IF(C36="","",$D$1&amp;TEXT(B36,"00000")&amp;"="&amp;C36)</f>
+      <c r="D38" s="14" t="str">
+        <f t="shared" ref="D38" si="2">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
         <v>KMGTOOL_LOG31026=対象のファイルの処理を終了します。対象のファイルのパス=[{0}]</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="36">
-      <c r="A37" s="7">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="9">
+    <row r="39" spans="1:4" ht="36">
+      <c r="A39" s="7">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="9">
         <v>31027</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="14" t="str">
+      <c r="D39" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG31027=削除した行数=[{0}] Javadoc行の削除が完了しました。</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="36">
-      <c r="A38" s="7">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="9">
+    <row r="40" spans="1:4">
+      <c r="A40" s="7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="27">
+        <v>32000</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="7">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="27">
+        <v>32001</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="27">
+        <v>32002</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="7">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="27">
+        <v>32003</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="7">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="27">
+        <v>32004</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" ht="36">
+      <c r="A45" s="7">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="9">
         <v>32005</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="14" t="str">
+      <c r="D45" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG32005=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="36">
-      <c r="A39" s="7">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="9">
+    <row r="46" spans="1:4" ht="36">
+      <c r="A46" s="7">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="9">
         <v>33000</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="14" t="str">
+      <c r="D46" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG33000=Javadocタグ設定のコードの解析に失敗しました。識別子=[{0}]、オリジナルブロック=[{1}]</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="7">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="9">
+    <row r="47" spans="1:4">
+      <c r="A47" s="7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="9">
         <v>41000</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="14" t="str">
+      <c r="D47" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41000=初期化の失敗</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="9">
+    <row r="48" spans="1:4">
+      <c r="A48" s="7">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="9">
         <v>41001</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="14" t="str">
+      <c r="D48" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41001=初期化の失敗</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="7">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="9">
+    <row r="49" spans="1:4">
+      <c r="A49" s="7">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="9">
         <v>41002</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="14" t="str">
+      <c r="D49" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG41002=初期化で例外が発生しました。</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="36">
-      <c r="A43" s="7">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="9">
+    <row r="50" spans="1:4" ht="36">
+      <c r="A50" s="7">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="9">
         <v>43000</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="14" t="str">
+      <c r="D50" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG43000=挿入SQL作成画面の実行ボタンの処理に失敗しました。</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="36">
-      <c r="A44" s="7">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="9">
+    <row r="51" spans="1:4" ht="36">
+      <c r="A51" s="7">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="9">
         <v>43001</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="14" t="str">
+      <c r="D51" s="14" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG43001=挿入SQL作成ツールの開始に失敗しました。</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="7">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="14" t="str">
+    <row r="52" spans="1:4">
+      <c r="A52" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="7">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="14" t="str">
+    <row r="53" spans="1:4">
+      <c r="A53" s="7">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="7">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="14" t="str">
-        <f t="shared" ref="D47:D48" si="3">IF(C47="","",$D$1&amp;TEXT(B47,"00000")&amp;"="&amp;C47)</f>
+    <row r="54" spans="1:4">
+      <c r="A54" s="7">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="14" t="str">
+        <f t="shared" ref="D54:D55" si="3">IF(C54="","",$D$1&amp;TEXT(B54,"00000")&amp;"="&amp;C54)</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="7">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="14" t="str">
+    <row r="55" spans="1:4">
+      <c r="A55" s="7">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="7">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="14" t="str">
-        <f t="shared" ref="D49" si="4">IF(C49="","",$D$1&amp;TEXT(B49,"00000")&amp;"="&amp;C49)</f>
+    <row r="56" spans="1:4">
+      <c r="A56" s="7">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="14" t="str">
+        <f t="shared" ref="D56" si="4">IF(C56="","",$D$1&amp;TEXT(B56,"00000")&amp;"="&amp;C56)</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="7">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="14" t="str">
-        <f t="shared" ref="D50:D55" si="5">IF(C50="","",$D$1&amp;TEXT(B50,"00000")&amp;"="&amp;C50)</f>
+    <row r="57" spans="1:4">
+      <c r="A57" s="7">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="14" t="str">
+        <f t="shared" ref="D57:D62" si="5">IF(C57="","",$D$1&amp;TEXT(B57,"00000")&amp;"="&amp;C57)</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="7">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="14" t="str">
+    <row r="58" spans="1:4">
+      <c r="A58" s="7">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="7">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="14" t="str">
+    <row r="59" spans="1:4">
+      <c r="A59" s="7">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="7">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="14" t="str">
+    <row r="60" spans="1:4">
+      <c r="A60" s="7">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="7">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="14" t="str">
+    <row r="61" spans="1:4">
+      <c r="A61" s="7">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="7">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="14" t="str">
+    <row r="62" spans="1:4">
+      <c r="B62" s="7"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6906C8D5-ACC0-451E-B4F2-14877C710238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8D92A3-BB2B-491D-B8E2-88A2DD69B7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,34 +217,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CSVファイルに書き込む処理を開始します。</t>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CSVファイルに書き込み中にエラーが発生しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クリア処理中にエラーが発生しました。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -254,22 +230,6 @@
   </si>
   <si>
     <t>1行データの読み込み中にエラーが発生しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</t>
-    <rPh sb="0" eb="3">
-      <t>イチジテキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -374,10 +334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -398,26 +354,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CSVファイルに書き込み完了。コメント=[{0}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CSVファイルに書き込む処理を終了します。</t>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -462,9 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</t>
-  </si>
-  <si>
     <t>タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</t>
   </si>
   <si>
@@ -478,9 +411,6 @@
   </si>
   <si>
     <t>出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}]、 テンプレートパス：[{1}]、 出力ファイルパス=[{2}]</t>
-  </si>
-  <si>
-    <t>CSVの列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</t>
   </si>
   <si>
     <t>Javadocタグ設定処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</t>
@@ -609,8 +539,73 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>書き込み対象のCSVデータの最後がリストに存在しません。</t>
+    <t>一時的な中間ファイルの作成に失敗しました。中間ファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</t>
+    <rPh sb="0" eb="3">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間の列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</t>
+  </si>
+  <si>
+    <t>中間データの書き込みに失敗しました。出力ファイルパス=[{0}]</t>
+  </si>
+  <si>
+    <t>書き込み対象の中間データの最後がリストに存在しません。</t>
+  </si>
+  <si>
+    <t>中間ファイルに書き込む処理を開始します。</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間ファイルに書き込む処理を終了します。</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間ファイルに書き込み中にエラーが発生しました。</t>
+  </si>
+  <si>
+    <t>中間ファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</t>
+  </si>
+  <si>
+    <t>中間ファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</t>
+  </si>
+  <si>
+    <t>中間ファイルに書き込み完了。コメント=[{0}]</t>
   </si>
 </sst>
 </file>
@@ -807,12 +802,6 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -827,6 +816,12 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7264,11 +7259,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
@@ -7296,11 +7291,11 @@
         <v>12000</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D3" s="14" t="str">
         <f t="shared" ref="D3:D12" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGTOOL_GEN12000=一時的なCSVファイルの作成に失敗しました。CSVファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
+        <v>KMGTOOL_GEN12000=一時的な中間ファイルの作成に失敗しました。中間ファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
@@ -7312,7 +7307,7 @@
         <v>12001</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7328,7 +7323,7 @@
         <v>12002</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7344,7 +7339,7 @@
         <v>12003</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7360,7 +7355,7 @@
         <v>12004</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7376,7 +7371,7 @@
         <v>12005</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7392,7 +7387,7 @@
         <v>12006</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7408,7 +7403,7 @@
         <v>12007</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7424,7 +7419,7 @@
         <v>12008</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7440,7 +7435,7 @@
         <v>12009</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7456,7 +7451,7 @@
         <v>12010</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D13" s="14" t="str">
         <f t="shared" ref="D13" si="2">IF(C13="","",$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
@@ -7472,7 +7467,7 @@
         <v>13000</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" s="14" t="str">
         <f t="shared" ref="D14:D63" si="3">IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
@@ -7488,7 +7483,7 @@
         <v>13001</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D15" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7504,7 +7499,7 @@
         <v>13002</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7520,7 +7515,7 @@
         <v>13003</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D17" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7536,11 +7531,11 @@
         <v>13004</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN13004=CSVの列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</v>
+        <v>KMGTOOL_GEN13004=中間の列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="36">
@@ -7552,11 +7547,11 @@
         <v>13005</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN13005=CSVデータの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_GEN13005=中間データの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="36">
@@ -7568,7 +7563,7 @@
         <v>13006</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7616,7 +7611,7 @@
         <v>13009</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D23" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7632,11 +7627,11 @@
         <v>13010</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D24" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN13010=書き込み対象のCSVデータの最後がリストに存在しません。</v>
+        <v>KMGTOOL_GEN13010=書き込み対象の中間データの最後がリストに存在しません。</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7696,7 +7691,7 @@
         <v>31003</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D28" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7712,7 +7707,7 @@
         <v>31004</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D29" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7728,7 +7723,7 @@
         <v>31005</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D30" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7744,7 +7739,7 @@
         <v>31006</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D31" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7772,10 +7767,10 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="25">
         <v>31008</v>
       </c>
-      <c r="C33" s="24"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4">
@@ -7783,10 +7778,10 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="26">
         <v>31009</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" ht="36">
@@ -7798,7 +7793,7 @@
         <v>31010</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D35" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7814,7 +7809,7 @@
         <v>31011</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D36" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7830,7 +7825,7 @@
         <v>31012</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D37" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7846,7 +7841,7 @@
         <v>31013</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D38" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7862,7 +7857,7 @@
         <v>31014</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D39" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7942,7 +7937,7 @@
         <v>32004</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D44" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7958,7 +7953,7 @@
         <v>32005</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D45" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7974,7 +7969,7 @@
         <v>32006</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D46" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7990,7 +7985,7 @@
         <v>32007</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D47" s="14" t="str">
         <f t="shared" si="3"/>
@@ -8006,7 +8001,7 @@
         <v>32008</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D48" s="14" t="str">
         <f t="shared" si="3"/>
@@ -8054,7 +8049,7 @@
         <v>32011</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D51" s="14" t="str">
         <f t="shared" si="3"/>
@@ -8070,7 +8065,7 @@
         <v>32012</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D52" s="14" t="str">
         <f t="shared" si="3"/>
@@ -8086,7 +8081,7 @@
         <v>32013</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D53" s="14" t="str">
         <f t="shared" si="3"/>
@@ -8102,7 +8097,7 @@
         <v>32014</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D54" s="14" t="str">
         <f t="shared" si="3"/>
@@ -8118,7 +8113,7 @@
         <v>32015</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D55" s="14" t="str">
         <f t="shared" si="3"/>
@@ -8134,7 +8129,7 @@
         <v>32016</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D56" s="14" t="str">
         <f t="shared" si="3"/>
@@ -8198,7 +8193,7 @@
         <v>41003</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D60" s="14" t="str">
         <f t="shared" si="3"/>
@@ -8214,7 +8209,7 @@
         <v>41004</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D61" s="14" t="str">
         <f t="shared" si="3"/>
@@ -8230,7 +8225,7 @@
         <v>41005</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D62" s="14" t="str">
         <f t="shared" si="3"/>
@@ -8246,7 +8241,7 @@
         <v>41006</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D63" s="14" t="str">
         <f t="shared" si="3"/>
@@ -8262,7 +8257,7 @@
         <v>41007</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D64" s="14" t="str">
         <f t="shared" ref="D64:D75" si="4">IF(C64="","",$D$1&amp;TEXT(B64,"00000")&amp;"="&amp;C64)</f>
@@ -8278,7 +8273,7 @@
         <v>41008</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D65" s="14" t="str">
         <f t="shared" si="4"/>
@@ -8436,11 +8431,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
@@ -8468,7 +8463,7 @@
         <v>12000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="14" t="str">
         <f t="shared" ref="D3:D53" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -8480,10 +8475,10 @@
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>12001</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="36">
@@ -8495,7 +8490,7 @@
         <v>12002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8507,10 +8502,10 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>12003</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="36">
@@ -8522,11 +8517,11 @@
         <v>12004</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG12004=CSVファイルに書き込む処理を開始します。</v>
+        <v>KMGTOOL_LOG12004=中間ファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36">
@@ -8538,11 +8533,11 @@
         <v>12006</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG12006=CSVファイルに書き込む処理を終了します。</v>
+        <v>KMGTOOL_LOG12006=中間ファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8554,7 +8549,7 @@
         <v>12007</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8570,7 +8565,7 @@
         <v>13000</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8586,7 +8581,7 @@
         <v>13001</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8602,7 +8597,7 @@
         <v>31000</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8618,11 +8613,11 @@
         <v>31001</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31001=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31001=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="36">
@@ -8634,11 +8629,11 @@
         <v>31002</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D14" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31002=CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
+        <v>KMGTOOL_LOG31002=中間ファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="36">
@@ -8650,7 +8645,7 @@
         <v>31003</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8666,7 +8661,7 @@
         <v>31004</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8682,7 +8677,7 @@
         <v>31005</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8698,7 +8693,7 @@
         <v>31006</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8714,7 +8709,7 @@
         <v>31007</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8730,7 +8725,7 @@
         <v>31008</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8746,7 +8741,7 @@
         <v>31009</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8762,11 +8757,11 @@
         <v>31010</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D22" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31010=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31010=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="36">
@@ -8778,11 +8773,11 @@
         <v>31011</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D23" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31011=CSVファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
+        <v>KMGTOOL_LOG31011=中間ファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="36">
@@ -8794,11 +8789,11 @@
         <v>31012</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D24" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31012=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31012=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="36">
@@ -8810,7 +8805,7 @@
         <v>31013</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D25" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8826,7 +8821,7 @@
         <v>31014</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D26" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8842,7 +8837,7 @@
         <v>31015</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D27" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8858,11 +8853,11 @@
         <v>31016</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D28" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31016=CSVファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG31016=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="36">
@@ -8874,11 +8869,11 @@
         <v>31017</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D29" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31017=CSVファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
+        <v>KMGTOOL_LOG31017=中間ファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="36">
@@ -8890,11 +8885,11 @@
         <v>31018</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D30" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG31018=CSVファイルに書き込み完了。コメント=[{0}]</v>
+        <v>KMGTOOL_LOG31018=中間ファイルに書き込み完了。コメント=[{0}]</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="36">
@@ -8906,7 +8901,7 @@
         <v>31019</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D31" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8922,7 +8917,7 @@
         <v>31020</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D32" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8938,7 +8933,7 @@
         <v>31021</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D33" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8954,7 +8949,7 @@
         <v>31022</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D34" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8970,7 +8965,7 @@
         <v>31023</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D35" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8986,7 +8981,7 @@
         <v>31024</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D36" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9002,7 +8997,7 @@
         <v>31025</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D37" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9018,7 +9013,7 @@
         <v>31026</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D38" s="14" t="str">
         <f t="shared" ref="D38" si="2">IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
@@ -9034,7 +9029,7 @@
         <v>31027</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D39" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9046,10 +9041,10 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="25">
         <v>32000</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4">
@@ -9057,10 +9052,10 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="25">
         <v>32001</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4">
@@ -9068,10 +9063,10 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="25">
         <v>32002</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4">
@@ -9079,10 +9074,10 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B43" s="25">
         <v>32003</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4">
@@ -9090,10 +9085,10 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44" s="25">
         <v>32004</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" ht="36">
@@ -9105,7 +9100,7 @@
         <v>32005</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D45" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9121,7 +9116,7 @@
         <v>33000</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D46" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9185,7 +9180,7 @@
         <v>43000</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D50" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9201,7 +9196,7 @@
         <v>43001</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D51" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9368,13 +9363,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9400,7 +9395,7 @@
         <v>33000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D3" s="14" t="str">
         <f t="shared" ref="D3:D52" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -9416,7 +9411,7 @@
         <v>33001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D4" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9432,7 +9427,7 @@
         <v>33002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9448,7 +9443,7 @@
         <v>33003</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9464,7 +9459,7 @@
         <v>33004</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9480,7 +9475,7 @@
         <v>33005</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9496,7 +9491,7 @@
         <v>33006</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9512,7 +9507,7 @@
         <v>33007</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9528,7 +9523,7 @@
         <v>33008</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9544,7 +9539,7 @@
         <v>33009</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9560,7 +9555,7 @@
         <v>33010</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588BB2CB-D894-42EB-BBA7-747949E6DC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E247F750-170F-4A7B-A9D5-B3471B9878DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="5" r:id="rId1"/>
-    <sheet name="メッセージ新旧" sheetId="6" r:id="rId2"/>
-    <sheet name="ログ一覧" sheetId="8" r:id="rId3"/>
-    <sheet name="ログ新旧" sheetId="9" r:id="rId4"/>
-    <sheet name="バリデーション一覧" sheetId="10" r:id="rId5"/>
-    <sheet name="バリデーション新旧" sheetId="11" r:id="rId6"/>
-    <sheet name="リスト" sheetId="2" r:id="rId7"/>
+    <sheet name="ログ一覧" sheetId="8" r:id="rId2"/>
+    <sheet name="バリデーション一覧" sheetId="10" r:id="rId3"/>
+    <sheet name="リスト" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="種類">リスト!$A$2:$A$4</definedName>
@@ -47,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -593,725 +590,6 @@
   </si>
   <si>
     <t>中間ファイルに書き込み完了。コメント=[{0}]</t>
-  </si>
-  <si>
-    <t>旧</t>
-    <rPh sb="0" eb="1">
-      <t>キュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN12000</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN12001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN12002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN12004</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN12005</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN12006</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN12007</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN12008</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN12009</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN12010</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13000</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13003</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13004</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13005</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13006</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13007</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13008</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13009</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13010</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN31000</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN31001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN31002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN31003</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN31004</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN31005</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN31006</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN31007</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN31010</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32000</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32003</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32004</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32005</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32006</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32007</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32008</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32009</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32010</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32011</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32012</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32013</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32014</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32015</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN32016</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN41000</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN41001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN41002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN41003</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN41004</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN41005</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN41006</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN41007</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN41008</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN01000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN01001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN03003</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN01002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN01003</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN03000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN03001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN03002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN03004</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN03005</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN03006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN04000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN04001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN04002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN05000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN05001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN05002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN05003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN07000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN07001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN07002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN07003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN07004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN07005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN07006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN08000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN08001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN08002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN09000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN09001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN09002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN10000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN10001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN10002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN10003</t>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN12000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN12003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN13007</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN14000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN14001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN14002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN14003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN15000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN16000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN16001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG12000</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG12002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG12004</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG12006</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG12007</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG13000</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG13001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31000</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31003</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31004</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31005</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31006</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31007</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31008</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31009</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31010</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31011</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31012</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31013</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31014</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31015</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31016</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31017</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31018</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31019</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31020</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31021</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31022</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31023</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31024</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31025</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31026</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31027</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG32005</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG33000</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG41000</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG41001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG41002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG43000</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG43001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG01000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG31001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG01001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG01002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG01003</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG01004</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG03000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG03001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG04000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG04001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG04002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG04003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG04004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG05000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG05001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG05002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG05003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG05004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG07000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG07001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG07002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG07003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG10000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG10001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG10002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG12000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG13000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG13001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG14001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG13002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG13003</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG13004</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG13005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG13006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG13007</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG13008</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG14000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG14002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG14003</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG14004</t>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG15000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG15001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_LOG17000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL33001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL33002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL33003</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL33004</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL33005</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL33006</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL33007</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL33008</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL33009</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL33010</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL33000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL13000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL13001</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL13002</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL13003</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL13004</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL13005</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL13006</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL13007</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL13008</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL13009</t>
-  </si>
-  <si>
-    <t>KMGTOOL_VAL13010</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +652,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1390,12 +668,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1496,25 +768,19 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2080,548 +1346,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1987550" cy="5949950"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ADBB5CD-3216-453C-BC18-95A51FB2B426}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="292100"/>
-          <a:ext cx="1987550" cy="5949950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の例</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOL_GEN</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>00000</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■プリフィックス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOL_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>GEN</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■連番の範囲</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>00000</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>～</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>99999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>桁目の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>区分け</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>00…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>共通</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>01…acccrt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>02…cmn</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>03…dtc</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>04…e2scc</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>05…fldcrt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>06…ifacccrt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>07…iito</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>08…input</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>09…io</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>10…is</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>11…jdoc.domain</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>12…jdocr</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>13…jdts</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>14…msgtpcrt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>15…one2one</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>16…simple</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>17…two2one</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>18…val</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>■</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>桁目以降は、連番</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -3160,549 +1884,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1987550" cy="5949950"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2B2FD0-8D57-4639-92F2-EF7073684C65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6623050" y="273050"/>
-          <a:ext cx="1987550" cy="5949950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の例</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOL_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LOG00000</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■プリフィックス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOL_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LOG</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■連番の範囲</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>00000</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>～</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>99999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>桁目の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>区分け</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>00…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>共通</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>01…acccrt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>02…cmn</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>03…dtc</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>04…e2scc</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>05…fldcrt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>06…ifacccrt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>07…iito</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>08…input</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>09…io</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>10…is</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>11…jdoc.domain</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>12…jdocr</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>13…jdts</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>14…msgtpcrt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>15…one2one</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>16…simple</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>17…two2one</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>18…val</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>■</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>桁目以降は、連番</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3726,547 +1908,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12134850" y="495300"/>
-          <a:ext cx="1987550" cy="5949950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の例</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOL_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>VAL00000</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■プリフィックス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOL_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>VAL</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■連番の範囲</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>00000</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>～</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>99999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>桁目の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>区分け</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>00…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>共通</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>01…acccrt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>02…cmn</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>03…dtc</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>04…e2scc</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>05…fldcrt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>06…ifacccrt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>07…iito</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>08…input</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>09…io</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>10…is</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>11…jdoc.domain</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>12…jdocr</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>13…jdts</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>14…msgtpcrt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>15…one2one</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>16…simple</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>17…two2one</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>18…val</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>■</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>桁目以降は、連番</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1987550" cy="5949950"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F483A13A-77E7-4537-A052-5FBA42D15F4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2686050" y="279400"/>
           <a:ext cx="1987550" cy="5949950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5067,11 +2708,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
@@ -5095,1014 +2736,1014 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="18">
         <v>1000</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="12" t="str">
-        <f>IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D34" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN01000=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A65" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A65" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="18">
         <v>1001</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="12" t="str">
-        <f>IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN01001=項目名がnullです。</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="18">
         <v>1002</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="12" t="str">
-        <f>IF(C5="","",$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN01002=Javadocコメントがnullです。</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="18">
         <v>1003</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="12" t="str">
-        <f>IF(C6="","",$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN01003=型情報がnullです。</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="36">
       <c r="A7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="9">
         <v>3000</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="12" t="str">
-        <f>IF(C7="","",$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN03000=テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0}]</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36">
       <c r="A8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="9">
         <v>3001</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="12" t="str">
-        <f>IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN03001=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54">
       <c r="A9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="9">
         <v>3002</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="12" t="str">
-        <f>IF(C9="","",$D$1&amp;TEXT(B9,"00000")&amp;"="&amp;C9)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN03002=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}]、 テンプレートパス：[{1}]、 出力ファイルパス=[{2}]</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="36">
       <c r="A10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="9">
         <v>3003</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="12" t="str">
-        <f>IF(C10="","",$D$1&amp;TEXT(B10,"00000")&amp;"="&amp;C10)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN03003=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36">
       <c r="A11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="9">
         <v>3004</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="12" t="str">
-        <f>IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN03004=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="36">
       <c r="A12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="9">
         <v>3005</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="12" t="str">
-        <f>IF(C12="","",$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN03005=中間の列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36">
       <c r="A13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="9">
         <v>3006</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="12" t="str">
-        <f>IF(C13="","",$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN03006=テンプレートの動的変換ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="18">
         <v>4000</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f>IF(C14="","",$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN04000=項目名がnullです。</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="18">
         <v>4001</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="12" t="str">
-        <f>IF(C15="","",$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN04001=項目名がnullです。</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="36">
       <c r="A16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="18">
         <v>4002</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="12" t="str">
-        <f>IF(C16="","",$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN04002=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="18">
         <v>5000</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="12" t="str">
-        <f>IF(C17="","",$D$1&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN05000=コメントがnullです。</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="18">
         <v>5001</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="12" t="str">
-        <f>IF(C18="","",$D$1&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN05001=フィールドがnullです。</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="18">
         <v>5002</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="12" t="str">
-        <f>IF(C19="","",$D$1&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN05002=型がnullです。</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="36">
       <c r="A20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="9">
         <v>5003</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="12" t="str">
-        <f>IF(C20="","",$D$1&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN05003=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="18">
         <v>7000</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="12" t="str">
-        <f>IF(C21="","",$D$1&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN07000=1行読み込みに失敗しました。</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="36">
       <c r="A22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="18">
         <v>7001</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="12" t="str">
-        <f>IF(C22="","",$D$1&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN07001=中間データの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="36">
       <c r="A23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="18">
         <v>7002</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="12" t="str">
-        <f>IF(C23="","",$D$1&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN07002=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="36">
       <c r="A24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="18">
         <v>7003</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="12" t="str">
-        <f>IF(C24="","",$D$1&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN07003=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="36">
       <c r="A25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="18">
         <v>7004</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="12" t="str">
-        <f>IF(C25="","",$D$1&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN07004=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="36">
       <c r="A26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="18">
         <v>7005</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D26" s="12" t="str">
-        <f>IF(C26="","",$D$1&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN07005=書き込み対象の中間データの最後がリストに存在しません。</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="36">
       <c r="A27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="18">
         <v>7006</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D27" s="12" t="str">
-        <f>IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN07006=一時的な中間ファイルの作成に失敗しました。中間ファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="9">
         <v>8000</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="12" t="str">
-        <f>IF(C28="","",$D$1&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN08000=入力ファイルパスがnullです。</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="9">
         <v>8001</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="12" t="str">
-        <f>IF(C29="","",$D$1&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN08001=入力パスファイルが存在しません。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="36">
       <c r="A30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="9">
         <v>8002</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D30" s="12" t="str">
-        <f>IF(C30="","",$D$1&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN08002=入力ファイルの読み込みに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="9">
         <v>9000</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="12" t="str">
-        <f>IF(C31="","",$D$1&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN09000=失敗</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="9">
         <v>9001</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="12" t="str">
-        <f>IF(C32="","",$D$1&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN09001=成功</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="9">
         <v>9002</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="12" t="str">
-        <f>IF(C33="","",$D$1&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN09002=例外発生</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="36">
       <c r="A34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="18">
         <v>10000</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D34" s="12" t="str">
-        <f>IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
+        <f t="shared" si="0"/>
         <v>KMGTOOL_GEN10000=出力ファイルのディレクトリの作成に失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="18">
         <v>10001</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="12" t="str">
-        <f>IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+        <f t="shared" ref="D35:D66" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
         <v>KMGTOOL_GEN10001=暗号化されたファイルです。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="36">
       <c r="A36" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="18">
         <v>10002</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D36" s="12" t="str">
-        <f>IF(C36="","",$D$1&amp;TEXT(B36,"00000")&amp;"="&amp;C36)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN10002=入力ファイルのパスの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="36">
       <c r="A37" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="18">
         <v>10003</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>87</v>
       </c>
       <c r="D37" s="12" t="str">
-        <f>IF(C37="","",$D$1&amp;TEXT(B37,"00000")&amp;"="&amp;C37)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN10003=出力ファイルへの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="36">
       <c r="A38" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="18">
         <v>12000</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>77</v>
       </c>
       <c r="D38" s="12" t="str">
-        <f>IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12000=ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="36">
       <c r="A39" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="18">
         <v>12001</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D39" s="12" t="str">
-        <f>IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12001=ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="36">
       <c r="A40" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="18">
         <v>12002</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D40" s="12" t="str">
-        <f>IF(C40="","",$D$1&amp;TEXT(B40,"00000")&amp;"="&amp;C40)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12002=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="18">
         <v>12003</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="12" t="str">
-        <f>IF(C41="","",$D$1&amp;TEXT(B41,"00000")&amp;"="&amp;C41)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12003=Javadoc行削除の初期化に失敗しました。</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="18">
         <v>12004</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>82</v>
       </c>
       <c r="D42" s="12" t="str">
-        <f>IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12004=Javadoc行削除が正常に完了しました。</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="18">
         <v>12005</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>83</v>
       </c>
       <c r="D43" s="12" t="str">
-        <f>IF(C43="","",$D$1&amp;TEXT(B43,"00000")&amp;"="&amp;C43)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12005=Javadoc行削除中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="54">
       <c r="A44" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="18">
         <v>13000</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="12" t="str">
-        <f>IF(C44="","",$D$1&amp;TEXT(B44,"00000")&amp;"="&amp;C44)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13000=Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="36">
       <c r="A45" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="18">
         <v>13001</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="12" t="str">
-        <f>IF(C45="","",$D$1&amp;TEXT(B45,"00000")&amp;"="&amp;C45)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13001=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="36">
       <c r="A46" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="18">
         <v>13002</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="12" t="str">
-        <f>IF(C46="","",$D$1&amp;TEXT(B46,"00000")&amp;"="&amp;C46)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13002=Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="36">
       <c r="A47" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="9">
         <v>13003</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D47" s="12" t="str">
-        <f>IF(C47="","",$D$1&amp;TEXT(B47,"00000")&amp;"="&amp;C47)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13003=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="9">
         <v>13004</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="12" t="str">
-        <f>IF(C48="","",$D$1&amp;TEXT(B48,"00000")&amp;"="&amp;C48)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13004=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="9">
         <v>13005</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D49" s="12" t="str">
-        <f>IF(C49="","",$D$1&amp;TEXT(B49,"00000")&amp;"="&amp;C49)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13005=実行が成功しました。</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="9">
         <v>13006</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D50" s="12" t="str">
-        <f>IF(C50="","",$D$1&amp;TEXT(B50,"00000")&amp;"="&amp;C50)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13006=実行中に例外が発生しました。</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="9">
         <v>13007</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D51" s="12" t="str">
-        <f>IF(C51="","",$D$1&amp;TEXT(B51,"00000")&amp;"="&amp;C51)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13007=バリデーションエラーが発生しました。</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="18">
         <v>14000</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="12" t="str">
-        <f>IF(C52="","",$D$1&amp;TEXT(B52,"00000")&amp;"="&amp;C52)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14000=項目名がnullです。</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="18">
         <v>14001</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D53" s="12" t="str">
-        <f>IF(C53="","",$D$1&amp;TEXT(B53,"00000")&amp;"="&amp;C53)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14001=項目がnullです。</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="36">
       <c r="A54" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="18">
         <v>14002</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D54" s="12" t="str">
-        <f>IF(C54="","",$D$1&amp;TEXT(B54,"00000")&amp;"="&amp;C54)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14002=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="36">
       <c r="A55" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B55" s="18">
         <v>14003</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="12" t="str">
-        <f>IF(C55="","",$D$1&amp;TEXT(B55,"00000")&amp;"="&amp;C55)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14003=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56" s="19">
         <v>15000</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="12" t="str">
-        <f>IF(C56="","",$D$1&amp;TEXT(B56,"00000")&amp;"="&amp;C56)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN15000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="19">
         <v>16000</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="12" t="str">
-        <f>IF(C57="","",$D$1&amp;TEXT(B57,"00000")&amp;"="&amp;C57)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN16000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="36">
       <c r="A58" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="19">
         <v>16001</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="12" t="str">
-        <f>IF(C58="","",$D$1&amp;TEXT(B58,"00000")&amp;"="&amp;C58)</f>
+        <f t="shared" si="2"/>
         <v>KMGTOOL_GEN16001=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="6"/>
       <c r="D59" s="12" t="str">
-        <f>IF(C59="","",$D$1&amp;TEXT(B59,"00000")&amp;"="&amp;C59)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="6"/>
       <c r="D60" s="12" t="str">
-        <f>IF(C60="","",$D$1&amp;TEXT(B60,"00000")&amp;"="&amp;C60)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="6"/>
       <c r="D61" s="12" t="str">
-        <f>IF(C61="","",$D$1&amp;TEXT(B61,"00000")&amp;"="&amp;C61)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="6"/>
       <c r="D62" s="12" t="str">
-        <f>IF(C62="","",$D$1&amp;TEXT(B62,"00000")&amp;"="&amp;C62)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="6"/>
       <c r="D63" s="12" t="str">
-        <f>IF(C63="","",$D$1&amp;TEXT(B63,"00000")&amp;"="&amp;C63)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="6"/>
       <c r="D64" s="12" t="str">
-        <f>IF(C64="","",$D$1&amp;TEXT(B64,"00000")&amp;"="&amp;C64)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="6"/>
       <c r="D65" s="12" t="str">
-        <f>IF(C65="","",$D$1&amp;TEXT(B65,"00000")&amp;"="&amp;C65)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="6">
-        <f t="shared" ref="A66:A68" si="1">ROW()-2</f>
+        <f t="shared" ref="A66:A68" si="3">ROW()-2</f>
         <v>64</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="6"/>
       <c r="D66" s="12" t="str">
-        <f>IF(C66="","",$D$1&amp;TEXT(B66,"00000")&amp;"="&amp;C66)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="6"/>
       <c r="D67" s="12" t="str">
-        <f>IF(C67="","",$D$1&amp;TEXT(B67,"00000")&amp;"="&amp;C67)</f>
+        <f t="shared" ref="D67:D98" si="4">IF(C67="","",$D$1&amp;TEXT(B67,"00000")&amp;"="&amp;C67)</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="6"/>
       <c r="D68" s="12" t="str">
-        <f>IF(C68="","",$D$1&amp;TEXT(B68,"00000")&amp;"="&amp;C68)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6121,484 +3762,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE92092-ED3D-43D1-B30F-09B0F94E877E}">
-  <dimension ref="A1:B57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C58" sqref="C58"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18.5" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CB3296-486C-4511-ACF5-08A2019C9995}">
   <dimension ref="A1:D59"/>
   <sheetViews>
@@ -6606,7 +3769,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -6618,11 +3781,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
@@ -6646,15 +3809,15 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="21">
-        <v>3000</v>
+      <c r="B3" s="22">
+        <v>1000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D3" s="12" t="str">
         <f t="shared" ref="D3:D55" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGTOOL_LOG03000=テンプレートの動的変換処理を開始します。</v>
+        <v>KMGTOOL_LOG01000=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
@@ -6662,15 +3825,15 @@
         <f t="shared" ref="A4:A59" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="21">
-        <v>3001</v>
+      <c r="B4" s="22">
+        <v>1001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D4" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG03001=テンプレートの動的変換処理を終了します。</v>
+        <v>KMGTOOL_LOG01001=中間ファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="36">
@@ -6678,15 +3841,15 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="21">
-        <v>7002</v>
+      <c r="B5" s="22">
+        <v>1002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG07002=中間ファイルに書き込む処理を開始します。</v>
+        <v>KMGTOOL_LOG01002=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36">
@@ -6694,31 +3857,31 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="21">
-        <v>7003</v>
+      <c r="B6" s="22">
+        <v>1003</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="D6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG07003=中間ファイルに書き込む処理を終了します。</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>KMGTOOL_LOG01003=カラムの追加中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36">
       <c r="A7" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="21">
-        <v>10000</v>
+      <c r="B7" s="22">
+        <v>1004</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG10000=挿入SQL出力に失敗しました。</v>
+        <v>KMGTOOL_LOG01004=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36">
@@ -6726,15 +3889,15 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="21">
-        <v>7000</v>
+      <c r="B8" s="22">
+        <v>3000</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG07000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_LOG03000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36">
@@ -6742,15 +3905,15 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="21">
-        <v>7001</v>
+      <c r="B9" s="22">
+        <v>3001</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG07001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_LOG03001=テンプレートの動的変換処理を終了します。</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="36">
@@ -6758,15 +3921,15 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="21">
-        <v>5000</v>
+      <c r="B10" s="22">
+        <v>4000</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG05000=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG04000=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36">
@@ -6774,15 +3937,15 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="21">
-        <v>1000</v>
+      <c r="B11" s="22">
+        <v>4001</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="D11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG01000=中間ファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG04001=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="36">
@@ -6790,15 +3953,15 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="21">
-        <v>1001</v>
+      <c r="B12" s="22">
+        <v>4002</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG01001=中間ファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
+        <v>KMGTOOL_LOG04002=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36">
@@ -6806,15 +3969,15 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="21">
-        <v>1002</v>
+      <c r="B13" s="22">
+        <v>4003</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D13" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG01002=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG04003=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="36">
@@ -6822,15 +3985,15 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="21">
-        <v>1003</v>
+      <c r="B14" s="22">
+        <v>4004</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D14" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG01003=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG04004=中間ファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="36">
@@ -6838,15 +4001,15 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="21">
-        <v>1004</v>
+      <c r="B15" s="22">
+        <v>5000</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG01004=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG05000=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="36">
@@ -6854,15 +4017,15 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="21">
-        <v>4001</v>
+      <c r="B16" s="22">
+        <v>5001</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG04001=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG05001=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="36">
@@ -6870,15 +4033,15 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="21">
-        <v>4002</v>
+      <c r="B17" s="22">
+        <v>5002</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG04002=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG05002=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="36">
@@ -6886,15 +4049,15 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="21">
-        <v>5001</v>
+      <c r="B18" s="22">
+        <v>5003</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="D18" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG05001=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG05003=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="36">
@@ -6902,15 +4065,15 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="21">
-        <v>5002</v>
+      <c r="B19" s="22">
+        <v>5004</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D19" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG05002=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG05004=中間ファイルに書き込み完了。コメント=[{0}]</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="36">
@@ -6918,15 +4081,15 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="21">
-        <v>4003</v>
+      <c r="B20" s="22">
+        <v>7000</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="D20" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG04003=中間ファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG07000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="36">
@@ -6934,15 +4097,15 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="21">
-        <v>4004</v>
+      <c r="B21" s="22">
+        <v>7001</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D21" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG04004=中間ファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
+        <v>KMGTOOL_LOG07001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="36">
@@ -6950,15 +4113,15 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="21">
-        <v>5003</v>
+      <c r="B22" s="22">
+        <v>7002</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D22" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG05003=中間ファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG07002=中間ファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="36">
@@ -6966,31 +4129,31 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="21">
-        <v>14000</v>
+      <c r="B23" s="22">
+        <v>7003</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D23" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14000=クリア処理中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="36">
+        <v>KMGTOOL_LOG07003=中間ファイルに書き込む処理を終了します。</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="7">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="21">
-        <v>14001</v>
+      <c r="B24" s="22">
+        <v>10000</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="D24" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14001=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG10000=挿入SQL出力に失敗しました。</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="36">
@@ -6998,15 +4161,15 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="21">
-        <v>14002</v>
+      <c r="B25" s="22">
+        <v>10001</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D25" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14002=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG10001=挿入SQL作成画面の実行ボタンの処理に失敗しました。</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="36">
@@ -7014,15 +4177,15 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="21">
-        <v>14003</v>
+      <c r="B26" s="22">
+        <v>10002</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D26" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14003=中間ファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG10002=挿入SQL作成ツールの開始に失敗しました。</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="36">
@@ -7030,15 +4193,15 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="21">
-        <v>14004</v>
+      <c r="B27" s="22">
+        <v>12000</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D27" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14004=中間ファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
+        <v>KMGTOOL_LOG12000=削除した行数=[{0}] Javadoc行の削除が完了しました。</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="36">
@@ -7046,111 +4209,111 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="21">
-        <v>5004</v>
+      <c r="B28" s="22">
+        <v>13000</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D28" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG05004=中間ファイルに書き込み完了。コメント=[{0}]</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="36">
+        <v>KMGTOOL_LOG13000=Javadocタグ設定のコードの解析に失敗しました。識別子=[{0}]、オリジナルブロック=[{1}]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="54">
       <c r="A29" s="7">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="22">
+        <v>13001</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG13001=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="54">
+      <c r="A30" s="7">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="22">
+        <v>13002</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG13002=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="90">
+      <c r="A31" s="7">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="22">
+        <v>13003</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG13003=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="90">
+      <c r="A32" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="22">
+        <v>13004</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG13004=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="36">
+      <c r="A33" s="7">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="22">
         <v>13005</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="12" t="str">
+      <c r="D33" s="12" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13005=Javadocタグ設定処理を開始します。</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="36">
-      <c r="A30" s="7">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="21">
+    <row r="34" spans="1:4" ht="36">
+      <c r="A34" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="22">
         <v>13006</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="12" t="str">
+      <c r="D34" s="12" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13006=Javadocタグ設定処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="54">
-      <c r="A31" s="7">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="21">
-        <v>13001</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13001=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="54">
-      <c r="A32" s="7">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="21">
-        <v>13002</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13002=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="90">
-      <c r="A33" s="7">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="21">
-        <v>13003</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13003=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="90">
-      <c r="A34" s="7">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="21">
-        <v>13004</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13004=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="36">
@@ -7158,7 +4321,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="22">
         <v>13007</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -7174,7 +4337,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="22">
         <v>13008</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -7190,15 +4353,15 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="21">
-        <v>12000</v>
+      <c r="B37" s="22">
+        <v>14000</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D37" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG12000=削除した行数=[{0}] Javadoc行の削除が完了しました。</v>
+        <v>KMGTOOL_LOG14000=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="36">
@@ -7206,15 +4369,15 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="21">
-        <v>4000</v>
+      <c r="B38" s="22">
+        <v>14001</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG04000=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG14001=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="36">
@@ -7222,47 +4385,47 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="21">
-        <v>13000</v>
+      <c r="B39" s="22">
+        <v>14002</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="D39" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13000=Javadocタグ設定のコードの解析に失敗しました。識別子=[{0}]、オリジナルブロック=[{1}]</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>KMGTOOL_LOG14002=1行データの読み込み中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="36">
       <c r="A40" s="7">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="21">
-        <v>15000</v>
+      <c r="B40" s="22">
+        <v>14003</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D40" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG15000=初期化の失敗</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>KMGTOOL_LOG14003=中間ファイルに書き込み中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="36">
       <c r="A41" s="7">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="21">
-        <v>17000</v>
+      <c r="B41" s="22">
+        <v>14004</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D41" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG17000=初期化の失敗</v>
+        <v>KMGTOOL_LOG14004=中間ファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7270,47 +4433,47 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="22">
+        <v>15000</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG15000=初期化の失敗</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="7">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="22">
         <v>15001</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="12" t="str">
+      <c r="D43" s="12" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG15001=初期化で例外が発生しました。</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="36">
-      <c r="A43" s="7">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="21">
-        <v>10001</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG10001=挿入SQL作成画面の実行ボタンの処理に失敗しました。</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="36">
+    <row r="44" spans="1:4">
       <c r="A44" s="7">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="21">
-        <v>10002</v>
+      <c r="B44" s="22">
+        <v>17000</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D44" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG10002=挿入SQL作成ツールの開始に失敗しました。</v>
+        <v>KMGTOOL_LOG17000=初期化の失敗</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7494,6 +4657,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C44">
+    <sortCondition ref="B3:B44"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
@@ -7504,372 +4670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB9D1B3-6C3E-41B8-9B90-C16FB10A1FEE}">
-  <dimension ref="A1:B43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="2" width="20.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F15770-98CB-418A-A7DD-CC6F31C8AC6F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -7890,11 +4691,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="3" t="s">
         <v>65</v>
       </c>
@@ -7918,7 +4719,7 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="22">
         <v>13000</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -7934,7 +4735,7 @@
         <f t="shared" ref="A4:A13" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="22">
         <v>13001</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -7950,7 +4751,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="22">
         <v>13002</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -7966,7 +4767,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="22">
         <v>13003</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -7982,7 +4783,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="22">
         <v>13004</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -7998,7 +4799,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="22">
         <v>13005</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -8014,7 +4815,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="22">
         <v>13006</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -8030,7 +4831,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>13007</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -8046,7 +4847,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="22">
         <v>13008</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -8062,7 +4863,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="22">
         <v>13009</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -8078,7 +4879,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="22">
         <v>13010</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -8100,199 +4901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFDB595-4F48-4A79-AB2E-E34154822693}">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="2" width="20.4140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381CBA83-6CBB-4301-8D20-7404951A5D8A}">
   <dimension ref="A1:A4"/>
   <sheetViews>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E247F750-170F-4A7B-A9D5-B3471B9878DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C73AC-1641-425B-A27D-1187EB03657D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -590,6 +590,18 @@
   </si>
   <si>
     <t>中間ファイルに書き込み完了。コメント=[{0}]</t>
+  </si>
+  <si>
+    <t>対象値からUUIDへの置換数とUUIDから置換値への置換数が一致しません。対象値からUUIDへの置換数：[{0}]、UUIDから置換値への置換数：[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッピング変換処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッピング変換処理を開始します。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -719,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -737,9 +749,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -774,13 +783,13 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1278,6 +1287,20 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>19…mptf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -1351,7 +1374,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1987550" cy="5949950"/>
+    <xdr:ext cx="1987550" cy="6165850"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
@@ -1366,7 +1389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9023350" y="469900"/>
-          <a:ext cx="1987550" cy="5949950"/>
+          <a:ext cx="1987550" cy="6165850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1820,6 +1843,40 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>19…mptf</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -1893,7 +1950,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1987550" cy="5949950"/>
+    <xdr:ext cx="1987550" cy="6140450"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
@@ -1908,7 +1965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12134850" y="495300"/>
-          <a:ext cx="1987550" cy="5949950"/>
+          <a:ext cx="1987550" cy="6140450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2359,6 +2416,40 @@
             </a:rPr>
             <a:t>18…val</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>19…mptf</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -2688,7 +2779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E6C619-B784-41B2-B5EC-BFE53C95AE69}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -2736,13 +2827,13 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>1000</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="12" t="str">
+      <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D34" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN01000=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -2752,13 +2843,13 @@
         <f t="shared" ref="A4:A65" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>1001</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="str">
+      <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN01001=項目名がnullです。</v>
       </c>
@@ -2768,13 +2859,13 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>1002</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN01002=Javadocコメントがnullです。</v>
       </c>
@@ -2784,13 +2875,13 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>1003</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN01003=型情報がnullです。</v>
       </c>
@@ -2800,13 +2891,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>3000</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN03000=テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0}]</v>
       </c>
@@ -2816,13 +2907,13 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>3001</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN03001=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
       </c>
@@ -2832,13 +2923,13 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>3002</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN03002=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}]、 テンプレートパス：[{1}]、 出力ファイルパス=[{2}]</v>
       </c>
@@ -2848,13 +2939,13 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>3003</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="12" t="str">
+      <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN03003=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
       </c>
@@ -2864,13 +2955,13 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>3004</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN03004=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
       </c>
@@ -2880,13 +2971,13 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>3005</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN03005=中間の列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</v>
       </c>
@@ -2896,13 +2987,13 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>3006</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN03006=テンプレートの動的変換ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -2912,13 +3003,13 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>4000</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="12" t="str">
+      <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN04000=項目名がnullです。</v>
       </c>
@@ -2928,13 +3019,13 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>4001</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12" t="str">
+      <c r="D15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN04001=項目名がnullです。</v>
       </c>
@@ -2944,13 +3035,13 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>4002</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="12" t="str">
+      <c r="D16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN04002=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -2960,13 +3051,13 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>5000</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="12" t="str">
+      <c r="D17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN05000=コメントがnullです。</v>
       </c>
@@ -2976,13 +3067,13 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>5001</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="12" t="str">
+      <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN05001=フィールドがnullです。</v>
       </c>
@@ -2992,13 +3083,13 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>5002</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="12" t="str">
+      <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN05002=型がnullです。</v>
       </c>
@@ -3008,13 +3099,13 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>5003</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="12" t="str">
+      <c r="D20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN05003=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -3024,13 +3115,13 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>7000</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="12" t="str">
+      <c r="D21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN07000=1行読み込みに失敗しました。</v>
       </c>
@@ -3040,13 +3131,13 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>7001</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="12" t="str">
+      <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN07001=中間データの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
@@ -3056,13 +3147,13 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>7002</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="12" t="str">
+      <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN07002=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
@@ -3072,13 +3163,13 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>7003</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="12" t="str">
+      <c r="D24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN07003=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
@@ -3088,13 +3179,13 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>7004</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="12" t="str">
+      <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN07004=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
@@ -3104,13 +3195,13 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>7005</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="12" t="str">
+      <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN07005=書き込み対象の中間データの最後がリストに存在しません。</v>
       </c>
@@ -3120,13 +3211,13 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <v>7006</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="12" t="str">
+      <c r="D27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN07006=一時的な中間ファイルの作成に失敗しました。中間ファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
@@ -3136,13 +3227,13 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>8000</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="12" t="str">
+      <c r="D28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN08000=入力ファイルパスがnullです。</v>
       </c>
@@ -3152,13 +3243,13 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>8001</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="12" t="str">
+      <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN08001=入力パスファイルが存在しません。入力ファイルパス=[{0}]</v>
       </c>
@@ -3168,13 +3259,13 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>8002</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="12" t="str">
+      <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN08002=入力ファイルの読み込みに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
@@ -3184,13 +3275,13 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>9000</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="12" t="str">
+      <c r="D31" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN09000=失敗</v>
       </c>
@@ -3200,13 +3291,13 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>9001</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="12" t="str">
+      <c r="D32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN09001=成功</v>
       </c>
@@ -3216,13 +3307,13 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>9002</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="12" t="str">
+      <c r="D33" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN09002=例外発生</v>
       </c>
@@ -3232,13 +3323,13 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <v>10000</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="12" t="str">
+      <c r="D34" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN10000=出力ファイルのディレクトリの作成に失敗しました。出力ファイルパス=[{0}]</v>
       </c>
@@ -3248,13 +3339,13 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>10001</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="12" t="str">
+      <c r="D35" s="11" t="str">
         <f t="shared" ref="D35:D66" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
         <v>KMGTOOL_GEN10001=暗号化されたファイルです。入力ファイルのパス=[{0}]</v>
       </c>
@@ -3264,13 +3355,13 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="17">
         <v>10002</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="12" t="str">
+      <c r="D36" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN10002=入力ファイルのパスの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
       </c>
@@ -3280,13 +3371,13 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="17">
         <v>10003</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="12" t="str">
+      <c r="D37" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN10003=出力ファイルへの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
@@ -3296,13 +3387,13 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="17">
         <v>12000</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="12" t="str">
+      <c r="D38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12000=ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
@@ -3312,13 +3403,13 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="17">
         <v>12001</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="12" t="str">
+      <c r="D39" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12001=ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
@@ -3328,13 +3419,13 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="17">
         <v>12002</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="12" t="str">
+      <c r="D40" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12002=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
@@ -3344,13 +3435,13 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="17">
         <v>12003</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="12" t="str">
+      <c r="D41" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12003=Javadoc行削除の初期化に失敗しました。</v>
       </c>
@@ -3360,13 +3451,13 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="17">
         <v>12004</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="12" t="str">
+      <c r="D42" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12004=Javadoc行削除が正常に完了しました。</v>
       </c>
@@ -3376,13 +3467,13 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="17">
         <v>12005</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="12" t="str">
+      <c r="D43" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12005=Javadoc行削除中にエラーが発生しました。</v>
       </c>
@@ -3392,13 +3483,13 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="17">
         <v>13000</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="12" t="str">
+      <c r="D44" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13000=Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</v>
       </c>
@@ -3408,13 +3499,13 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="17">
         <v>13001</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="12" t="str">
+      <c r="D45" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13001=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
       </c>
@@ -3424,13 +3515,13 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="17">
         <v>13002</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="12" t="str">
+      <c r="D46" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13002=Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
       </c>
@@ -3440,13 +3531,13 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>13003</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="12" t="str">
+      <c r="D47" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13003=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
       </c>
@@ -3456,13 +3547,13 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>13004</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="12" t="str">
+      <c r="D48" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13004=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
@@ -3472,13 +3563,13 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>13005</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="12" t="str">
+      <c r="D49" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13005=実行が成功しました。</v>
       </c>
@@ -3488,13 +3579,13 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>13006</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="12" t="str">
+      <c r="D50" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13006=実行中に例外が発生しました。</v>
       </c>
@@ -3504,13 +3595,13 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>13007</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="12" t="str">
+      <c r="D51" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13007=バリデーションエラーが発生しました。</v>
       </c>
@@ -3520,13 +3611,13 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="17">
         <v>14000</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="12" t="str">
+      <c r="D52" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14000=項目名がnullです。</v>
       </c>
@@ -3536,13 +3627,13 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="17">
         <v>14001</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="12" t="str">
+      <c r="D53" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14001=項目がnullです。</v>
       </c>
@@ -3552,13 +3643,13 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="17">
         <v>14002</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="12" t="str">
+      <c r="D54" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14002=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
@@ -3568,13 +3659,13 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="17">
         <v>14003</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="12" t="str">
+      <c r="D55" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14003=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
@@ -3584,13 +3675,13 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="18">
         <v>15000</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="12" t="str">
+      <c r="D56" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN15000=ファイル処理に失敗しました。</v>
       </c>
@@ -3600,13 +3691,13 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="18">
         <v>16000</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="12" t="str">
+      <c r="D57" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN16000=ファイル処理に失敗しました。</v>
       </c>
@@ -3616,13 +3707,13 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="18">
         <v>16001</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="12" t="str">
+      <c r="D58" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN16001=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
@@ -3632,93 +3723,113 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="12" t="str">
+      <c r="B59" s="19">
+        <v>19000</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN19000=入力ファイルから対象パスを設定に失敗しました。</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="6">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="19">
+        <v>19001</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN19001=実行が成功しました。</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="19">
+        <v>19002</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN19002=実行中に例外が発生しました。</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="6">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="19">
+        <v>19003</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN19003=バリデーションエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="54">
+      <c r="A63" s="6">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="19">
+        <v>19004</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN19004=対象値からUUIDへの置換数とUUIDから置換値への置換数が一致しません。対象値からUUIDへの置換数：[{0}]、UUIDから置換値への置換数：[{1}]</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="6">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="6">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="12" t="str">
+    <row r="65" spans="1:4">
+      <c r="A65" s="6">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="6">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="6">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="6">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="6">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="6">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
     <row r="66" spans="1:4">
       <c r="A66" s="6">
-        <f t="shared" ref="A66:A68" si="3">ROW()-2</f>
+        <f t="shared" ref="A66:A80" si="3">ROW()-2</f>
         <v>64</v>
       </c>
-      <c r="B66" s="8"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="12" t="str">
+      <c r="D66" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3728,10 +3839,10 @@
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="B67" s="8"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="12" t="str">
-        <f t="shared" ref="D67:D98" si="4">IF(C67="","",$D$1&amp;TEXT(B67,"00000")&amp;"="&amp;C67)</f>
+      <c r="D67" s="11" t="str">
+        <f t="shared" ref="D67:D68" si="4">IF(C67="","",$D$1&amp;TEXT(B67,"00000")&amp;"="&amp;C67)</f>
         <v/>
       </c>
     </row>
@@ -3740,10 +3851,154 @@
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="B68" s="8"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="12" t="str">
+      <c r="D68" s="11" t="str">
         <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="6">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="11" t="str">
+        <f t="shared" ref="D69:D80" si="5">IF(C69="","",$D$1&amp;TEXT(B69,"00000")&amp;"="&amp;C69)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="6">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="6">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="6">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="6">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="6">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="6">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="19"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="6">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="6">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="19"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="6">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="19"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="6">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="19"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="6">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="19"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="11" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3774,8 +4029,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.08203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="49.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3791,10 +4046,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3809,13 +4064,13 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="8">
         <v>1000</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="12" t="str">
+      <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D55" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_LOG01000=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
@@ -3825,13 +4080,13 @@
         <f t="shared" ref="A4:A59" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="8">
         <v>1001</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="12" t="str">
+      <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG01001=中間ファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
@@ -3841,13 +4096,13 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="8">
         <v>1002</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG01002=クリア処理中にエラーが発生しました。</v>
       </c>
@@ -3857,13 +4112,13 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="8">
         <v>1003</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG01003=カラムの追加中にエラーが発生しました。</v>
       </c>
@@ -3873,13 +4128,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="8">
         <v>1004</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG01004=1行データの読み込み中にエラーが発生しました。</v>
       </c>
@@ -3889,13 +4144,13 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="8">
         <v>3000</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG03000=テンプレートの動的変換処理を開始します。</v>
       </c>
@@ -3905,13 +4160,13 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="8">
         <v>3001</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG03001=テンプレートの動的変換処理を終了します。</v>
       </c>
@@ -3921,13 +4176,13 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="8">
         <v>4000</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="12" t="str">
+      <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG04000=クリア処理中にエラーが発生しました。</v>
       </c>
@@ -3937,13 +4192,13 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="8">
         <v>4001</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG04001=カラムの追加中にエラーが発生しました。</v>
       </c>
@@ -3953,13 +4208,13 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="8">
         <v>4002</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="14" t="str">
+      <c r="D12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG04002=1行データの読み込み中にエラーが発生しました。</v>
       </c>
@@ -3969,13 +4224,13 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="8">
         <v>4003</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG04003=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
@@ -3985,13 +4240,13 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="8">
         <v>4004</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="12" t="str">
+      <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG04004=中間ファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
@@ -4001,13 +4256,13 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="8">
         <v>5000</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="12" t="str">
+      <c r="D15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG05000=クリア処理中にエラーが発生しました。</v>
       </c>
@@ -4017,13 +4272,13 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="8">
         <v>5001</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="12" t="str">
+      <c r="D16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG05001=カラムの追加中にエラーが発生しました。</v>
       </c>
@@ -4033,13 +4288,13 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="8">
         <v>5002</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="12" t="str">
+      <c r="D17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG05002=1行データの読み込み中にエラーが発生しました。</v>
       </c>
@@ -4049,13 +4304,13 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="8">
         <v>5003</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="12" t="str">
+      <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG05003=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
@@ -4065,13 +4320,13 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="8">
         <v>5004</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="12" t="str">
+      <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG05004=中間ファイルに書き込み完了。コメント=[{0}]</v>
       </c>
@@ -4081,13 +4336,13 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="8">
         <v>7000</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="12" t="str">
+      <c r="D20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG07000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
@@ -4097,13 +4352,13 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="8">
         <v>7001</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="12" t="str">
+      <c r="D21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG07001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
@@ -4113,13 +4368,13 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="8">
         <v>7002</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="12" t="str">
+      <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG07002=中間ファイルに書き込む処理を開始します。</v>
       </c>
@@ -4129,13 +4384,13 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="8">
         <v>7003</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="12" t="str">
+      <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG07003=中間ファイルに書き込む処理を終了します。</v>
       </c>
@@ -4145,13 +4400,13 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="8">
         <v>10000</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="12" t="str">
+      <c r="D24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG10000=挿入SQL出力に失敗しました。</v>
       </c>
@@ -4161,13 +4416,13 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="8">
         <v>10001</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="12" t="str">
+      <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG10001=挿入SQL作成画面の実行ボタンの処理に失敗しました。</v>
       </c>
@@ -4177,13 +4432,13 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="8">
         <v>10002</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="12" t="str">
+      <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG10002=挿入SQL作成ツールの開始に失敗しました。</v>
       </c>
@@ -4193,13 +4448,13 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="8">
         <v>12000</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="12" t="str">
+      <c r="D27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG12000=削除した行数=[{0}] Javadoc行の削除が完了しました。</v>
       </c>
@@ -4209,13 +4464,13 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="8">
         <v>13000</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="12" t="str">
+      <c r="D28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13000=Javadocタグ設定のコードの解析に失敗しました。識別子=[{0}]、オリジナルブロック=[{1}]</v>
       </c>
@@ -4225,13 +4480,13 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="8">
         <v>13001</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="12" t="str">
+      <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13001=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
       </c>
@@ -4241,13 +4496,13 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="8">
         <v>13002</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="12" t="str">
+      <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13002=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
       </c>
@@ -4257,13 +4512,13 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="8">
         <v>13003</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="12" t="str">
+      <c r="D31" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13003=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
       </c>
@@ -4273,13 +4528,13 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="8">
         <v>13004</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="12" t="str">
+      <c r="D32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13004=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
       </c>
@@ -4289,13 +4544,13 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="8">
         <v>13005</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="12" t="str">
+      <c r="D33" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13005=Javadocタグ設定処理を開始します。</v>
       </c>
@@ -4305,13 +4560,13 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="8">
         <v>13006</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="12" t="str">
+      <c r="D34" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13006=Javadocタグ設定処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
       </c>
@@ -4321,13 +4576,13 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="8">
         <v>13007</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="12" t="str">
+      <c r="D35" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13007=対象のファイルの処理を開始します。対象のファイルのパス=[{0}]</v>
       </c>
@@ -4337,13 +4592,13 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="8">
         <v>13008</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="12" t="str">
+      <c r="D36" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG13008=対象のファイルの処理を終了します。対象のファイルのパス=[{0}]</v>
       </c>
@@ -4353,13 +4608,13 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="8">
         <v>14000</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="12" t="str">
+      <c r="D37" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG14000=クリア処理中にエラーが発生しました。</v>
       </c>
@@ -4369,13 +4624,13 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="8">
         <v>14001</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="12" t="str">
+      <c r="D38" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG14001=カラムの追加中にエラーが発生しました。</v>
       </c>
@@ -4385,13 +4640,13 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="8">
         <v>14002</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="12" t="str">
+      <c r="D39" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG14002=1行データの読み込み中にエラーが発生しました。</v>
       </c>
@@ -4401,13 +4656,13 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="8">
         <v>14003</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="12" t="str">
+      <c r="D40" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG14003=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
@@ -4417,13 +4672,13 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="8">
         <v>14004</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="12" t="str">
+      <c r="D41" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG14004=中間ファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
@@ -4433,13 +4688,13 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="8">
         <v>15000</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="12" t="str">
+      <c r="D42" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG15000=初期化の失敗</v>
       </c>
@@ -4449,13 +4704,13 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="8">
         <v>15001</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="12" t="str">
+      <c r="D43" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG15001=初期化で例外が発生しました。</v>
       </c>
@@ -4465,39 +4720,47 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="8">
         <v>17000</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="12" t="str">
+      <c r="D44" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_LOG17000=初期化の失敗</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="36">
       <c r="A45" s="7">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" s="8">
+        <v>19000</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG19000=マッピング変換処理を開始します。</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="36">
       <c r="A46" s="7">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B46" s="8">
+        <v>19001</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_LOG19001=マッピング変換処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4505,9 +4768,9 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="12" t="str">
+      <c r="D47" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4517,9 +4780,9 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="12" t="str">
+      <c r="D48" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4529,9 +4792,9 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="12" t="str">
+      <c r="D49" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4541,9 +4804,9 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="12" t="str">
+      <c r="D50" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4553,9 +4816,9 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="17"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="12" t="str">
+      <c r="D51" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4565,9 +4828,9 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="17"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="12" t="str">
+      <c r="D52" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4579,7 +4842,7 @@
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="12" t="str">
+      <c r="D53" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4591,7 +4854,7 @@
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="12" t="str">
+      <c r="D54" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4603,7 +4866,7 @@
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="12" t="str">
+      <c r="D55" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4615,7 +4878,7 @@
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="12" t="str">
+      <c r="D56" s="11" t="str">
         <f t="shared" ref="D56:D59" si="2">IF(C56="","",$D$1&amp;TEXT(B56,"00000")&amp;"="&amp;C56)</f>
         <v/>
       </c>
@@ -4627,7 +4890,7 @@
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="12" t="str">
+      <c r="D57" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4639,7 +4902,7 @@
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="12" t="str">
+      <c r="D58" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4651,7 +4914,7 @@
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="12" t="str">
+      <c r="D59" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4719,13 +4982,13 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="8">
         <v>13000</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="12" t="str">
+      <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D13" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_VAL13000=YAMLデータが空です。</v>
       </c>
@@ -4735,13 +4998,13 @@
         <f t="shared" ref="A4:A13" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="8">
         <v>13001</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="12" t="str">
+      <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_VAL13001={0}が空ありません。Javadocタグ設定の構成のキーワード=[{1}]</v>
       </c>
@@ -4751,13 +5014,13 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="8">
         <v>13002</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_VAL13002=[{0}]は、[{1}]の場合のみ指定可能です。</v>
       </c>
@@ -4767,13 +5030,13 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="8">
         <v>13003</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_VAL13003=[{0}]が指定可能な値ではありません。[{0}]=[{1}]</v>
       </c>
@@ -4783,13 +5046,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="8">
         <v>13004</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_VAL13004=[{0}]は対象要素を指定してください。</v>
       </c>
@@ -4799,13 +5062,13 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="8">
         <v>13005</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_VAL13005=[{0}]が指定されていません。[{0}]のキーワード=[{1}]</v>
       </c>
@@ -4815,13 +5078,13 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="8">
         <v>13006</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_VAL13006=[{0}]が存在しません。指定された[{0}]=[{1}]</v>
       </c>
@@ -4831,13 +5094,13 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="8">
         <v>13007</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="12" t="str">
+      <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_VAL13007=[{0}]が指定されいません。[{0}]のキーワード=[{1}]</v>
       </c>
@@ -4847,13 +5110,13 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="8">
         <v>13008</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_VAL13008=[{0}]が正しく設定されていません。[{0}]=[{1}]</v>
       </c>
@@ -4863,13 +5126,13 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="8">
         <v>13009</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_VAL13009=[{0}]が正しく設定されていません。[{0}]=[{1}]</v>
       </c>
@@ -4879,13 +5142,13 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="8">
         <v>13010</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_VAL13010=Java区分から要素名が取得できません。コード行=[{0}]、Java区分=[{1}]</v>
       </c>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C73AC-1641-425B-A27D-1187EB03657D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA95D7F-37AB-43A2-A43E-B00F3C1EDA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="5" r:id="rId1"/>
@@ -278,10 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -601,6 +597,10 @@
   </si>
   <si>
     <t>マッピング変換処理を開始します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2895,7 +2895,7 @@
         <v>3000</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2911,11 +2911,11 @@
         <v>3001</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN03001=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0]}</v>
+        <v>KMGTOOL_GEN03001=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54">
@@ -2927,7 +2927,7 @@
         <v>3002</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2943,7 +2943,7 @@
         <v>3003</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2959,7 +2959,7 @@
         <v>3004</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2975,7 +2975,7 @@
         <v>3005</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3039,7 +3039,7 @@
         <v>4002</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3055,7 +3055,7 @@
         <v>5000</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3071,7 +3071,7 @@
         <v>5001</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3087,7 +3087,7 @@
         <v>5002</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3103,7 +3103,7 @@
         <v>5003</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3135,7 +3135,7 @@
         <v>7001</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3199,7 +3199,7 @@
         <v>7005</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3215,7 +3215,7 @@
         <v>7006</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3231,7 +3231,7 @@
         <v>8000</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3247,7 +3247,7 @@
         <v>8001</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3263,7 +3263,7 @@
         <v>8002</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3327,7 +3327,7 @@
         <v>10000</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3343,7 +3343,7 @@
         <v>10001</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="11" t="str">
         <f t="shared" ref="D35:D66" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
@@ -3359,7 +3359,7 @@
         <v>10002</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3375,7 +3375,7 @@
         <v>10003</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3391,7 +3391,7 @@
         <v>12000</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3407,7 +3407,7 @@
         <v>12001</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3423,7 +3423,7 @@
         <v>12002</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3439,7 +3439,7 @@
         <v>12003</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3455,7 +3455,7 @@
         <v>12004</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D42" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3471,7 +3471,7 @@
         <v>12005</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3487,7 +3487,7 @@
         <v>13000</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3503,7 +3503,7 @@
         <v>13001</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3519,7 +3519,7 @@
         <v>13002</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D46" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3535,7 +3535,7 @@
         <v>13003</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3551,7 +3551,7 @@
         <v>13004</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3567,7 +3567,7 @@
         <v>13005</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3583,7 +3583,7 @@
         <v>13006</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3599,7 +3599,7 @@
         <v>13007</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3631,7 +3631,7 @@
         <v>14001</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3647,7 +3647,7 @@
         <v>14002</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3663,7 +3663,7 @@
         <v>14003</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3727,7 +3727,7 @@
         <v>19000</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D59" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3743,7 +3743,7 @@
         <v>19001</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D60" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3759,7 +3759,7 @@
         <v>19002</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3775,7 +3775,7 @@
         <v>19003</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D62" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3791,7 +3791,7 @@
         <v>19004</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D63" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4068,7 +4068,7 @@
         <v>1000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D55" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -4084,7 +4084,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4228,7 +4228,7 @@
         <v>4003</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4244,7 +4244,7 @@
         <v>4004</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4308,7 +4308,7 @@
         <v>5003</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4324,7 +4324,7 @@
         <v>5004</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4372,7 +4372,7 @@
         <v>7002</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4388,7 +4388,7 @@
         <v>7003</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4404,7 +4404,7 @@
         <v>10000</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4420,7 +4420,7 @@
         <v>10001</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4436,7 +4436,7 @@
         <v>10002</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4452,7 +4452,7 @@
         <v>12000</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4468,7 +4468,7 @@
         <v>13000</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4484,7 +4484,7 @@
         <v>13001</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4500,7 +4500,7 @@
         <v>13002</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4516,7 +4516,7 @@
         <v>13003</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4532,7 +4532,7 @@
         <v>13004</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4548,7 +4548,7 @@
         <v>13005</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4564,7 +4564,7 @@
         <v>13006</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4580,7 +4580,7 @@
         <v>13007</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4596,7 +4596,7 @@
         <v>13008</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4660,7 +4660,7 @@
         <v>14003</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4676,7 +4676,7 @@
         <v>14004</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4740,7 +4740,7 @@
         <v>19000</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4756,7 +4756,7 @@
         <v>19001</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4960,7 +4960,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4986,7 +4986,7 @@
         <v>13000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D13" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -5002,7 +5002,7 @@
         <v>13001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5018,7 +5018,7 @@
         <v>13002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5034,7 +5034,7 @@
         <v>13003</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5050,7 +5050,7 @@
         <v>13004</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5066,7 +5066,7 @@
         <v>13005</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5082,7 +5082,7 @@
         <v>13006</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5098,7 +5098,7 @@
         <v>13007</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5114,7 +5114,7 @@
         <v>13008</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5130,7 +5130,7 @@
         <v>13009</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5146,7 +5146,7 @@
         <v>13010</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA95D7F-37AB-43A2-A43E-B00F3C1EDA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550E500E-5860-41E1-B7F5-C070A880A5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -601,6 +601,14 @@
   </si>
   <si>
     <t>入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワークブックが空です。入力ファイルのパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワークブックの読み込みに失敗しました。入力ファイルのパス=[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2779,7 +2787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E6C619-B784-41B2-B5EC-BFE53C95AE69}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -2840,7 +2848,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A65" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A67" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="17">
@@ -3346,7 +3354,7 @@
         <v>84</v>
       </c>
       <c r="D35" s="11" t="str">
-        <f t="shared" ref="D35:D66" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+        <f t="shared" ref="D35:D68" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
         <v>KMGTOOL_GEN10001=暗号化されたファイルです。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
@@ -3382,449 +3390,457 @@
         <v>KMGTOOL_GEN10003=出力ファイルへの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="36">
+    <row r="38" spans="1:4">
       <c r="A38" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="17">
+        <v>10004</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="11" t="str">
+        <f>IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
+        <v>KMGTOOL_GEN10004=ワークブックが空です。入力ファイルのパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="36">
+      <c r="A39" s="6">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="17">
+        <v>10005</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="11" t="str">
+        <f>IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
+        <v>KMGTOOL_GEN10005=ワークブックの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="36">
+      <c r="A40" s="6">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="17">
         <v>12000</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="11" t="str">
+      <c r="D40" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12000=ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="36">
-      <c r="A39" s="6">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="17">
+    <row r="41" spans="1:4" ht="36">
+      <c r="A41" s="6">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="17">
         <v>12001</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="11" t="str">
+      <c r="D41" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12001=ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="36">
-      <c r="A40" s="6">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="17">
+    <row r="42" spans="1:4" ht="36">
+      <c r="A42" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="17">
         <v>12002</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="11" t="str">
+      <c r="D42" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12002=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="6">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="17">
+    <row r="43" spans="1:4">
+      <c r="A43" s="6">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="17">
         <v>12003</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="11" t="str">
+      <c r="D43" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12003=Javadoc行削除の初期化に失敗しました。</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="6">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="17">
+    <row r="44" spans="1:4">
+      <c r="A44" s="6">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="17">
         <v>12004</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="11" t="str">
+      <c r="D44" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12004=Javadoc行削除が正常に完了しました。</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="6">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="17">
+    <row r="45" spans="1:4">
+      <c r="A45" s="6">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="17">
         <v>12005</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="11" t="str">
+      <c r="D45" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12005=Javadoc行削除中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="54">
-      <c r="A44" s="6">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="17">
+    <row r="46" spans="1:4" ht="54">
+      <c r="A46" s="6">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="17">
         <v>13000</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="11" t="str">
+      <c r="D46" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13000=Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="36">
-      <c r="A45" s="6">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="17">
+    <row r="47" spans="1:4" ht="36">
+      <c r="A47" s="6">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="17">
         <v>13001</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="11" t="str">
+      <c r="D47" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13001=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="36">
-      <c r="A46" s="6">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="17">
+    <row r="48" spans="1:4" ht="36">
+      <c r="A48" s="6">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="17">
         <v>13002</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="11" t="str">
+      <c r="D48" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13002=Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="36">
-      <c r="A47" s="6">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="8">
+    <row r="49" spans="1:4" ht="36">
+      <c r="A49" s="6">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="8">
         <v>13003</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="11" t="str">
+      <c r="D49" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13003=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="6">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="8">
+    <row r="50" spans="1:4">
+      <c r="A50" s="6">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="8">
         <v>13004</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="11" t="str">
+      <c r="D50" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13004=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="6">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B49" s="8">
+    <row r="51" spans="1:4">
+      <c r="A51" s="6">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="8">
         <v>13005</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="11" t="str">
+      <c r="D51" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13005=実行が成功しました。</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="6">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B50" s="8">
+    <row r="52" spans="1:4">
+      <c r="A52" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="8">
         <v>13006</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="11" t="str">
+      <c r="D52" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13006=実行中に例外が発生しました。</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="8">
+    <row r="53" spans="1:4">
+      <c r="A53" s="6">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="8">
         <v>13007</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="11" t="str">
+      <c r="D53" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13007=バリデーションエラーが発生しました。</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="6">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B52" s="17">
+    <row r="54" spans="1:4">
+      <c r="A54" s="6">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="17">
         <v>14000</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="11" t="str">
+      <c r="D54" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14000=項目名がnullです。</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="6">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B53" s="17">
+    <row r="55" spans="1:4">
+      <c r="A55" s="6">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="17">
         <v>14001</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="11" t="str">
+      <c r="D55" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14001=項目がnullです。</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="36">
-      <c r="A54" s="6">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B54" s="17">
+    <row r="56" spans="1:4" ht="36">
+      <c r="A56" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="17">
         <v>14002</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="11" t="str">
+      <c r="D56" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14002=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="36">
-      <c r="A55" s="6">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="17">
+    <row r="57" spans="1:4" ht="36">
+      <c r="A57" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="17">
         <v>14003</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="11" t="str">
+      <c r="D57" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14003=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="6">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="18">
+    <row r="58" spans="1:4">
+      <c r="A58" s="6">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="18">
         <v>15000</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="11" t="str">
+      <c r="D58" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN15000=ファイル処理に失敗しました。</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="6">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="18">
+    <row r="59" spans="1:4">
+      <c r="A59" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="18">
         <v>16000</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="11" t="str">
+      <c r="D59" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN16000=ファイル処理に失敗しました。</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="36">
-      <c r="A58" s="6">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="18">
+    <row r="60" spans="1:4" ht="36">
+      <c r="A60" s="6">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="18">
         <v>16001</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="11" t="str">
+      <c r="D60" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN16001=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="6">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B59" s="19">
+    <row r="61" spans="1:4">
+      <c r="A61" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="19">
         <v>19000</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="11" t="str">
+      <c r="D61" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19000=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="6">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="19">
+    <row r="62" spans="1:4">
+      <c r="A62" s="6">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="19">
         <v>19001</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="11" t="str">
+      <c r="D62" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19001=実行が成功しました。</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="6">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B61" s="19">
+    <row r="63" spans="1:4">
+      <c r="A63" s="6">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="19">
         <v>19002</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="11" t="str">
+      <c r="D63" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19002=実行中に例外が発生しました。</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="6">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B62" s="19">
+    <row r="64" spans="1:4">
+      <c r="A64" s="6">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="19">
         <v>19003</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="11" t="str">
+      <c r="D64" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19003=バリデーションエラーが発生しました。</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="54">
-      <c r="A63" s="6">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B63" s="19">
+    <row r="65" spans="1:4" ht="54">
+      <c r="A65" s="6">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="19">
         <v>19004</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D63" s="11" t="str">
+      <c r="D65" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19004=対象値からUUIDへの置換数とUUIDから置換値への置換数が一致しません。対象値からUUIDへの置換数：[{0}]、UUIDから置換値への置換数：[{1}]</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="6">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="6">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
     <row r="66" spans="1:4">
       <c r="A66" s="6">
-        <f t="shared" ref="A66:A80" si="3">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B66" s="19"/>
@@ -3836,25 +3852,25 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="6"/>
       <c r="D67" s="11" t="str">
-        <f t="shared" ref="D67:D68" si="4">IF(C67="","",$D$1&amp;TEXT(B67,"00000")&amp;"="&amp;C67)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A68:A82" si="3">ROW()-2</f>
         <v>66</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="6"/>
       <c r="D68" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3866,7 +3882,7 @@
       <c r="B69" s="19"/>
       <c r="C69" s="6"/>
       <c r="D69" s="11" t="str">
-        <f t="shared" ref="D69:D80" si="5">IF(C69="","",$D$1&amp;TEXT(B69,"00000")&amp;"="&amp;C69)</f>
+        <f t="shared" ref="D69:D70" si="4">IF(C69="","",$D$1&amp;TEXT(B69,"00000")&amp;"="&amp;C69)</f>
         <v/>
       </c>
     </row>
@@ -3878,7 +3894,7 @@
       <c r="B70" s="19"/>
       <c r="C70" s="6"/>
       <c r="D70" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3890,7 +3906,7 @@
       <c r="B71" s="19"/>
       <c r="C71" s="6"/>
       <c r="D71" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D71:D82" si="5">IF(C71="","",$D$1&amp;TEXT(B71,"00000")&amp;"="&amp;C71)</f>
         <v/>
       </c>
     </row>
@@ -4002,9 +4018,33 @@
         <v/>
       </c>
     </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="6">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="6">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="19"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D68">
-    <sortCondition ref="B3:B68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D70">
+    <sortCondition ref="B3:B70"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550E500E-5860-41E1-B7F5-C070A880A5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5BC74B-CE96-4299-A7A2-263352EB6242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -609,6 +609,13 @@
   </si>
   <si>
     <t>ワークブックの読み込みに失敗しました。入力ファイルのパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力シートはnullです。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2787,7 +2794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E6C619-B784-41B2-B5EC-BFE53C95AE69}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -2848,7 +2855,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A67" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A68" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="17">
@@ -3354,7 +3361,7 @@
         <v>84</v>
       </c>
       <c r="D35" s="11" t="str">
-        <f t="shared" ref="D35:D68" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+        <f t="shared" ref="D35:D69" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
         <v>KMGTOOL_GEN10001=暗号化されたファイルです。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
@@ -3422,432 +3429,436 @@
         <v>KMGTOOL_GEN10005=ワークブックの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="36">
+    <row r="40" spans="1:4">
       <c r="A40" s="6">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="17">
+        <v>10006</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="11" t="str">
+        <f>IF(C40="","",$D$1&amp;TEXT(B40,"00000")&amp;"="&amp;C40)</f>
+        <v>KMGTOOL_GEN10006=入力シートはnullです。</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="36">
+      <c r="A41" s="6">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="17">
         <v>12000</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="11" t="str">
+      <c r="D41" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12000=ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="36">
-      <c r="A41" s="6">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="17">
+    <row r="42" spans="1:4" ht="36">
+      <c r="A42" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="17">
         <v>12001</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="11" t="str">
+      <c r="D42" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12001=ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="36">
-      <c r="A42" s="6">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="17">
+    <row r="43" spans="1:4" ht="36">
+      <c r="A43" s="6">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="17">
         <v>12002</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="11" t="str">
+      <c r="D43" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12002=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="6">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="17">
+    <row r="44" spans="1:4">
+      <c r="A44" s="6">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="17">
         <v>12003</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="11" t="str">
+      <c r="D44" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12003=Javadoc行削除の初期化に失敗しました。</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="6">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="17">
+    <row r="45" spans="1:4">
+      <c r="A45" s="6">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="17">
         <v>12004</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="11" t="str">
+      <c r="D45" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12004=Javadoc行削除が正常に完了しました。</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="6">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="17">
+    <row r="46" spans="1:4">
+      <c r="A46" s="6">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="17">
         <v>12005</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="11" t="str">
+      <c r="D46" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12005=Javadoc行削除中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="54">
-      <c r="A46" s="6">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="17">
+    <row r="47" spans="1:4" ht="54">
+      <c r="A47" s="6">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="17">
         <v>13000</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="11" t="str">
+      <c r="D47" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13000=Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="36">
-      <c r="A47" s="6">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="17">
+    <row r="48" spans="1:4" ht="36">
+      <c r="A48" s="6">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="17">
         <v>13001</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="11" t="str">
+      <c r="D48" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13001=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="36">
-      <c r="A48" s="6">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="17">
+    <row r="49" spans="1:4" ht="36">
+      <c r="A49" s="6">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="17">
         <v>13002</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="11" t="str">
+      <c r="D49" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13002=Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="36">
-      <c r="A49" s="6">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B49" s="8">
+    <row r="50" spans="1:4" ht="36">
+      <c r="A50" s="6">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="8">
         <v>13003</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="11" t="str">
+      <c r="D50" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13003=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="6">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B50" s="8">
+    <row r="51" spans="1:4">
+      <c r="A51" s="6">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="8">
         <v>13004</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="11" t="str">
+      <c r="D51" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13004=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="8">
+    <row r="52" spans="1:4">
+      <c r="A52" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="8">
         <v>13005</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="11" t="str">
+      <c r="D52" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13005=実行が成功しました。</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="6">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B52" s="8">
+    <row r="53" spans="1:4">
+      <c r="A53" s="6">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="8">
         <v>13006</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="11" t="str">
+      <c r="D53" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13006=実行中に例外が発生しました。</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="6">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B53" s="8">
+    <row r="54" spans="1:4">
+      <c r="A54" s="6">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="8">
         <v>13007</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="11" t="str">
+      <c r="D54" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN13007=バリデーションエラーが発生しました。</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="6">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B54" s="17">
+    <row r="55" spans="1:4">
+      <c r="A55" s="6">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="17">
         <v>14000</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="11" t="str">
+      <c r="D55" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14000=項目名がnullです。</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="6">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="17">
+    <row r="56" spans="1:4">
+      <c r="A56" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="17">
         <v>14001</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="11" t="str">
+      <c r="D56" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14001=項目がnullです。</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="36">
-      <c r="A56" s="6">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="17">
+    <row r="57" spans="1:4" ht="36">
+      <c r="A57" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="17">
         <v>14002</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="11" t="str">
+      <c r="D57" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14002=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="36">
-      <c r="A57" s="6">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="17">
+    <row r="58" spans="1:4" ht="36">
+      <c r="A58" s="6">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="17">
         <v>14003</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="11" t="str">
+      <c r="D58" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14003=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="6">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="18">
+    <row r="59" spans="1:4">
+      <c r="A59" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="18">
         <v>15000</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="11" t="str">
+      <c r="D59" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN15000=ファイル処理に失敗しました。</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="6">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B59" s="18">
+    <row r="60" spans="1:4">
+      <c r="A60" s="6">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="18">
         <v>16000</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="11" t="str">
+      <c r="D60" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN16000=ファイル処理に失敗しました。</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="36">
-      <c r="A60" s="6">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="18">
+    <row r="61" spans="1:4" ht="36">
+      <c r="A61" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="18">
         <v>16001</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="11" t="str">
+      <c r="D61" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN16001=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="6">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B61" s="19">
+    <row r="62" spans="1:4">
+      <c r="A62" s="6">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="19">
         <v>19000</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="11" t="str">
+      <c r="D62" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19000=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="6">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B62" s="19">
+    <row r="63" spans="1:4">
+      <c r="A63" s="6">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="19">
         <v>19001</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="11" t="str">
+      <c r="D63" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19001=実行が成功しました。</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="6">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B63" s="19">
+    <row r="64" spans="1:4">
+      <c r="A64" s="6">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="19">
         <v>19002</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="11" t="str">
+      <c r="D64" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19002=実行中に例外が発生しました。</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="6">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B64" s="19">
+    <row r="65" spans="1:4">
+      <c r="A65" s="6">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="19">
         <v>19003</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D64" s="11" t="str">
+      <c r="D65" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19003=バリデーションエラーが発生しました。</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="54">
-      <c r="A65" s="6">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B65" s="19">
+    <row r="66" spans="1:4" ht="54">
+      <c r="A66" s="6">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="19">
         <v>19004</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D65" s="11" t="str">
+      <c r="D66" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19004=対象値からUUIDへの置換数とUUIDから置換値への置換数が一致しません。対象値からUUIDへの置換数：[{0}]、UUIDから置換値への置換数：[{1}]</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="6">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3864,7 +3875,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="6">
-        <f t="shared" ref="A68:A82" si="3">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B68" s="19"/>
@@ -3876,13 +3887,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A69:A83" si="3">ROW()-2</f>
         <v>67</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="6"/>
       <c r="D69" s="11" t="str">
-        <f t="shared" ref="D69:D70" si="4">IF(C69="","",$D$1&amp;TEXT(B69,"00000")&amp;"="&amp;C69)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3894,7 +3905,7 @@
       <c r="B70" s="19"/>
       <c r="C70" s="6"/>
       <c r="D70" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D70:D71" si="4">IF(C70="","",$D$1&amp;TEXT(B70,"00000")&amp;"="&amp;C70)</f>
         <v/>
       </c>
     </row>
@@ -3906,7 +3917,7 @@
       <c r="B71" s="19"/>
       <c r="C71" s="6"/>
       <c r="D71" s="11" t="str">
-        <f t="shared" ref="D71:D82" si="5">IF(C71="","",$D$1&amp;TEXT(B71,"00000")&amp;"="&amp;C71)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3918,7 +3929,7 @@
       <c r="B72" s="19"/>
       <c r="C72" s="6"/>
       <c r="D72" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D72:D83" si="5">IF(C72="","",$D$1&amp;TEXT(B72,"00000")&amp;"="&amp;C72)</f>
         <v/>
       </c>
     </row>
@@ -4042,9 +4053,21 @@
         <v/>
       </c>
     </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="6">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="19"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D70">
-    <sortCondition ref="B3:B70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D71">
+    <sortCondition ref="B3:B71"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5BC74B-CE96-4299-A7A2-263352EB6242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846F7566-60D4-47ED-8E02-3618449F65C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -616,6 +616,10 @@
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行時例外が発生しました。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2794,7 +2798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E6C619-B784-41B2-B5EC-BFE53C95AE69}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -2855,7 +2859,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A68" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A69" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="17">
@@ -3361,7 +3365,7 @@
         <v>84</v>
       </c>
       <c r="D35" s="11" t="str">
-        <f t="shared" ref="D35:D69" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+        <f t="shared" ref="D35:D70" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
         <v>KMGTOOL_GEN10001=暗号化されたファイルです。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
@@ -3674,203 +3678,207 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="8">
+        <v>13008</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="11" t="str">
+        <f t="shared" ref="D55" si="3">IF(C55="","",$D$1&amp;TEXT(B55,"00000")&amp;"="&amp;C55)</f>
+        <v>KMGTOOL_GEN13008=実行時例外が発生しました。</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="17">
         <v>14000</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="11" t="str">
+      <c r="D56" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14000=項目名がnullです。</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="6">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="17">
+    <row r="57" spans="1:4">
+      <c r="A57" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="17">
         <v>14001</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="11" t="str">
+      <c r="D57" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14001=項目がnullです。</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="36">
-      <c r="A57" s="6">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="17">
+    <row r="58" spans="1:4" ht="36">
+      <c r="A58" s="6">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="17">
         <v>14002</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="11" t="str">
+      <c r="D58" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14002=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="36">
-      <c r="A58" s="6">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="17">
+    <row r="59" spans="1:4" ht="36">
+      <c r="A59" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="17">
         <v>14003</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="11" t="str">
+      <c r="D59" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14003=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="6">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B59" s="18">
+    <row r="60" spans="1:4">
+      <c r="A60" s="6">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="18">
         <v>15000</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="11" t="str">
+      <c r="D60" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN15000=ファイル処理に失敗しました。</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="6">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="18">
+    <row r="61" spans="1:4">
+      <c r="A61" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="18">
         <v>16000</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="11" t="str">
+      <c r="D61" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN16000=ファイル処理に失敗しました。</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="36">
-      <c r="A61" s="6">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B61" s="18">
+    <row r="62" spans="1:4" ht="36">
+      <c r="A62" s="6">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="18">
         <v>16001</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="11" t="str">
+      <c r="D62" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN16001=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="6">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B62" s="19">
+    <row r="63" spans="1:4">
+      <c r="A63" s="6">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="19">
         <v>19000</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="11" t="str">
+      <c r="D63" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19000=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="6">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B63" s="19">
+    <row r="64" spans="1:4">
+      <c r="A64" s="6">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="19">
         <v>19001</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="11" t="str">
+      <c r="D64" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19001=実行が成功しました。</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="6">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B64" s="19">
+    <row r="65" spans="1:4">
+      <c r="A65" s="6">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="19">
         <v>19002</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="11" t="str">
+      <c r="D65" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19002=実行中に例外が発生しました。</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="6">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B65" s="19">
+    <row r="66" spans="1:4">
+      <c r="A66" s="6">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="19">
         <v>19003</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="11" t="str">
+      <c r="D66" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19003=バリデーションエラーが発生しました。</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="54">
-      <c r="A66" s="6">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B66" s="19">
+    <row r="67" spans="1:4" ht="54">
+      <c r="A67" s="6">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="19">
         <v>19004</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="11" t="str">
+      <c r="D67" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19004=対象値からUUIDへの置換数とUUIDから置換値への置換数が一致しません。対象値からUUIDへの置換数：[{0}]、UUIDから置換値への置換数：[{1}]</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="6">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3887,7 +3895,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="6">
-        <f t="shared" ref="A69:A83" si="3">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B69" s="19"/>
@@ -3899,175 +3907,187 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A70:A84" si="4">ROW()-2</f>
         <v>68</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="6"/>
       <c r="D70" s="11" t="str">
-        <f t="shared" ref="D70:D71" si="4">IF(C70="","",$D$1&amp;TEXT(B70,"00000")&amp;"="&amp;C70)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="6"/>
       <c r="D71" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D71:D72" si="5">IF(C71="","",$D$1&amp;TEXT(B71,"00000")&amp;"="&amp;C71)</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="6"/>
       <c r="D72" s="11" t="str">
-        <f t="shared" ref="D72:D83" si="5">IF(C72="","",$D$1&amp;TEXT(B72,"00000")&amp;"="&amp;C72)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="6"/>
       <c r="D73" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D73:D84" si="6">IF(C73="","",$D$1&amp;TEXT(B73,"00000")&amp;"="&amp;C73)</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="6"/>
       <c r="D74" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="6"/>
       <c r="D75" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="6"/>
       <c r="D76" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="6"/>
       <c r="D77" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="6"/>
       <c r="D78" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="6"/>
       <c r="D79" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="6"/>
       <c r="D80" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="6"/>
       <c r="D81" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="6"/>
       <c r="D82" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="6"/>
       <c r="D83" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="6">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D71">
-    <sortCondition ref="B3:B71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D72">
+    <sortCondition ref="B3:B72"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -4084,10 +4104,10 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846F7566-60D4-47ED-8E02-3618449F65C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED2990D-EBA2-4171-AB6F-4E2B8D1933A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,10 +515,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Javadocタグ設定のコードの解析に失敗しました。識別子=[{0}]、オリジナルブロック=[{1}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一時的な中間ファイルの作成に失敗しました。中間ファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</t>
     <rPh sb="0" eb="3">
       <t>イチジテキ</t>
@@ -620,6 +616,13 @@
   </si>
   <si>
     <t>実行時例外が発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javadocタグ設定の対象外です。識別子=[{0}]、オリジナルブロック=[{1}]</t>
+    <rPh sb="12" eb="15">
+      <t>タイショウガイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2930,7 +2933,7 @@
         <v>3001</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2994,7 +2997,7 @@
         <v>3005</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3154,7 +3157,7 @@
         <v>7001</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3218,7 +3221,7 @@
         <v>7005</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3234,7 +3237,7 @@
         <v>7006</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3410,7 +3413,7 @@
         <v>10004</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="11" t="str">
         <f>IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
@@ -3426,7 +3429,7 @@
         <v>10005</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" s="11" t="str">
         <f>IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
@@ -3442,7 +3445,7 @@
         <v>10006</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D40" s="11" t="str">
         <f>IF(C40="","",$D$1&amp;TEXT(B40,"00000")&amp;"="&amp;C40)</f>
@@ -3682,7 +3685,7 @@
         <v>13008</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D55" s="11" t="str">
         <f t="shared" ref="D55" si="3">IF(C55="","",$D$1&amp;TEXT(B55,"00000")&amp;"="&amp;C55)</f>
@@ -3874,7 +3877,7 @@
         <v>19004</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D67" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4104,10 +4107,10 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -4151,7 +4154,7 @@
         <v>1000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D55" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -4167,7 +4170,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4311,7 +4314,7 @@
         <v>4003</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4327,7 +4330,7 @@
         <v>4004</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4391,7 +4394,7 @@
         <v>5003</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4407,7 +4410,7 @@
         <v>5004</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4455,7 +4458,7 @@
         <v>7002</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4471,7 +4474,7 @@
         <v>7003</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4551,11 +4554,11 @@
         <v>13000</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D28" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13000=Javadocタグ設定のコードの解析に失敗しました。識別子=[{0}]、オリジナルブロック=[{1}]</v>
+        <v>KMGTOOL_LOG13000=Javadocタグ設定の対象外です。識別子=[{0}]、オリジナルブロック=[{1}]</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="54">
@@ -4743,7 +4746,7 @@
         <v>14003</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D40" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4759,7 +4762,7 @@
         <v>14004</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4823,7 +4826,7 @@
         <v>19000</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4839,7 +4842,7 @@
         <v>19001</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" s="11" t="str">
         <f t="shared" si="0"/>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED2990D-EBA2-4171-AB6F-4E2B8D1933A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485D6222-E388-437D-A285-1BAF60133C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -622,6 +622,13 @@
     <t>Javadocタグ設定の対象外です。識別子=[{0}]、オリジナルブロック=[{1}]</t>
     <rPh sb="12" eb="15">
       <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javadocタグ設定で対象ファイルが見つかりません。対象ファイルパス=[{0}]</t>
+    <rPh sb="19" eb="20">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2801,7 +2808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E6C619-B784-41B2-B5EC-BFE53C95AE69}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -2862,7 +2869,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A69" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A70" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="17">
@@ -3368,7 +3375,7 @@
         <v>84</v>
       </c>
       <c r="D35" s="11" t="str">
-        <f t="shared" ref="D35:D70" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+        <f t="shared" ref="D35:D71" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
         <v>KMGTOOL_GEN10001=暗号化されたファイルです。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
@@ -3692,208 +3699,212 @@
         <v>KMGTOOL_GEN13008=実行時例外が発生しました。</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" ht="36">
       <c r="A56" s="6">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="8">
+        <v>13009</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="11" t="str">
+        <f t="shared" ref="D56" si="4">IF(C56="","",$D$1&amp;TEXT(B56,"00000")&amp;"="&amp;C56)</f>
+        <v>KMGTOOL_GEN13009=Javadocタグ設定で対象ファイルが見つかりません。対象ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="17">
         <v>14000</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="11" t="str">
+      <c r="D57" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14000=項目名がnullです。</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="6">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="17">
+    <row r="58" spans="1:4">
+      <c r="A58" s="6">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="17">
         <v>14001</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="11" t="str">
+      <c r="D58" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14001=項目がnullです。</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="36">
-      <c r="A58" s="6">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="17">
+    <row r="59" spans="1:4" ht="36">
+      <c r="A59" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="17">
         <v>14002</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="11" t="str">
+      <c r="D59" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14002=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="36">
-      <c r="A59" s="6">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B59" s="17">
+    <row r="60" spans="1:4" ht="36">
+      <c r="A60" s="6">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="17">
         <v>14003</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="11" t="str">
+      <c r="D60" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN14003=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="6">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="18">
+    <row r="61" spans="1:4">
+      <c r="A61" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="18">
         <v>15000</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="11" t="str">
+      <c r="D61" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN15000=ファイル処理に失敗しました。</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="6">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B61" s="18">
+    <row r="62" spans="1:4">
+      <c r="A62" s="6">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="18">
         <v>16000</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="11" t="str">
+      <c r="D62" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN16000=ファイル処理に失敗しました。</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="36">
-      <c r="A62" s="6">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B62" s="18">
+    <row r="63" spans="1:4" ht="36">
+      <c r="A63" s="6">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="18">
         <v>16001</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="11" t="str">
+      <c r="D63" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN16001=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="6">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B63" s="19">
+    <row r="64" spans="1:4">
+      <c r="A64" s="6">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="19">
         <v>19000</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D63" s="11" t="str">
+      <c r="D64" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19000=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="6">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B64" s="19">
+    <row r="65" spans="1:4">
+      <c r="A65" s="6">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="19">
         <v>19001</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="11" t="str">
+      <c r="D65" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19001=実行が成功しました。</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="6">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B65" s="19">
+    <row r="66" spans="1:4">
+      <c r="A66" s="6">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="19">
         <v>19002</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D65" s="11" t="str">
+      <c r="D66" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19002=実行中に例外が発生しました。</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="6">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B66" s="19">
+    <row r="67" spans="1:4">
+      <c r="A67" s="6">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="19">
         <v>19003</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="11" t="str">
+      <c r="D67" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19003=バリデーションエラーが発生しました。</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="54">
-      <c r="A67" s="6">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="B67" s="19">
+    <row r="68" spans="1:4" ht="54">
+      <c r="A68" s="6">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="19">
         <v>19004</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="11" t="str">
+      <c r="D68" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN19004=対象値からUUIDへの置換数とUUIDから置換値への置換数が一致しません。対象値からUUIDへの置換数：[{0}]、UUIDから置換値への置換数：[{1}]</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="6">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3910,7 +3921,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6">
-        <f t="shared" ref="A70:A84" si="4">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B70" s="19"/>
@@ -3922,175 +3933,187 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A71:A85" si="5">ROW()-2</f>
         <v>69</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="6"/>
       <c r="D71" s="11" t="str">
-        <f t="shared" ref="D71:D72" si="5">IF(C71="","",$D$1&amp;TEXT(B71,"00000")&amp;"="&amp;C71)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="6"/>
       <c r="D72" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D72:D73" si="6">IF(C72="","",$D$1&amp;TEXT(B72,"00000")&amp;"="&amp;C72)</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="6"/>
       <c r="D73" s="11" t="str">
-        <f t="shared" ref="D73:D84" si="6">IF(C73="","",$D$1&amp;TEXT(B73,"00000")&amp;"="&amp;C73)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="6"/>
       <c r="D74" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D74:D85" si="7">IF(C74="","",$D$1&amp;TEXT(B74,"00000")&amp;"="&amp;C74)</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="6"/>
       <c r="D75" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="6"/>
       <c r="D76" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="6"/>
       <c r="D77" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="6"/>
       <c r="D78" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="6"/>
       <c r="D79" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="6"/>
       <c r="D80" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="6"/>
       <c r="D81" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="6"/>
       <c r="D82" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="6"/>
       <c r="D83" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="6"/>
       <c r="D84" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="6">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D72">
-    <sortCondition ref="B3:B72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D73">
+    <sortCondition ref="B3:B73"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
